--- a/libraries/assets/grades/gradebook_percentage.xlsx
+++ b/libraries/assets/grades/gradebook_percentage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/casillas/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/casillas/academia/teaching/ua/ua_spanish_340/fonetica_fi_f2015/libraries/assets/grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -408,9 +408,6 @@
     <t>ts</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Semana 1</t>
   </si>
   <si>
@@ -505,6 +502,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1176,9 +1176,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1200,6 +1197,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1490,11 +1490,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2069319696"/>
-        <c:axId val="-2069573520"/>
+        <c:axId val="-2124385168"/>
+        <c:axId val="-2124377008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2069319696"/>
+        <c:axId val="-2124385168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1529,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069573520"/>
+        <c:crossAx val="-2124377008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1539,7 +1539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2069573520"/>
+        <c:axId val="-2124377008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1613,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069319696"/>
+        <c:crossAx val="-2124385168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1685,7 +1685,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1076"/>
+                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1080"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2234,7 +2234,7 @@
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2287,7 +2287,7 @@
     <row r="2" spans="1:32" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="4"/>
       <c r="AF2" s="46" t="s">
@@ -2297,7 +2297,7 @@
     <row r="3" spans="1:32" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -2333,7 +2333,7 @@
     <row r="4" spans="1:32" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" s="4"/>
       <c r="Z4" s="80" t="s">
@@ -2404,115 +2404,115 @@
     </row>
     <row r="7" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="S7" s="96"/>
+      <c r="T7" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="U7" s="96"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="U7" s="97"/>
-      <c r="V7" s="96"/>
-      <c r="W7" s="96" t="s">
-        <v>142</v>
-      </c>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="96"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="95"/>
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:32" ht="67" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="E8" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="F8" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="M8" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="N8" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="R8" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="S8" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="T8" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="U8" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="V8" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="W8" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" s="92" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="K8" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="L8" s="92" t="s">
-        <v>132</v>
-      </c>
-      <c r="M8" s="92" t="s">
-        <v>136</v>
-      </c>
-      <c r="N8" s="92" t="s">
-        <v>137</v>
-      </c>
-      <c r="O8" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="P8" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q8" s="92" t="s">
-        <v>140</v>
-      </c>
-      <c r="R8" s="92" t="s">
-        <v>143</v>
-      </c>
-      <c r="S8" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="T8" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="U8" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="V8" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="W8" s="92" t="s">
+      <c r="X8" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="X8" s="92" t="s">
+      <c r="Y8" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="Y8" s="92" t="s">
+      <c r="Z8" s="91" t="s">
         <v>124</v>
-      </c>
-      <c r="Z8" s="92" t="s">
-        <v>125</v>
       </c>
       <c r="AA8" s="79" t="s">
         <v>2</v>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B12" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A12),INDEX(Names!$B$10:$B$109,Gradebook!A12))</f>
-        <v>ea</v>
+        <v>Emily</v>
       </c>
       <c r="C12" s="77">
         <v>1</v>
@@ -2677,10 +2677,12 @@
       <c r="O12" s="77"/>
       <c r="P12" s="77"/>
       <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
+      <c r="R12" s="77">
+        <v>1</v>
+      </c>
       <c r="S12" s="77"/>
       <c r="T12" s="77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U12" s="77"/>
       <c r="V12" s="77"/>
@@ -2690,11 +2692,11 @@
       <c r="Z12" s="77"/>
       <c r="AA12" s="77"/>
       <c r="AB12" s="71">
-        <f>IF(SUM(C12:AA12)=0,"",SUMPRODUCT(C12:AA12,$C$9:$AA$9))</f>
-        <v>20</v>
+        <f t="shared" ref="AB12:AB25" si="0">IF(SUM(C12:AA12)=0,"",SUMPRODUCT(C12:AA12,$C$9:$AA$9))</f>
+        <v>70</v>
       </c>
       <c r="AC12" s="72">
-        <f>IF(SUM(C12:AA12)=0,"",$AC$9+AB12/(SUMIF(C12:AA12,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C12:AA12,"=E",$C$9:$AA$9)))</f>
+        <f t="shared" ref="AC12:AC25" si="1">IF(SUM(C12:AA12)=0,"",$AC$9+AB12/(SUMIF(C12:AA12,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C12:AA12,"=E",$C$9:$AA$9)))</f>
         <v>1</v>
       </c>
       <c r="AD12" s="73" t="str">
@@ -2707,12 +2709,12 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
-        <f t="shared" ref="A13:A24" ca="1" si="0">OFFSET(A13,-1,0,1,1)+1</f>
+        <f t="shared" ref="A13:A24" ca="1" si="2">OFFSET(A13,-1,0,1,1)+1</f>
         <v>2</v>
       </c>
       <c r="B13" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A13),INDEX(Names!$B$10:$B$109,Gradebook!A13))</f>
-        <v>ca</v>
+        <v>Claire</v>
       </c>
       <c r="C13" s="77">
         <v>1</v>
@@ -2733,10 +2735,12 @@
       <c r="O13" s="77"/>
       <c r="P13" s="77"/>
       <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
+      <c r="R13" s="77">
+        <v>0.95</v>
+      </c>
       <c r="S13" s="77"/>
       <c r="T13" s="77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U13" s="77"/>
       <c r="V13" s="77"/>
@@ -2746,12 +2750,12 @@
       <c r="Z13" s="77"/>
       <c r="AA13" s="77"/>
       <c r="AB13" s="71">
-        <f>IF(SUM(C13:AA13)=0,"",SUMPRODUCT(C13:AA13,$C$9:$AA$9))</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>67.5</v>
       </c>
       <c r="AC13" s="72">
-        <f>IF(SUM(C13:AA13)=0,"",$AC$9+AB13/(SUMIF(C13:AA13,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C13:AA13,"=E",$C$9:$AA$9)))</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.9642857142857143</v>
       </c>
       <c r="AD13" s="73" t="str">
         <f>IF(AC13="","",INDEX(Grades!$B$12:$B$24,MATCH(AC13,Grades!$A$12:$A$24,1)))</f>
@@ -2763,12 +2767,12 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="B14" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A14),INDEX(Names!$B$10:$B$109,Gradebook!A14))</f>
-        <v>ad</v>
+        <v>Audra</v>
       </c>
       <c r="C14" s="77" t="s">
         <v>91</v>
@@ -2789,10 +2793,12 @@
       <c r="O14" s="77"/>
       <c r="P14" s="77"/>
       <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
+      <c r="R14" s="77">
+        <v>0.95</v>
+      </c>
       <c r="S14" s="77"/>
       <c r="T14" s="77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U14" s="77"/>
       <c r="V14" s="77"/>
@@ -2802,11 +2808,11 @@
       <c r="Z14" s="77"/>
       <c r="AA14" s="77"/>
       <c r="AB14" s="71">
-        <f>IF(SUM(C14:AA14)=0,"",SUMPRODUCT(C14:AA14,$C$9:$AA$9))</f>
-        <v>9.5</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="AC14" s="72">
-        <f>IF(SUM(C14:AA14)=0,"",$AC$9+AB14/(SUMIF(C14:AA14,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C14:AA14,"=E",$C$9:$AA$9)))</f>
+        <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
       <c r="AD14" s="73" t="str">
@@ -2819,14 +2825,14 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="B15" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A15),INDEX(Names!$B$10:$B$109,Gradebook!A15))</f>
-        <v>eg</v>
-      </c>
-      <c r="C15" s="93">
+        <v>Erin G.</v>
+      </c>
+      <c r="C15" s="92">
         <v>1</v>
       </c>
       <c r="D15" s="77">
@@ -2845,10 +2851,12 @@
       <c r="O15" s="77"/>
       <c r="P15" s="77"/>
       <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
+      <c r="R15" s="77">
+        <v>0.95</v>
+      </c>
       <c r="S15" s="77"/>
       <c r="T15" s="77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U15" s="77"/>
       <c r="V15" s="77"/>
@@ -2858,12 +2866,12 @@
       <c r="Z15" s="77"/>
       <c r="AA15" s="77"/>
       <c r="AB15" s="71">
-        <f>IF(SUM(C15:AA15)=0,"",SUMPRODUCT(C15:AA15,$C$9:$AA$9))</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>67.5</v>
       </c>
       <c r="AC15" s="72">
-        <f>IF(SUM(C15:AA15)=0,"",$AC$9+AB15/(SUMIF(C15:AA15,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C15:AA15,"=E",$C$9:$AA$9)))</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.9642857142857143</v>
       </c>
       <c r="AD15" s="73" t="str">
         <f>IF(AC15="","",INDEX(Grades!$B$12:$B$24,MATCH(AC15,Grades!$A$12:$A$24,1)))</f>
@@ -2875,14 +2883,14 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
       <c r="B16" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A16),INDEX(Names!$B$10:$B$109,Gradebook!A16))</f>
-        <v>eh</v>
-      </c>
-      <c r="C16" s="93">
+        <v>Erin H.</v>
+      </c>
+      <c r="C16" s="92">
         <v>1</v>
       </c>
       <c r="D16" s="77">
@@ -2901,10 +2909,12 @@
       <c r="O16" s="77"/>
       <c r="P16" s="77"/>
       <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
+      <c r="R16" s="77">
+        <v>1</v>
+      </c>
       <c r="S16" s="77"/>
       <c r="T16" s="77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U16" s="77"/>
       <c r="V16" s="77"/>
@@ -2914,11 +2924,11 @@
       <c r="Z16" s="77"/>
       <c r="AA16" s="77"/>
       <c r="AB16" s="71">
-        <f>IF(SUM(C16:AA16)=0,"",SUMPRODUCT(C16:AA16,$C$9:$AA$9))</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="AC16" s="72">
-        <f>IF(SUM(C16:AA16)=0,"",$AC$9+AB16/(SUMIF(C16:AA16,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C16:AA16,"=E",$C$9:$AA$9)))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD16" s="73" t="str">
@@ -2931,14 +2941,14 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
       <c r="B17" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A17),INDEX(Names!$B$10:$B$109,Gradebook!A17))</f>
-        <v>th</v>
-      </c>
-      <c r="C17" s="93">
+        <v>Taylor H.</v>
+      </c>
+      <c r="C17" s="92">
         <v>1</v>
       </c>
       <c r="D17" s="77">
@@ -2957,10 +2967,12 @@
       <c r="O17" s="77"/>
       <c r="P17" s="77"/>
       <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
+      <c r="R17" s="77">
+        <v>0.95</v>
+      </c>
       <c r="S17" s="77"/>
       <c r="T17" s="77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U17" s="77"/>
       <c r="V17" s="77"/>
@@ -2970,12 +2982,12 @@
       <c r="Z17" s="77"/>
       <c r="AA17" s="77"/>
       <c r="AB17" s="71">
-        <f>IF(SUM(C17:AA17)=0,"",SUMPRODUCT(C17:AA17,$C$9:$AA$9))</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>67.5</v>
       </c>
       <c r="AC17" s="72">
-        <f>IF(SUM(C17:AA17)=0,"",$AC$9+AB17/(SUMIF(C17:AA17,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C17:AA17,"=E",$C$9:$AA$9)))</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.9642857142857143</v>
       </c>
       <c r="AD17" s="73" t="str">
         <f>IF(AC17="","",INDEX(Grades!$B$12:$B$24,MATCH(AC17,Grades!$A$12:$A$24,1)))</f>
@@ -2987,14 +2999,14 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>7</v>
       </c>
       <c r="B18" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A18),INDEX(Names!$B$10:$B$109,Gradebook!A18))</f>
-        <v>ak</v>
-      </c>
-      <c r="C18" s="93">
+        <v>Amber</v>
+      </c>
+      <c r="C18" s="92">
         <v>1</v>
       </c>
       <c r="D18" s="77">
@@ -3013,10 +3025,12 @@
       <c r="O18" s="77"/>
       <c r="P18" s="77"/>
       <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
+      <c r="R18" s="77">
+        <v>1</v>
+      </c>
       <c r="S18" s="77"/>
       <c r="T18" s="77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U18" s="77"/>
       <c r="V18" s="77"/>
@@ -3026,11 +3040,11 @@
       <c r="Z18" s="77"/>
       <c r="AA18" s="77"/>
       <c r="AB18" s="71">
-        <f>IF(SUM(C18:AA18)=0,"",SUMPRODUCT(C18:AA18,$C$9:$AA$9))</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="AC18" s="72">
-        <f>IF(SUM(C18:AA18)=0,"",$AC$9+AB18/(SUMIF(C18:AA18,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C18:AA18,"=E",$C$9:$AA$9)))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD18" s="73" t="str">
@@ -3043,14 +3057,14 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>8</v>
       </c>
       <c r="B19" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A19),INDEX(Names!$B$10:$B$109,Gradebook!A19))</f>
-        <v>lm</v>
-      </c>
-      <c r="C19" s="93">
+        <v>Lexa</v>
+      </c>
+      <c r="C19" s="92">
         <v>1</v>
       </c>
       <c r="D19" s="77">
@@ -3069,10 +3083,12 @@
       <c r="O19" s="77"/>
       <c r="P19" s="77"/>
       <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
+      <c r="R19" s="77">
+        <v>1</v>
+      </c>
       <c r="S19" s="77"/>
       <c r="T19" s="77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U19" s="77"/>
       <c r="V19" s="77"/>
@@ -3082,11 +3098,11 @@
       <c r="Z19" s="77"/>
       <c r="AA19" s="77"/>
       <c r="AB19" s="71">
-        <f>IF(SUM(C19:AA19)=0,"",SUMPRODUCT(C19:AA19,$C$9:$AA$9))</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="AC19" s="72">
-        <f>IF(SUM(C19:AA19)=0,"",$AC$9+AB19/(SUMIF(C19:AA19,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C19:AA19,"=E",$C$9:$AA$9)))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD19" s="73" t="str">
@@ -3099,14 +3115,14 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
       <c r="B20" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A20),INDEX(Names!$B$10:$B$109,Gradebook!A20))</f>
-        <v>co</v>
-      </c>
-      <c r="C20" s="93">
+        <v>Cory</v>
+      </c>
+      <c r="C20" s="92">
         <v>1</v>
       </c>
       <c r="D20" s="77">
@@ -3125,10 +3141,12 @@
       <c r="O20" s="77"/>
       <c r="P20" s="77"/>
       <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
+      <c r="R20" s="77">
+        <v>1</v>
+      </c>
       <c r="S20" s="77"/>
       <c r="T20" s="77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U20" s="77"/>
       <c r="V20" s="77"/>
@@ -3138,11 +3156,11 @@
       <c r="Z20" s="77"/>
       <c r="AA20" s="77"/>
       <c r="AB20" s="71">
-        <f>IF(SUM(C20:AA20)=0,"",SUMPRODUCT(C20:AA20,$C$9:$AA$9))</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="AC20" s="72">
-        <f>IF(SUM(C20:AA20)=0,"",$AC$9+AB20/(SUMIF(C20:AA20,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C20:AA20,"=E",$C$9:$AA$9)))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD20" s="73" t="str">
@@ -3155,14 +3173,14 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
       <c r="B21" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A21),INDEX(Names!$B$10:$B$109,Gradebook!A21))</f>
-        <v>lr</v>
-      </c>
-      <c r="C21" s="93">
+        <v>Lindsay</v>
+      </c>
+      <c r="C21" s="92">
         <v>1</v>
       </c>
       <c r="D21" s="77">
@@ -3181,10 +3199,12 @@
       <c r="O21" s="77"/>
       <c r="P21" s="77"/>
       <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
+      <c r="R21" s="77">
+        <v>1</v>
+      </c>
       <c r="S21" s="77"/>
       <c r="T21" s="77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U21" s="77"/>
       <c r="V21" s="77"/>
@@ -3194,11 +3214,11 @@
       <c r="Z21" s="77"/>
       <c r="AA21" s="77"/>
       <c r="AB21" s="71">
-        <f>IF(SUM(C21:AA21)=0,"",SUMPRODUCT(C21:AA21,$C$9:$AA$9))</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="AC21" s="72">
-        <f>IF(SUM(C21:AA21)=0,"",$AC$9+AB21/(SUMIF(C21:AA21,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C21:AA21,"=E",$C$9:$AA$9)))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD21" s="73" t="str">
@@ -3209,14 +3229,14 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>11</v>
       </c>
       <c r="B22" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A22),INDEX(Names!$B$10:$B$109,Gradebook!A22))</f>
-        <v>ar</v>
-      </c>
-      <c r="C22" s="93">
+        <v>Allyson</v>
+      </c>
+      <c r="C22" s="92">
         <v>1</v>
       </c>
       <c r="D22" s="77">
@@ -3235,10 +3255,12 @@
       <c r="O22" s="77"/>
       <c r="P22" s="77"/>
       <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
+      <c r="R22" s="77">
+        <v>0.95</v>
+      </c>
       <c r="S22" s="77"/>
       <c r="T22" s="77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U22" s="77"/>
       <c r="V22" s="77"/>
@@ -3248,12 +3270,12 @@
       <c r="Z22" s="77"/>
       <c r="AA22" s="77"/>
       <c r="AB22" s="71">
-        <f>IF(SUM(C22:AA22)=0,"",SUMPRODUCT(C22:AA22,$C$9:$AA$9))</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>67.5</v>
       </c>
       <c r="AC22" s="72">
-        <f>IF(SUM(C22:AA22)=0,"",$AC$9+AB22/(SUMIF(C22:AA22,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C22:AA22,"=E",$C$9:$AA$9)))</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.9642857142857143</v>
       </c>
       <c r="AD22" s="73" t="str">
         <f>IF(AC22="","",INDEX(Grades!$B$12:$B$24,MATCH(AC22,Grades!$A$12:$A$24,1)))</f>
@@ -3263,19 +3285,19 @@
         <v>89</v>
       </c>
       <c r="AG22" s="85" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>12</v>
       </c>
       <c r="B23" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A23),INDEX(Names!$B$10:$B$109,Gradebook!A23))</f>
-        <v>mr</v>
-      </c>
-      <c r="C23" s="93">
+        <v>Miranda</v>
+      </c>
+      <c r="C23" s="92">
         <v>1</v>
       </c>
       <c r="D23" s="77">
@@ -3294,10 +3316,12 @@
       <c r="O23" s="77"/>
       <c r="P23" s="77"/>
       <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
+      <c r="R23" s="77">
+        <v>1</v>
+      </c>
       <c r="S23" s="77"/>
       <c r="T23" s="77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U23" s="77"/>
       <c r="V23" s="77"/>
@@ -3307,11 +3331,11 @@
       <c r="Z23" s="77"/>
       <c r="AA23" s="77"/>
       <c r="AB23" s="71">
-        <f>IF(SUM(C23:AA23)=0,"",SUMPRODUCT(C23:AA23,$C$9:$AA$9))</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="AC23" s="72">
-        <f>IF(SUM(C23:AA23)=0,"",$AC$9+AB23/(SUMIF(C23:AA23,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C23:AA23,"=E",$C$9:$AA$9)))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD23" s="73" t="str">
@@ -3321,14 +3345,14 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>13</v>
       </c>
       <c r="B24" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A24),INDEX(Names!$B$10:$B$109,Gradebook!A24))</f>
-        <v>ts</v>
-      </c>
-      <c r="C24" s="93">
+        <v>Taylor S.</v>
+      </c>
+      <c r="C24" s="92">
         <v>1</v>
       </c>
       <c r="D24" s="77">
@@ -3347,10 +3371,12 @@
       <c r="O24" s="77"/>
       <c r="P24" s="77"/>
       <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
+      <c r="R24" s="77">
+        <v>1</v>
+      </c>
       <c r="S24" s="77"/>
       <c r="T24" s="77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U24" s="77"/>
       <c r="V24" s="77"/>
@@ -3360,11 +3386,11 @@
       <c r="Z24" s="77"/>
       <c r="AA24" s="77"/>
       <c r="AB24" s="71">
-        <f>IF(SUM(C24:AA24)=0,"",SUMPRODUCT(C24:AA24,$C$9:$AA$9))</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="AC24" s="72">
-        <f>IF(SUM(C24:AA24)=0,"",$AC$9+AB24/(SUMIF(C24:AA24,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C24:AA24,"=E",$C$9:$AA$9)))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD24" s="73" t="str">
@@ -3376,7 +3402,7 @@
       </c>
       <c r="AG24" s="87" t="b">
         <f>AG22="Yes"</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.15">
@@ -3410,11 +3436,11 @@
       <c r="Z25" s="75"/>
       <c r="AA25" s="75"/>
       <c r="AB25" s="71" t="str">
-        <f>IF(SUM(C25:AA25)=0,"",SUMPRODUCT(C25:AA25,$C$9:$AA$9))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AC25" s="72" t="str">
-        <f>IF(SUM(C25:AA25)=0,"",$AC$9+AB25/(SUMIF(C25:AA25,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C25:AA25,"=E",$C$9:$AA$9)))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AD25" s="73" t="str">
@@ -3430,39 +3456,39 @@
         <v>4</v>
       </c>
       <c r="C26" s="70">
-        <f>IF(SUM(C12:C25)=0,"",AVERAGE(C12:C25))</f>
+        <f t="shared" ref="C26:K26" si="3">IF(SUM(C12:C25)=0,"",AVERAGE(C12:C25))</f>
         <v>1</v>
       </c>
       <c r="D26" s="70">
-        <f>IF(SUM(D12:D25)=0,"",AVERAGE(D12:D25))</f>
+        <f t="shared" si="3"/>
         <v>0.99615384615384606</v>
       </c>
       <c r="E26" s="70" t="str">
-        <f>IF(SUM(E12:E25)=0,"",AVERAGE(E12:E25))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F26" s="70" t="str">
-        <f>IF(SUM(F12:F25)=0,"",AVERAGE(F12:F25))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G26" s="70" t="str">
-        <f>IF(SUM(G12:G25)=0,"",AVERAGE(G12:G25))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H26" s="70" t="str">
-        <f>IF(SUM(H12:H25)=0,"",AVERAGE(H12:H25))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I26" s="70" t="str">
-        <f>IF(SUM(I12:I25)=0,"",AVERAGE(I12:I25))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J26" s="70" t="str">
-        <f>IF(SUM(J12:J25)=0,"",AVERAGE(J12:J25))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K26" s="70" t="str">
-        <f>IF(SUM(K12:K25)=0,"",AVERAGE(K12:K25))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L26" s="70"/>
@@ -3479,27 +3505,27 @@
       <c r="T26" s="70"/>
       <c r="U26" s="70"/>
       <c r="V26" s="70" t="str">
-        <f>IF(SUM(V12:V25)=0,"",AVERAGE(V12:V25))</f>
+        <f t="shared" ref="V26:AA26" si="4">IF(SUM(V12:V25)=0,"",AVERAGE(V12:V25))</f>
         <v/>
       </c>
       <c r="W26" s="70" t="str">
-        <f>IF(SUM(W12:W25)=0,"",AVERAGE(W12:W25))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="X26" s="70" t="str">
-        <f>IF(SUM(X12:X25)=0,"",AVERAGE(X12:X25))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Y26" s="70" t="str">
-        <f>IF(SUM(Y12:Y25)=0,"",AVERAGE(Y12:Y25))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Z26" s="70" t="str">
-        <f>IF(SUM(Z12:Z25)=0,"",AVERAGE(Z12:Z25))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AA26" s="70" t="str">
-        <f>IF(SUM(AA12:AA25)=0,"",AVERAGE(AA12:AA25))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB26" s="19" t="s">
@@ -3507,7 +3533,7 @@
       </c>
       <c r="AC26" s="67">
         <f>AVERAGE(AC12:AC25)</f>
-        <v>0.99615384615384606</v>
+        <v>0.98516483516483511</v>
       </c>
       <c r="AD26" s="68" t="str">
         <f>IF(AC26="","",INDEX(Grades!$B$12:$B$24,MATCH(AC26,Grades!$A$12:$A$24,1)))</f>
@@ -3519,39 +3545,39 @@
         <v>49</v>
       </c>
       <c r="C27" s="70">
-        <f>IF(OR(C9=0,C26=""),"",MEDIAN(C12:C25))</f>
+        <f t="shared" ref="C27:K27" si="5">IF(OR(C9=0,C26=""),"",MEDIAN(C12:C25))</f>
         <v>1</v>
       </c>
       <c r="D27" s="70">
-        <f>IF(OR(D9=0,D26=""),"",MEDIAN(D12:D25))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E27" s="70" t="str">
-        <f>IF(OR(E9=0,E26=""),"",MEDIAN(E12:E25))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F27" s="70" t="str">
-        <f>IF(OR(F9=0,F26=""),"",MEDIAN(F12:F25))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G27" s="70" t="str">
-        <f>IF(OR(G9=0,G26=""),"",MEDIAN(G12:G25))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H27" s="70" t="str">
-        <f>IF(OR(H9=0,H26=""),"",MEDIAN(H12:H25))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I27" s="70" t="str">
-        <f>IF(OR(I9=0,I26=""),"",MEDIAN(I12:I25))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J27" s="70" t="str">
-        <f>IF(OR(J9=0,J26=""),"",MEDIAN(J12:J25))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K27" s="70" t="str">
-        <f>IF(OR(K9=0,K26=""),"",MEDIAN(K12:K25))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L27" s="70"/>
@@ -3568,27 +3594,27 @@
       <c r="T27" s="70"/>
       <c r="U27" s="70"/>
       <c r="V27" s="70" t="str">
-        <f>IF(OR(V9=0,V26=""),"",MEDIAN(V12:V25))</f>
+        <f t="shared" ref="V27:AA27" si="6">IF(OR(V9=0,V26=""),"",MEDIAN(V12:V25))</f>
         <v/>
       </c>
       <c r="W27" s="70" t="str">
-        <f>IF(OR(W9=0,W26=""),"",MEDIAN(W12:W25))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="X27" s="70" t="str">
-        <f>IF(OR(X9=0,X26=""),"",MEDIAN(X12:X25))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y27" s="70" t="str">
-        <f>IF(OR(Y9=0,Y26=""),"",MEDIAN(Y12:Y25))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z27" s="70" t="str">
-        <f>IF(OR(Z9=0,Z26=""),"",MEDIAN(Z12:Z25))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA27" s="70" t="str">
-        <f>IF(OR(AA9=0,AA26=""),"",MEDIAN(AA12:AA25))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AB27" s="19" t="s">
@@ -3604,39 +3630,39 @@
         <v>50</v>
       </c>
       <c r="C28" s="70">
-        <f>IF(OR(C9=0,C26=""),"",STDEV(C12:C25))</f>
+        <f t="shared" ref="C28:K28" si="7">IF(OR(C9=0,C26=""),"",STDEV(C12:C25))</f>
         <v>0</v>
       </c>
       <c r="D28" s="70">
-        <f>IF(OR(D9=0,D26=""),"",STDEV(D12:D25))</f>
+        <f t="shared" si="7"/>
         <v>1.3867504905630743E-2</v>
       </c>
       <c r="E28" s="70" t="str">
-        <f>IF(OR(E9=0,E26=""),"",STDEV(E12:E25))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F28" s="70" t="str">
-        <f>IF(OR(F9=0,F26=""),"",STDEV(F12:F25))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G28" s="70" t="str">
-        <f>IF(OR(G9=0,G26=""),"",STDEV(G12:G25))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H28" s="70" t="str">
-        <f>IF(OR(H9=0,H26=""),"",STDEV(H12:H25))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I28" s="70" t="str">
-        <f>IF(OR(I9=0,I26=""),"",STDEV(I12:I25))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J28" s="70" t="str">
-        <f>IF(OR(J9=0,J26=""),"",STDEV(J12:J25))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K28" s="70" t="str">
-        <f>IF(OR(K9=0,K26=""),"",STDEV(K12:K25))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L28" s="70"/>
@@ -3653,27 +3679,27 @@
       <c r="T28" s="70"/>
       <c r="U28" s="70"/>
       <c r="V28" s="70" t="str">
-        <f>IF(OR(V9=0,V26=""),"",STDEV(V12:V25))</f>
+        <f t="shared" ref="V28:AA28" si="8">IF(OR(V9=0,V26=""),"",STDEV(V12:V25))</f>
         <v/>
       </c>
       <c r="W28" s="70" t="str">
-        <f>IF(OR(W9=0,W26=""),"",STDEV(W12:W25))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X28" s="70" t="str">
-        <f>IF(OR(X9=0,X26=""),"",STDEV(X12:X25))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y28" s="70" t="str">
-        <f>IF(OR(Y9=0,Y26=""),"",STDEV(Y12:Y25))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Z28" s="70" t="str">
-        <f>IF(OR(Z9=0,Z26=""),"",STDEV(Z12:Z25))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA28" s="70" t="str">
-        <f>IF(OR(AA9=0,AA26=""),"",STDEV(AA12:AA25))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB28" s="19" t="s">
@@ -3681,7 +3707,7 @@
       </c>
       <c r="AC28" s="67">
         <f>STDEV(AC12:AC25)</f>
-        <v>1.3867504905630743E-2</v>
+        <v>1.9876647337185006E-2</v>
       </c>
       <c r="AD28" s="31" t="s">
         <v>65</v>
@@ -3781,10 +3807,10 @@
         <f t="shared" ref="A10:A41" ca="1" si="0">OFFSET(A10,-1,0,1,1)+1</f>
         <v>1</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="90" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3793,10 +3819,10 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="90" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3805,10 +3831,10 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="90" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3817,10 +3843,10 @@
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="90" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3829,10 +3855,10 @@
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="90" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3841,10 +3867,10 @@
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="90" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3853,10 +3879,10 @@
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="90" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3865,10 +3891,10 @@
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="90" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3877,10 +3903,10 @@
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="90" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3889,10 +3915,10 @@
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="90" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3901,10 +3927,10 @@
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="91" t="s">
+      <c r="C20" s="90" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3913,10 +3939,10 @@
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="90" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3925,10 +3951,10 @@
         <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="90" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4720,10 +4746,10 @@
       <c r="B11" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="89"/>
+      <c r="D11" s="97"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="57">
@@ -4964,7 +4990,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54">
         <f>Gradebook!$AC$26</f>
-        <v>0.99615384615384606</v>
+        <v>0.98516483516483511</v>
       </c>
       <c r="B28" s="55" t="str">
         <f>INDEX(B12:B24,MATCH(A28,A12:A24,1))</f>
@@ -4989,7 +5015,7 @@
       </c>
       <c r="B31" s="54">
         <f>Gradebook!AC28</f>
-        <v>1.3867504905630743E-2</v>
+        <v>1.9876647337185006E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5215,7 +5241,7 @@
       </c>
       <c r="B55" s="27">
         <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A55)</f>
-        <v>1</v>
+        <v>0.97142857142857142</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -5226,7 +5252,7 @@
       </c>
       <c r="B56" s="27">
         <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A56)</f>
-        <v>1</v>
+        <v>0.9642857142857143</v>
       </c>
     </row>
   </sheetData>

--- a/libraries/assets/grades/gradebook_percentage.xlsx
+++ b/libraries/assets/grades/gradebook_percentage.xlsx
@@ -483,9 +483,6 @@
     <t>Pruebita 1</t>
   </si>
   <si>
-    <t>Quizzes</t>
-  </si>
-  <si>
     <t>Pruebita 2</t>
   </si>
   <si>
@@ -505,6 +502,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Pruebitas/tareas</t>
   </si>
 </sst>
 </file>
@@ -1490,11 +1490,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124385168"/>
-        <c:axId val="-2124377008"/>
+        <c:axId val="-2129112608"/>
+        <c:axId val="-2129107648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124385168"/>
+        <c:axId val="-2129112608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1529,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124377008"/>
+        <c:crossAx val="-2129107648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1539,7 +1539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124377008"/>
+        <c:axId val="-2129107648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1613,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124385168"/>
+        <c:crossAx val="-2129112608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1668,13 +1668,13 @@
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
           <xdr:col>31</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>34</xdr:col>
-          <xdr:colOff>467311</xdr:colOff>
+          <xdr:colOff>365711</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1685,7 +1685,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1080"/>
+                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1082"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2241,7 +2241,9 @@
   <cols>
     <col min="1" max="1" width="3.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="3" customWidth="1"/>
-    <col min="3" max="27" width="7" style="3" customWidth="1"/>
+    <col min="3" max="18" width="7" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" style="3" customWidth="1"/>
+    <col min="20" max="27" width="7" style="3" customWidth="1"/>
     <col min="28" max="28" width="8.5" style="3" customWidth="1"/>
     <col min="29" max="29" width="7.5" style="3" customWidth="1"/>
     <col min="30" max="30" width="8.83203125" style="3"/>
@@ -2422,11 +2424,11 @@
       <c r="P7" s="95"/>
       <c r="Q7" s="95"/>
       <c r="R7" s="96" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="S7" s="96"/>
       <c r="T7" s="96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U7" s="96"/>
       <c r="V7" s="95"/>
@@ -2491,16 +2493,16 @@
         <v>142</v>
       </c>
       <c r="S8" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="T8" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="T8" s="91" t="s">
+      <c r="U8" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="U8" s="91" t="s">
-        <v>146</v>
-      </c>
       <c r="V8" s="91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W8" s="91" t="s">
         <v>121</v>
@@ -2664,7 +2666,9 @@
       <c r="D12" s="77">
         <v>1</v>
       </c>
-      <c r="E12" s="77"/>
+      <c r="E12" s="77">
+        <v>1</v>
+      </c>
       <c r="F12" s="77"/>
       <c r="G12" s="77"/>
       <c r="H12" s="77"/>
@@ -2682,7 +2686,7 @@
       </c>
       <c r="S12" s="77"/>
       <c r="T12" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U12" s="77"/>
       <c r="V12" s="77"/>
@@ -2693,7 +2697,7 @@
       <c r="AA12" s="77"/>
       <c r="AB12" s="71">
         <f t="shared" ref="AB12:AB25" si="0">IF(SUM(C12:AA12)=0,"",SUMPRODUCT(C12:AA12,$C$9:$AA$9))</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AC12" s="72">
         <f t="shared" ref="AC12:AC25" si="1">IF(SUM(C12:AA12)=0,"",$AC$9+AB12/(SUMIF(C12:AA12,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C12:AA12,"=E",$C$9:$AA$9)))</f>
@@ -2722,7 +2726,9 @@
       <c r="D13" s="77">
         <v>1</v>
       </c>
-      <c r="E13" s="77"/>
+      <c r="E13" s="77">
+        <v>1</v>
+      </c>
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
       <c r="H13" s="77"/>
@@ -2740,7 +2746,7 @@
       </c>
       <c r="S13" s="77"/>
       <c r="T13" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U13" s="77"/>
       <c r="V13" s="77"/>
@@ -2751,11 +2757,11 @@
       <c r="AA13" s="77"/>
       <c r="AB13" s="71">
         <f t="shared" si="0"/>
-        <v>67.5</v>
+        <v>77.5</v>
       </c>
       <c r="AC13" s="72">
         <f t="shared" si="1"/>
-        <v>0.9642857142857143</v>
+        <v>0.96875</v>
       </c>
       <c r="AD13" s="73" t="str">
         <f>IF(AC13="","",INDEX(Grades!$B$12:$B$24,MATCH(AC13,Grades!$A$12:$A$24,1)))</f>
@@ -2780,7 +2786,9 @@
       <c r="D14" s="77">
         <v>0.95</v>
       </c>
-      <c r="E14" s="77"/>
+      <c r="E14" s="77">
+        <v>1</v>
+      </c>
       <c r="F14" s="77"/>
       <c r="G14" s="77"/>
       <c r="H14" s="77"/>
@@ -2798,7 +2806,7 @@
       </c>
       <c r="S14" s="77"/>
       <c r="T14" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U14" s="77"/>
       <c r="V14" s="77"/>
@@ -2809,11 +2817,11 @@
       <c r="AA14" s="77"/>
       <c r="AB14" s="71">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AC14" s="72">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.95714285714285718</v>
       </c>
       <c r="AD14" s="73" t="str">
         <f>IF(AC14="","",INDEX(Grades!$B$12:$B$24,MATCH(AC14,Grades!$A$12:$A$24,1)))</f>
@@ -2838,7 +2846,9 @@
       <c r="D15" s="77">
         <v>1</v>
       </c>
-      <c r="E15" s="77"/>
+      <c r="E15" s="77">
+        <v>1</v>
+      </c>
       <c r="F15" s="77"/>
       <c r="G15" s="77"/>
       <c r="H15" s="77"/>
@@ -2856,7 +2866,7 @@
       </c>
       <c r="S15" s="77"/>
       <c r="T15" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U15" s="77"/>
       <c r="V15" s="77"/>
@@ -2867,11 +2877,11 @@
       <c r="AA15" s="77"/>
       <c r="AB15" s="71">
         <f t="shared" si="0"/>
-        <v>67.5</v>
+        <v>77.5</v>
       </c>
       <c r="AC15" s="72">
         <f t="shared" si="1"/>
-        <v>0.9642857142857143</v>
+        <v>0.96875</v>
       </c>
       <c r="AD15" s="73" t="str">
         <f>IF(AC15="","",INDEX(Grades!$B$12:$B$24,MATCH(AC15,Grades!$A$12:$A$24,1)))</f>
@@ -2896,7 +2906,9 @@
       <c r="D16" s="77">
         <v>1</v>
       </c>
-      <c r="E16" s="77"/>
+      <c r="E16" s="77">
+        <v>1</v>
+      </c>
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
       <c r="H16" s="77"/>
@@ -2914,7 +2926,7 @@
       </c>
       <c r="S16" s="77"/>
       <c r="T16" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U16" s="77"/>
       <c r="V16" s="77"/>
@@ -2925,7 +2937,7 @@
       <c r="AA16" s="77"/>
       <c r="AB16" s="71">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AC16" s="72">
         <f t="shared" si="1"/>
@@ -2954,7 +2966,9 @@
       <c r="D17" s="77">
         <v>1</v>
       </c>
-      <c r="E17" s="77"/>
+      <c r="E17" s="77">
+        <v>1</v>
+      </c>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
       <c r="H17" s="77"/>
@@ -2972,7 +2986,7 @@
       </c>
       <c r="S17" s="77"/>
       <c r="T17" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U17" s="77"/>
       <c r="V17" s="77"/>
@@ -2983,11 +2997,11 @@
       <c r="AA17" s="77"/>
       <c r="AB17" s="71">
         <f t="shared" si="0"/>
-        <v>67.5</v>
+        <v>77.5</v>
       </c>
       <c r="AC17" s="72">
         <f t="shared" si="1"/>
-        <v>0.9642857142857143</v>
+        <v>0.96875</v>
       </c>
       <c r="AD17" s="73" t="str">
         <f>IF(AC17="","",INDEX(Grades!$B$12:$B$24,MATCH(AC17,Grades!$A$12:$A$24,1)))</f>
@@ -3012,7 +3026,9 @@
       <c r="D18" s="77">
         <v>1</v>
       </c>
-      <c r="E18" s="77"/>
+      <c r="E18" s="77">
+        <v>1</v>
+      </c>
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
       <c r="H18" s="77"/>
@@ -3030,7 +3046,7 @@
       </c>
       <c r="S18" s="77"/>
       <c r="T18" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U18" s="77"/>
       <c r="V18" s="77"/>
@@ -3041,7 +3057,7 @@
       <c r="AA18" s="77"/>
       <c r="AB18" s="71">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AC18" s="72">
         <f t="shared" si="1"/>
@@ -3070,7 +3086,9 @@
       <c r="D19" s="77">
         <v>1</v>
       </c>
-      <c r="E19" s="77"/>
+      <c r="E19" s="77">
+        <v>1</v>
+      </c>
       <c r="F19" s="77"/>
       <c r="G19" s="77"/>
       <c r="H19" s="77"/>
@@ -3088,7 +3106,7 @@
       </c>
       <c r="S19" s="77"/>
       <c r="T19" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U19" s="77"/>
       <c r="V19" s="77"/>
@@ -3099,7 +3117,7 @@
       <c r="AA19" s="77"/>
       <c r="AB19" s="71">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AC19" s="72">
         <f t="shared" si="1"/>
@@ -3128,7 +3146,9 @@
       <c r="D20" s="77">
         <v>1</v>
       </c>
-      <c r="E20" s="77"/>
+      <c r="E20" s="77">
+        <v>1</v>
+      </c>
       <c r="F20" s="77"/>
       <c r="G20" s="77"/>
       <c r="H20" s="77"/>
@@ -3146,7 +3166,7 @@
       </c>
       <c r="S20" s="77"/>
       <c r="T20" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U20" s="77"/>
       <c r="V20" s="77"/>
@@ -3157,7 +3177,7 @@
       <c r="AA20" s="77"/>
       <c r="AB20" s="71">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AC20" s="72">
         <f t="shared" si="1"/>
@@ -3186,7 +3206,9 @@
       <c r="D21" s="77">
         <v>1</v>
       </c>
-      <c r="E21" s="77"/>
+      <c r="E21" s="77">
+        <v>1</v>
+      </c>
       <c r="F21" s="77"/>
       <c r="G21" s="77"/>
       <c r="H21" s="77"/>
@@ -3204,7 +3226,7 @@
       </c>
       <c r="S21" s="77"/>
       <c r="T21" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U21" s="77"/>
       <c r="V21" s="77"/>
@@ -3215,7 +3237,7 @@
       <c r="AA21" s="77"/>
       <c r="AB21" s="71">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AC21" s="72">
         <f t="shared" si="1"/>
@@ -3242,7 +3264,9 @@
       <c r="D22" s="77">
         <v>1</v>
       </c>
-      <c r="E22" s="77"/>
+      <c r="E22" s="77">
+        <v>1</v>
+      </c>
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
       <c r="H22" s="77"/>
@@ -3260,7 +3284,7 @@
       </c>
       <c r="S22" s="77"/>
       <c r="T22" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U22" s="77"/>
       <c r="V22" s="77"/>
@@ -3271,11 +3295,11 @@
       <c r="AA22" s="77"/>
       <c r="AB22" s="71">
         <f t="shared" si="0"/>
-        <v>67.5</v>
+        <v>77.5</v>
       </c>
       <c r="AC22" s="72">
         <f t="shared" si="1"/>
-        <v>0.9642857142857143</v>
+        <v>0.96875</v>
       </c>
       <c r="AD22" s="73" t="str">
         <f>IF(AC22="","",INDEX(Grades!$B$12:$B$24,MATCH(AC22,Grades!$A$12:$A$24,1)))</f>
@@ -3285,7 +3309,7 @@
         <v>89</v>
       </c>
       <c r="AG22" s="85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.15">
@@ -3303,7 +3327,9 @@
       <c r="D23" s="77">
         <v>1</v>
       </c>
-      <c r="E23" s="77"/>
+      <c r="E23" s="77">
+        <v>1</v>
+      </c>
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
       <c r="H23" s="77"/>
@@ -3321,7 +3347,7 @@
       </c>
       <c r="S23" s="77"/>
       <c r="T23" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U23" s="77"/>
       <c r="V23" s="77"/>
@@ -3332,7 +3358,7 @@
       <c r="AA23" s="77"/>
       <c r="AB23" s="71">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AC23" s="72">
         <f t="shared" si="1"/>
@@ -3358,7 +3384,9 @@
       <c r="D24" s="77">
         <v>1</v>
       </c>
-      <c r="E24" s="77"/>
+      <c r="E24" s="77">
+        <v>1</v>
+      </c>
       <c r="F24" s="77"/>
       <c r="G24" s="77"/>
       <c r="H24" s="77"/>
@@ -3376,7 +3404,7 @@
       </c>
       <c r="S24" s="77"/>
       <c r="T24" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U24" s="77"/>
       <c r="V24" s="77"/>
@@ -3387,7 +3415,7 @@
       <c r="AA24" s="77"/>
       <c r="AB24" s="71">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AC24" s="72">
         <f t="shared" si="1"/>
@@ -3463,9 +3491,9 @@
         <f t="shared" si="3"/>
         <v>0.99615384615384606</v>
       </c>
-      <c r="E26" s="70" t="str">
+      <c r="E26" s="70">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="F26" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3533,7 +3561,7 @@
       </c>
       <c r="AC26" s="67">
         <f>AVERAGE(AC12:AC25)</f>
-        <v>0.98516483516483511</v>
+        <v>0.98708791208791213</v>
       </c>
       <c r="AD26" s="68" t="str">
         <f>IF(AC26="","",INDEX(Grades!$B$12:$B$24,MATCH(AC26,Grades!$A$12:$A$24,1)))</f>
@@ -3552,9 +3580,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E27" s="70" t="str">
+      <c r="E27" s="70">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="F27" s="70" t="str">
         <f t="shared" si="5"/>
@@ -3637,9 +3665,9 @@
         <f t="shared" si="7"/>
         <v>1.3867504905630743E-2</v>
       </c>
-      <c r="E28" s="70" t="str">
+      <c r="E28" s="70">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F28" s="70" t="str">
         <f t="shared" si="7"/>
@@ -3707,7 +3735,7 @@
       </c>
       <c r="AC28" s="67">
         <f>STDEV(AC12:AC25)</f>
-        <v>1.9876647337185006E-2</v>
+        <v>1.7261707400665349E-2</v>
       </c>
       <c r="AD28" s="31" t="s">
         <v>65</v>
@@ -4990,7 +5018,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54">
         <f>Gradebook!$AC$26</f>
-        <v>0.98516483516483511</v>
+        <v>0.98708791208791213</v>
       </c>
       <c r="B28" s="55" t="str">
         <f>INDEX(B12:B24,MATCH(A28,A12:A24,1))</f>
@@ -5015,7 +5043,7 @@
       </c>
       <c r="B31" s="54">
         <f>Gradebook!AC28</f>
-        <v>1.9876647337185006E-2</v>
+        <v>1.7261707400665349E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5241,7 +5269,7 @@
       </c>
       <c r="B55" s="27">
         <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A55)</f>
-        <v>0.97142857142857142</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -5252,7 +5280,7 @@
       </c>
       <c r="B56" s="27">
         <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A56)</f>
-        <v>0.9642857142857143</v>
+        <v>0.96875</v>
       </c>
     </row>
   </sheetData>

--- a/libraries/assets/grades/gradebook_percentage.xlsx
+++ b/libraries/assets/grades/gradebook_percentage.xlsx
@@ -483,9 +483,6 @@
     <t>Pruebita 1</t>
   </si>
   <si>
-    <t>Pruebita 2</t>
-  </si>
-  <si>
     <t>Grabación 1</t>
   </si>
   <si>
@@ -505,6 +502,9 @@
   </si>
   <si>
     <t>Pruebitas/tareas</t>
+  </si>
+  <si>
+    <t>Tarea 1</t>
   </si>
 </sst>
 </file>
@@ -1472,10 +1472,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1490,11 +1490,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2129112608"/>
-        <c:axId val="-2129107648"/>
+        <c:axId val="-2143821856"/>
+        <c:axId val="-2143817680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2129112608"/>
+        <c:axId val="-2143821856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1529,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129107648"/>
+        <c:crossAx val="-2143817680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1539,7 +1539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129107648"/>
+        <c:axId val="-2143817680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1613,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129112608"/>
+        <c:crossAx val="-2143821856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1685,7 +1685,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1082"/>
+                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1084"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2234,7 +2234,7 @@
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2424,11 +2424,11 @@
       <c r="P7" s="95"/>
       <c r="Q7" s="95"/>
       <c r="R7" s="96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S7" s="96"/>
       <c r="T7" s="96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U7" s="96"/>
       <c r="V7" s="95"/>
@@ -2493,16 +2493,16 @@
         <v>142</v>
       </c>
       <c r="S8" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="T8" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="T8" s="91" t="s">
+      <c r="U8" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="U8" s="91" t="s">
-        <v>145</v>
-      </c>
       <c r="V8" s="91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W8" s="91" t="s">
         <v>121</v>
@@ -2684,9 +2684,11 @@
       <c r="R12" s="77">
         <v>1</v>
       </c>
-      <c r="S12" s="77"/>
+      <c r="S12" s="77">
+        <v>1</v>
+      </c>
       <c r="T12" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U12" s="77"/>
       <c r="V12" s="77"/>
@@ -2697,7 +2699,7 @@
       <c r="AA12" s="77"/>
       <c r="AB12" s="71">
         <f t="shared" ref="AB12:AB25" si="0">IF(SUM(C12:AA12)=0,"",SUMPRODUCT(C12:AA12,$C$9:$AA$9))</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AC12" s="72">
         <f t="shared" ref="AC12:AC25" si="1">IF(SUM(C12:AA12)=0,"",$AC$9+AB12/(SUMIF(C12:AA12,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C12:AA12,"=E",$C$9:$AA$9)))</f>
@@ -2744,9 +2746,11 @@
       <c r="R13" s="77">
         <v>0.95</v>
       </c>
-      <c r="S13" s="77"/>
+      <c r="S13" s="77">
+        <v>1</v>
+      </c>
       <c r="T13" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U13" s="77"/>
       <c r="V13" s="77"/>
@@ -2757,11 +2761,11 @@
       <c r="AA13" s="77"/>
       <c r="AB13" s="71">
         <f t="shared" si="0"/>
-        <v>77.5</v>
+        <v>127.5</v>
       </c>
       <c r="AC13" s="72">
         <f t="shared" si="1"/>
-        <v>0.96875</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="AD13" s="73" t="str">
         <f>IF(AC13="","",INDEX(Grades!$B$12:$B$24,MATCH(AC13,Grades!$A$12:$A$24,1)))</f>
@@ -2804,9 +2808,11 @@
       <c r="R14" s="77">
         <v>0.95</v>
       </c>
-      <c r="S14" s="77"/>
+      <c r="S14" s="77">
+        <v>1</v>
+      </c>
       <c r="T14" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U14" s="77"/>
       <c r="V14" s="77"/>
@@ -2817,15 +2823,15 @@
       <c r="AA14" s="77"/>
       <c r="AB14" s="71">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="AC14" s="72">
         <f t="shared" si="1"/>
-        <v>0.95714285714285718</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="AD14" s="73" t="str">
         <f>IF(AC14="","",INDEX(Grades!$B$12:$B$24,MATCH(AC14,Grades!$A$12:$A$24,1)))</f>
-        <v>A</v>
+        <v>A+</v>
       </c>
       <c r="AF14" s="82" t="s">
         <v>90</v>
@@ -2864,9 +2870,11 @@
       <c r="R15" s="77">
         <v>0.95</v>
       </c>
-      <c r="S15" s="77"/>
+      <c r="S15" s="77">
+        <v>1</v>
+      </c>
       <c r="T15" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U15" s="77"/>
       <c r="V15" s="77"/>
@@ -2877,11 +2885,11 @@
       <c r="AA15" s="77"/>
       <c r="AB15" s="71">
         <f t="shared" si="0"/>
-        <v>77.5</v>
+        <v>127.5</v>
       </c>
       <c r="AC15" s="72">
         <f t="shared" si="1"/>
-        <v>0.96875</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="AD15" s="73" t="str">
         <f>IF(AC15="","",INDEX(Grades!$B$12:$B$24,MATCH(AC15,Grades!$A$12:$A$24,1)))</f>
@@ -2924,9 +2932,11 @@
       <c r="R16" s="77">
         <v>1</v>
       </c>
-      <c r="S16" s="77"/>
+      <c r="S16" s="77">
+        <v>1</v>
+      </c>
       <c r="T16" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U16" s="77"/>
       <c r="V16" s="77"/>
@@ -2937,7 +2947,7 @@
       <c r="AA16" s="77"/>
       <c r="AB16" s="71">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AC16" s="72">
         <f t="shared" si="1"/>
@@ -2984,9 +2994,11 @@
       <c r="R17" s="77">
         <v>0.95</v>
       </c>
-      <c r="S17" s="77"/>
+      <c r="S17" s="77">
+        <v>1</v>
+      </c>
       <c r="T17" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U17" s="77"/>
       <c r="V17" s="77"/>
@@ -2997,11 +3009,11 @@
       <c r="AA17" s="77"/>
       <c r="AB17" s="71">
         <f t="shared" si="0"/>
-        <v>77.5</v>
+        <v>127.5</v>
       </c>
       <c r="AC17" s="72">
         <f t="shared" si="1"/>
-        <v>0.96875</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="AD17" s="73" t="str">
         <f>IF(AC17="","",INDEX(Grades!$B$12:$B$24,MATCH(AC17,Grades!$A$12:$A$24,1)))</f>
@@ -3044,9 +3056,11 @@
       <c r="R18" s="77">
         <v>1</v>
       </c>
-      <c r="S18" s="77"/>
+      <c r="S18" s="77">
+        <v>1</v>
+      </c>
       <c r="T18" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U18" s="77"/>
       <c r="V18" s="77"/>
@@ -3057,7 +3071,7 @@
       <c r="AA18" s="77"/>
       <c r="AB18" s="71">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AC18" s="72">
         <f t="shared" si="1"/>
@@ -3104,9 +3118,11 @@
       <c r="R19" s="77">
         <v>1</v>
       </c>
-      <c r="S19" s="77"/>
+      <c r="S19" s="77">
+        <v>1</v>
+      </c>
       <c r="T19" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U19" s="77"/>
       <c r="V19" s="77"/>
@@ -3117,7 +3133,7 @@
       <c r="AA19" s="77"/>
       <c r="AB19" s="71">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AC19" s="72">
         <f t="shared" si="1"/>
@@ -3164,9 +3180,11 @@
       <c r="R20" s="77">
         <v>1</v>
       </c>
-      <c r="S20" s="77"/>
+      <c r="S20" s="77">
+        <v>1</v>
+      </c>
       <c r="T20" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U20" s="77"/>
       <c r="V20" s="77"/>
@@ -3177,7 +3195,7 @@
       <c r="AA20" s="77"/>
       <c r="AB20" s="71">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AC20" s="72">
         <f t="shared" si="1"/>
@@ -3224,9 +3242,11 @@
       <c r="R21" s="77">
         <v>1</v>
       </c>
-      <c r="S21" s="77"/>
+      <c r="S21" s="77">
+        <v>1</v>
+      </c>
       <c r="T21" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U21" s="77"/>
       <c r="V21" s="77"/>
@@ -3237,7 +3257,7 @@
       <c r="AA21" s="77"/>
       <c r="AB21" s="71">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AC21" s="72">
         <f t="shared" si="1"/>
@@ -3282,9 +3302,11 @@
       <c r="R22" s="77">
         <v>0.95</v>
       </c>
-      <c r="S22" s="77"/>
+      <c r="S22" s="77">
+        <v>1</v>
+      </c>
       <c r="T22" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U22" s="77"/>
       <c r="V22" s="77"/>
@@ -3295,11 +3317,11 @@
       <c r="AA22" s="77"/>
       <c r="AB22" s="71">
         <f t="shared" si="0"/>
-        <v>77.5</v>
+        <v>127.5</v>
       </c>
       <c r="AC22" s="72">
         <f t="shared" si="1"/>
-        <v>0.96875</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="AD22" s="73" t="str">
         <f>IF(AC22="","",INDEX(Grades!$B$12:$B$24,MATCH(AC22,Grades!$A$12:$A$24,1)))</f>
@@ -3309,7 +3331,7 @@
         <v>89</v>
       </c>
       <c r="AG22" s="85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.15">
@@ -3345,9 +3367,11 @@
       <c r="R23" s="77">
         <v>1</v>
       </c>
-      <c r="S23" s="77"/>
+      <c r="S23" s="77">
+        <v>1</v>
+      </c>
       <c r="T23" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U23" s="77"/>
       <c r="V23" s="77"/>
@@ -3358,7 +3382,7 @@
       <c r="AA23" s="77"/>
       <c r="AB23" s="71">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AC23" s="72">
         <f t="shared" si="1"/>
@@ -3402,9 +3426,11 @@
       <c r="R24" s="77">
         <v>1</v>
       </c>
-      <c r="S24" s="77"/>
+      <c r="S24" s="77">
+        <v>1</v>
+      </c>
       <c r="T24" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U24" s="77"/>
       <c r="V24" s="77"/>
@@ -3415,7 +3441,7 @@
       <c r="AA24" s="77"/>
       <c r="AB24" s="71">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AC24" s="72">
         <f t="shared" si="1"/>
@@ -3561,7 +3587,7 @@
       </c>
       <c r="AC26" s="67">
         <f>AVERAGE(AC12:AC25)</f>
-        <v>0.98708791208791213</v>
+        <v>0.99215976331360933</v>
       </c>
       <c r="AD26" s="68" t="str">
         <f>IF(AC26="","",INDEX(Grades!$B$12:$B$24,MATCH(AC26,Grades!$A$12:$A$24,1)))</f>
@@ -3735,7 +3761,7 @@
       </c>
       <c r="AC28" s="67">
         <f>STDEV(AC12:AC25)</f>
-        <v>1.7261707400665349E-2</v>
+        <v>1.0429081510957294E-2</v>
       </c>
       <c r="AD28" s="31" t="s">
         <v>65</v>
@@ -4974,11 +5000,11 @@
       </c>
       <c r="C23" s="9">
         <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A23)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A23,1,0,1,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -4991,11 +5017,11 @@
       </c>
       <c r="C24" s="9">
         <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A24)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A24,1,0,1,1))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92307692307692313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -5018,7 +5044,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54">
         <f>Gradebook!$AC$26</f>
-        <v>0.98708791208791213</v>
+        <v>0.99215976331360933</v>
       </c>
       <c r="B28" s="55" t="str">
         <f>INDEX(B12:B24,MATCH(A28,A12:A24,1))</f>
@@ -5043,7 +5069,7 @@
       </c>
       <c r="B31" s="54">
         <f>Gradebook!AC28</f>
-        <v>1.7261707400665349E-2</v>
+        <v>1.0429081510957294E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5269,7 +5295,7 @@
       </c>
       <c r="B55" s="27">
         <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A55)</f>
-        <v>0.97499999999999998</v>
+        <v>0.98461538461538456</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -5280,7 +5306,7 @@
       </c>
       <c r="B56" s="27">
         <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A56)</f>
-        <v>0.96875</v>
+        <v>0.98076923076923073</v>
       </c>
     </row>
   </sheetData>

--- a/libraries/assets/grades/gradebook_percentage.xlsx
+++ b/libraries/assets/grades/gradebook_percentage.xlsx
@@ -950,7 +950,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -958,6 +958,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1201,12 +1202,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
@@ -1490,11 +1492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2143821856"/>
-        <c:axId val="-2143817680"/>
+        <c:axId val="-2094650112"/>
+        <c:axId val="-2094646128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2143821856"/>
+        <c:axId val="-2094650112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1531,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143817680"/>
+        <c:crossAx val="-2094646128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1539,7 +1541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143817680"/>
+        <c:axId val="-2094646128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1615,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143821856"/>
+        <c:crossAx val="-2094650112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1685,7 +1687,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1084"/>
+                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1086"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2234,7 +2236,7 @@
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2669,7 +2671,9 @@
       <c r="E12" s="77">
         <v>1</v>
       </c>
-      <c r="F12" s="77"/>
+      <c r="F12" s="77">
+        <v>1</v>
+      </c>
       <c r="G12" s="77"/>
       <c r="H12" s="77"/>
       <c r="I12" s="77"/>
@@ -2699,7 +2703,7 @@
       <c r="AA12" s="77"/>
       <c r="AB12" s="71">
         <f t="shared" ref="AB12:AB25" si="0">IF(SUM(C12:AA12)=0,"",SUMPRODUCT(C12:AA12,$C$9:$AA$9))</f>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AC12" s="72">
         <f t="shared" ref="AC12:AC25" si="1">IF(SUM(C12:AA12)=0,"",$AC$9+AB12/(SUMIF(C12:AA12,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C12:AA12,"=E",$C$9:$AA$9)))</f>
@@ -2731,7 +2735,9 @@
       <c r="E13" s="77">
         <v>1</v>
       </c>
-      <c r="F13" s="77"/>
+      <c r="F13" s="77">
+        <v>1</v>
+      </c>
       <c r="G13" s="77"/>
       <c r="H13" s="77"/>
       <c r="I13" s="77"/>
@@ -2761,11 +2767,11 @@
       <c r="AA13" s="77"/>
       <c r="AB13" s="71">
         <f t="shared" si="0"/>
-        <v>127.5</v>
+        <v>137.5</v>
       </c>
       <c r="AC13" s="72">
         <f t="shared" si="1"/>
-        <v>0.98076923076923073</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="AD13" s="73" t="str">
         <f>IF(AC13="","",INDEX(Grades!$B$12:$B$24,MATCH(AC13,Grades!$A$12:$A$24,1)))</f>
@@ -2793,7 +2799,9 @@
       <c r="E14" s="77">
         <v>1</v>
       </c>
-      <c r="F14" s="77"/>
+      <c r="F14" s="77">
+        <v>0.85</v>
+      </c>
       <c r="G14" s="77"/>
       <c r="H14" s="77"/>
       <c r="I14" s="77"/>
@@ -2823,11 +2831,11 @@
       <c r="AA14" s="77"/>
       <c r="AB14" s="71">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>125.5</v>
       </c>
       <c r="AC14" s="72">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>0.9653846153846154</v>
       </c>
       <c r="AD14" s="73" t="str">
         <f>IF(AC14="","",INDEX(Grades!$B$12:$B$24,MATCH(AC14,Grades!$A$12:$A$24,1)))</f>
@@ -2855,7 +2863,9 @@
       <c r="E15" s="77">
         <v>1</v>
       </c>
-      <c r="F15" s="77"/>
+      <c r="F15" s="92">
+        <v>1</v>
+      </c>
       <c r="G15" s="77"/>
       <c r="H15" s="77"/>
       <c r="I15" s="77"/>
@@ -2885,11 +2895,11 @@
       <c r="AA15" s="77"/>
       <c r="AB15" s="71">
         <f t="shared" si="0"/>
-        <v>127.5</v>
+        <v>137.5</v>
       </c>
       <c r="AC15" s="72">
         <f t="shared" si="1"/>
-        <v>0.98076923076923073</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="AD15" s="73" t="str">
         <f>IF(AC15="","",INDEX(Grades!$B$12:$B$24,MATCH(AC15,Grades!$A$12:$A$24,1)))</f>
@@ -2917,7 +2927,9 @@
       <c r="E16" s="77">
         <v>1</v>
       </c>
-      <c r="F16" s="77"/>
+      <c r="F16" s="92">
+        <v>1</v>
+      </c>
       <c r="G16" s="77"/>
       <c r="H16" s="77"/>
       <c r="I16" s="77"/>
@@ -2947,7 +2959,7 @@
       <c r="AA16" s="77"/>
       <c r="AB16" s="71">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AC16" s="72">
         <f t="shared" si="1"/>
@@ -2979,7 +2991,9 @@
       <c r="E17" s="77">
         <v>1</v>
       </c>
-      <c r="F17" s="77"/>
+      <c r="F17" s="92">
+        <v>1</v>
+      </c>
       <c r="G17" s="77"/>
       <c r="H17" s="77"/>
       <c r="I17" s="77"/>
@@ -3009,11 +3023,11 @@
       <c r="AA17" s="77"/>
       <c r="AB17" s="71">
         <f t="shared" si="0"/>
-        <v>127.5</v>
+        <v>137.5</v>
       </c>
       <c r="AC17" s="72">
         <f t="shared" si="1"/>
-        <v>0.98076923076923073</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="AD17" s="73" t="str">
         <f>IF(AC17="","",INDEX(Grades!$B$12:$B$24,MATCH(AC17,Grades!$A$12:$A$24,1)))</f>
@@ -3041,7 +3055,9 @@
       <c r="E18" s="77">
         <v>1</v>
       </c>
-      <c r="F18" s="77"/>
+      <c r="F18" s="92">
+        <v>1</v>
+      </c>
       <c r="G18" s="77"/>
       <c r="H18" s="77"/>
       <c r="I18" s="77"/>
@@ -3071,7 +3087,7 @@
       <c r="AA18" s="77"/>
       <c r="AB18" s="71">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AC18" s="72">
         <f t="shared" si="1"/>
@@ -3103,7 +3119,9 @@
       <c r="E19" s="77">
         <v>1</v>
       </c>
-      <c r="F19" s="77"/>
+      <c r="F19" s="92">
+        <v>1</v>
+      </c>
       <c r="G19" s="77"/>
       <c r="H19" s="77"/>
       <c r="I19" s="77"/>
@@ -3133,7 +3151,7 @@
       <c r="AA19" s="77"/>
       <c r="AB19" s="71">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AC19" s="72">
         <f t="shared" si="1"/>
@@ -3165,7 +3183,9 @@
       <c r="E20" s="77">
         <v>1</v>
       </c>
-      <c r="F20" s="77"/>
+      <c r="F20" s="92">
+        <v>1</v>
+      </c>
       <c r="G20" s="77"/>
       <c r="H20" s="77"/>
       <c r="I20" s="77"/>
@@ -3195,7 +3215,7 @@
       <c r="AA20" s="77"/>
       <c r="AB20" s="71">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AC20" s="72">
         <f t="shared" si="1"/>
@@ -3227,7 +3247,9 @@
       <c r="E21" s="77">
         <v>1</v>
       </c>
-      <c r="F21" s="77"/>
+      <c r="F21" s="92">
+        <v>1</v>
+      </c>
       <c r="G21" s="77"/>
       <c r="H21" s="77"/>
       <c r="I21" s="77"/>
@@ -3257,7 +3279,7 @@
       <c r="AA21" s="77"/>
       <c r="AB21" s="71">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AC21" s="72">
         <f t="shared" si="1"/>
@@ -3287,7 +3309,9 @@
       <c r="E22" s="77">
         <v>1</v>
       </c>
-      <c r="F22" s="77"/>
+      <c r="F22" s="77">
+        <v>0.85</v>
+      </c>
       <c r="G22" s="77"/>
       <c r="H22" s="77"/>
       <c r="I22" s="77"/>
@@ -3317,11 +3341,11 @@
       <c r="AA22" s="77"/>
       <c r="AB22" s="71">
         <f t="shared" si="0"/>
-        <v>127.5</v>
+        <v>136</v>
       </c>
       <c r="AC22" s="72">
         <f t="shared" si="1"/>
-        <v>0.98076923076923073</v>
+        <v>0.97142857142857142</v>
       </c>
       <c r="AD22" s="73" t="str">
         <f>IF(AC22="","",INDEX(Grades!$B$12:$B$24,MATCH(AC22,Grades!$A$12:$A$24,1)))</f>
@@ -3352,7 +3376,9 @@
       <c r="E23" s="77">
         <v>1</v>
       </c>
-      <c r="F23" s="77"/>
+      <c r="F23" s="92">
+        <v>1</v>
+      </c>
       <c r="G23" s="77"/>
       <c r="H23" s="77"/>
       <c r="I23" s="77"/>
@@ -3382,7 +3408,7 @@
       <c r="AA23" s="77"/>
       <c r="AB23" s="71">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AC23" s="72">
         <f t="shared" si="1"/>
@@ -3411,7 +3437,9 @@
       <c r="E24" s="77">
         <v>1</v>
       </c>
-      <c r="F24" s="77"/>
+      <c r="F24" s="92">
+        <v>1</v>
+      </c>
       <c r="G24" s="77"/>
       <c r="H24" s="77"/>
       <c r="I24" s="77"/>
@@ -3441,7 +3469,7 @@
       <c r="AA24" s="77"/>
       <c r="AB24" s="71">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AC24" s="72">
         <f t="shared" si="1"/>
@@ -3521,9 +3549,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F26" s="70" t="str">
+      <c r="F26" s="70">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0.97692307692307689</v>
       </c>
       <c r="G26" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3587,7 +3615,7 @@
       </c>
       <c r="AC26" s="67">
         <f>AVERAGE(AC12:AC25)</f>
-        <v>0.99215976331360933</v>
+        <v>0.99101859678782767</v>
       </c>
       <c r="AD26" s="68" t="str">
         <f>IF(AC26="","",INDEX(Grades!$B$12:$B$24,MATCH(AC26,Grades!$A$12:$A$24,1)))</f>
@@ -3610,9 +3638,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F27" s="70" t="str">
+      <c r="F27" s="70">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G27" s="70" t="str">
         <f t="shared" si="5"/>
@@ -3695,9 +3723,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F28" s="70" t="str">
+      <c r="F28" s="70">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5.6330071214910814E-2</v>
       </c>
       <c r="G28" s="70" t="str">
         <f t="shared" si="7"/>
@@ -3761,7 +3789,7 @@
       </c>
       <c r="AC28" s="67">
         <f>STDEV(AC12:AC25)</f>
-        <v>1.0429081510957294E-2</v>
+        <v>1.2657445727612258E-2</v>
       </c>
       <c r="AD28" s="31" t="s">
         <v>65</v>
@@ -5044,7 +5072,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54">
         <f>Gradebook!$AC$26</f>
-        <v>0.99215976331360933</v>
+        <v>0.99101859678782767</v>
       </c>
       <c r="B28" s="55" t="str">
         <f>INDEX(B12:B24,MATCH(A28,A12:A24,1))</f>
@@ -5069,7 +5097,7 @@
       </c>
       <c r="B31" s="54">
         <f>Gradebook!AC28</f>
-        <v>1.0429081510957294E-2</v>
+        <v>1.2657445727612258E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5295,7 +5323,7 @@
       </c>
       <c r="B55" s="27">
         <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A55)</f>
-        <v>0.98461538461538456</v>
+        <v>0.98571428571428565</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -5306,7 +5334,7 @@
       </c>
       <c r="B56" s="27">
         <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A56)</f>
-        <v>0.98076923076923073</v>
+        <v>0.97357142857142853</v>
       </c>
     </row>
   </sheetData>

--- a/libraries/assets/grades/gradebook_percentage.xlsx
+++ b/libraries/assets/grades/gradebook_percentage.xlsx
@@ -1462,7 +1462,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.0</c:v>
@@ -1474,10 +1474,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1492,11 +1492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2094650112"/>
-        <c:axId val="-2094646128"/>
+        <c:axId val="-2143070912"/>
+        <c:axId val="-2143067664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2094650112"/>
+        <c:axId val="-2143070912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,7 +1531,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094646128"/>
+        <c:crossAx val="-2143067664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1541,7 +1541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094646128"/>
+        <c:axId val="-2143067664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,7 +1615,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094650112"/>
+        <c:crossAx val="-2143070912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1687,7 +1687,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1086"/>
+                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1088"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2236,7 +2236,7 @@
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2696,18 +2696,20 @@
       </c>
       <c r="U12" s="77"/>
       <c r="V12" s="77"/>
-      <c r="W12" s="77"/>
+      <c r="W12" s="77">
+        <v>0.97499999999999998</v>
+      </c>
       <c r="X12" s="77"/>
       <c r="Y12" s="77"/>
       <c r="Z12" s="77"/>
       <c r="AA12" s="77"/>
       <c r="AB12" s="71">
         <f t="shared" ref="AB12:AB25" si="0">IF(SUM(C12:AA12)=0,"",SUMPRODUCT(C12:AA12,$C$9:$AA$9))</f>
-        <v>140</v>
+        <v>286.25</v>
       </c>
       <c r="AC12" s="72">
         <f t="shared" ref="AC12:AC25" si="1">IF(SUM(C12:AA12)=0,"",$AC$9+AB12/(SUMIF(C12:AA12,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C12:AA12,"=E",$C$9:$AA$9)))</f>
-        <v>1</v>
+        <v>0.98706896551724133</v>
       </c>
       <c r="AD12" s="73" t="str">
         <f>IF(AC12="","",INDEX(Grades!$B$12:$B$24,MATCH(AC12,Grades!$A$12:$A$24,1)))</f>
@@ -2760,22 +2762,24 @@
       </c>
       <c r="U13" s="77"/>
       <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
+      <c r="W13" s="77">
+        <v>0.90500000000000003</v>
+      </c>
       <c r="X13" s="77"/>
       <c r="Y13" s="77"/>
       <c r="Z13" s="77"/>
       <c r="AA13" s="77"/>
       <c r="AB13" s="71">
         <f t="shared" si="0"/>
-        <v>137.5</v>
+        <v>273.25</v>
       </c>
       <c r="AC13" s="72">
         <f t="shared" si="1"/>
-        <v>0.9821428571428571</v>
+        <v>0.9422413793103448</v>
       </c>
       <c r="AD13" s="73" t="str">
         <f>IF(AC13="","",INDEX(Grades!$B$12:$B$24,MATCH(AC13,Grades!$A$12:$A$24,1)))</f>
-        <v>A+</v>
+        <v>A</v>
       </c>
       <c r="AF13" s="82" t="s">
         <v>86</v>
@@ -2824,18 +2828,20 @@
       </c>
       <c r="U14" s="77"/>
       <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
+      <c r="W14" s="77">
+        <v>0.96</v>
+      </c>
       <c r="X14" s="77"/>
       <c r="Y14" s="77"/>
       <c r="Z14" s="77"/>
       <c r="AA14" s="77"/>
       <c r="AB14" s="71">
         <f t="shared" si="0"/>
-        <v>125.5</v>
+        <v>269.5</v>
       </c>
       <c r="AC14" s="72">
         <f t="shared" si="1"/>
-        <v>0.9653846153846154</v>
+        <v>0.96250000000000002</v>
       </c>
       <c r="AD14" s="73" t="str">
         <f>IF(AC14="","",INDEX(Grades!$B$12:$B$24,MATCH(AC14,Grades!$A$12:$A$24,1)))</f>
@@ -2888,18 +2894,20 @@
       </c>
       <c r="U15" s="77"/>
       <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
+      <c r="W15" s="77">
+        <v>0.995</v>
+      </c>
       <c r="X15" s="77"/>
       <c r="Y15" s="77"/>
       <c r="Z15" s="77"/>
       <c r="AA15" s="77"/>
       <c r="AB15" s="71">
         <f t="shared" si="0"/>
-        <v>137.5</v>
+        <v>286.75</v>
       </c>
       <c r="AC15" s="72">
         <f t="shared" si="1"/>
-        <v>0.9821428571428571</v>
+        <v>0.98879310344827587</v>
       </c>
       <c r="AD15" s="73" t="str">
         <f>IF(AC15="","",INDEX(Grades!$B$12:$B$24,MATCH(AC15,Grades!$A$12:$A$24,1)))</f>
@@ -2952,18 +2960,20 @@
       </c>
       <c r="U16" s="77"/>
       <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
+      <c r="W16" s="77">
+        <v>0.99</v>
+      </c>
       <c r="X16" s="77"/>
       <c r="Y16" s="77"/>
       <c r="Z16" s="77"/>
       <c r="AA16" s="77"/>
       <c r="AB16" s="71">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>288.5</v>
       </c>
       <c r="AC16" s="72">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.9948275862068966</v>
       </c>
       <c r="AD16" s="73" t="str">
         <f>IF(AC16="","",INDEX(Grades!$B$12:$B$24,MATCH(AC16,Grades!$A$12:$A$24,1)))</f>
@@ -3016,18 +3026,20 @@
       </c>
       <c r="U17" s="77"/>
       <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
+      <c r="W17" s="77">
+        <v>0.94</v>
+      </c>
       <c r="X17" s="77"/>
       <c r="Y17" s="77"/>
       <c r="Z17" s="77"/>
       <c r="AA17" s="77"/>
       <c r="AB17" s="71">
         <f t="shared" si="0"/>
-        <v>137.5</v>
+        <v>278.5</v>
       </c>
       <c r="AC17" s="72">
         <f t="shared" si="1"/>
-        <v>0.9821428571428571</v>
+        <v>0.96034482758620687</v>
       </c>
       <c r="AD17" s="73" t="str">
         <f>IF(AC17="","",INDEX(Grades!$B$12:$B$24,MATCH(AC17,Grades!$A$12:$A$24,1)))</f>
@@ -3080,18 +3092,20 @@
       </c>
       <c r="U18" s="77"/>
       <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
+      <c r="W18" s="77">
+        <v>0.96</v>
+      </c>
       <c r="X18" s="77"/>
       <c r="Y18" s="77"/>
       <c r="Z18" s="77"/>
       <c r="AA18" s="77"/>
       <c r="AB18" s="71">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="AC18" s="72">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.97931034482758617</v>
       </c>
       <c r="AD18" s="73" t="str">
         <f>IF(AC18="","",INDEX(Grades!$B$12:$B$24,MATCH(AC18,Grades!$A$12:$A$24,1)))</f>
@@ -3144,18 +3158,20 @@
       </c>
       <c r="U19" s="77"/>
       <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
+      <c r="W19" s="77">
+        <v>0.99</v>
+      </c>
       <c r="X19" s="77"/>
       <c r="Y19" s="77"/>
       <c r="Z19" s="77"/>
       <c r="AA19" s="77"/>
       <c r="AB19" s="71">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>288.5</v>
       </c>
       <c r="AC19" s="72">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.9948275862068966</v>
       </c>
       <c r="AD19" s="73" t="str">
         <f>IF(AC19="","",INDEX(Grades!$B$12:$B$24,MATCH(AC19,Grades!$A$12:$A$24,1)))</f>
@@ -3208,18 +3224,20 @@
       </c>
       <c r="U20" s="77"/>
       <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
+      <c r="W20" s="77">
+        <v>0.97</v>
+      </c>
       <c r="X20" s="77"/>
       <c r="Y20" s="77"/>
       <c r="Z20" s="77"/>
       <c r="AA20" s="77"/>
       <c r="AB20" s="71">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>285.5</v>
       </c>
       <c r="AC20" s="72">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.98448275862068968</v>
       </c>
       <c r="AD20" s="73" t="str">
         <f>IF(AC20="","",INDEX(Grades!$B$12:$B$24,MATCH(AC20,Grades!$A$12:$A$24,1)))</f>
@@ -3272,18 +3290,20 @@
       </c>
       <c r="U21" s="77"/>
       <c r="V21" s="77"/>
-      <c r="W21" s="77"/>
+      <c r="W21" s="77">
+        <v>1.02</v>
+      </c>
       <c r="X21" s="77"/>
       <c r="Y21" s="77"/>
       <c r="Z21" s="77"/>
       <c r="AA21" s="77"/>
       <c r="AB21" s="71">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>293</v>
       </c>
       <c r="AC21" s="72">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.0103448275862068</v>
       </c>
       <c r="AD21" s="73" t="str">
         <f>IF(AC21="","",INDEX(Grades!$B$12:$B$24,MATCH(AC21,Grades!$A$12:$A$24,1)))</f>
@@ -3334,22 +3354,24 @@
       </c>
       <c r="U22" s="77"/>
       <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
+      <c r="W22" s="77">
+        <v>0.69</v>
+      </c>
       <c r="X22" s="77"/>
       <c r="Y22" s="77"/>
       <c r="Z22" s="77"/>
       <c r="AA22" s="77"/>
       <c r="AB22" s="71">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>239.5</v>
       </c>
       <c r="AC22" s="72">
         <f t="shared" si="1"/>
-        <v>0.97142857142857142</v>
+        <v>0.82586206896551728</v>
       </c>
       <c r="AD22" s="73" t="str">
         <f>IF(AC22="","",INDEX(Grades!$B$12:$B$24,MATCH(AC22,Grades!$A$12:$A$24,1)))</f>
-        <v>A+</v>
+        <v>B-</v>
       </c>
       <c r="AF22" s="84" t="s">
         <v>89</v>
@@ -3401,18 +3423,20 @@
       </c>
       <c r="U23" s="77"/>
       <c r="V23" s="77"/>
-      <c r="W23" s="77"/>
+      <c r="W23" s="77">
+        <v>1.01</v>
+      </c>
       <c r="X23" s="77"/>
       <c r="Y23" s="77"/>
       <c r="Z23" s="77"/>
       <c r="AA23" s="77"/>
       <c r="AB23" s="71">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>291.5</v>
       </c>
       <c r="AC23" s="72">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.0051724137931035</v>
       </c>
       <c r="AD23" s="73" t="str">
         <f>IF(AC23="","",INDEX(Grades!$B$12:$B$24,MATCH(AC23,Grades!$A$12:$A$24,1)))</f>
@@ -3462,18 +3486,20 @@
       </c>
       <c r="U24" s="77"/>
       <c r="V24" s="77"/>
-      <c r="W24" s="77"/>
+      <c r="W24" s="77">
+        <v>1.03</v>
+      </c>
       <c r="X24" s="77"/>
       <c r="Y24" s="77"/>
       <c r="Z24" s="77"/>
       <c r="AA24" s="77"/>
       <c r="AB24" s="71">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>294.5</v>
       </c>
       <c r="AC24" s="72">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.0155172413793103</v>
       </c>
       <c r="AD24" s="73" t="str">
         <f>IF(AC24="","",INDEX(Grades!$B$12:$B$24,MATCH(AC24,Grades!$A$12:$A$24,1)))</f>
@@ -3590,9 +3616,9 @@
         <f t="shared" ref="V26:AA26" si="4">IF(SUM(V12:V25)=0,"",AVERAGE(V12:V25))</f>
         <v/>
       </c>
-      <c r="W26" s="70" t="str">
+      <c r="W26" s="70">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0.95653846153846145</v>
       </c>
       <c r="X26" s="70" t="str">
         <f t="shared" si="4"/>
@@ -3615,7 +3641,7 @@
       </c>
       <c r="AC26" s="67">
         <f>AVERAGE(AC12:AC25)</f>
-        <v>0.99101859678782767</v>
+        <v>0.97317639257294419</v>
       </c>
       <c r="AD26" s="68" t="str">
         <f>IF(AC26="","",INDEX(Grades!$B$12:$B$24,MATCH(AC26,Grades!$A$12:$A$24,1)))</f>
@@ -3679,9 +3705,9 @@
         <f t="shared" ref="V27:AA27" si="6">IF(OR(V9=0,V26=""),"",MEDIAN(V12:V25))</f>
         <v/>
       </c>
-      <c r="W27" s="70" t="str">
+      <c r="W27" s="70">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0.97499999999999998</v>
       </c>
       <c r="X27" s="70" t="str">
         <f t="shared" si="6"/>
@@ -3704,7 +3730,7 @@
       </c>
       <c r="AC27" s="67">
         <f>MEDIAN(AC12:AC25)</f>
-        <v>1</v>
+        <v>0.98706896551724133</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.15">
@@ -3764,9 +3790,9 @@
         <f t="shared" ref="V28:AA28" si="8">IF(OR(V9=0,V26=""),"",STDEV(V12:V25))</f>
         <v/>
       </c>
-      <c r="W28" s="70" t="str">
+      <c r="W28" s="70">
         <f t="shared" si="8"/>
-        <v/>
+        <v>8.6851996124264363E-2</v>
       </c>
       <c r="X28" s="70" t="str">
         <f t="shared" si="8"/>
@@ -3789,7 +3815,7 @@
       </c>
       <c r="AC28" s="67">
         <f>STDEV(AC12:AC25)</f>
-        <v>1.2657445727612258E-2</v>
+        <v>4.8883362637800833E-2</v>
       </c>
       <c r="AD28" s="31" t="s">
         <v>65</v>
@@ -4961,11 +4987,11 @@
       </c>
       <c r="C19" s="9">
         <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A19)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A19,1,0,1,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -5028,11 +5054,11 @@
       </c>
       <c r="C23" s="9">
         <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A23)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A23,1,0,1,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -5045,11 +5071,11 @@
       </c>
       <c r="C24" s="9">
         <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A24)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A24,1,0,1,1))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0.84615384615384615</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -5072,7 +5098,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54">
         <f>Gradebook!$AC$26</f>
-        <v>0.99101859678782767</v>
+        <v>0.97317639257294419</v>
       </c>
       <c r="B28" s="55" t="str">
         <f>INDEX(B12:B24,MATCH(A28,A12:A24,1))</f>
@@ -5085,7 +5111,7 @@
       </c>
       <c r="B30" s="54">
         <f>Gradebook!AC27</f>
-        <v>1</v>
+        <v>0.98706896551724133</v>
       </c>
       <c r="C30" s="63" t="s">
         <v>56</v>
@@ -5097,7 +5123,7 @@
       </c>
       <c r="B31" s="54">
         <f>Gradebook!AC28</f>
-        <v>1.2657445727612258E-2</v>
+        <v>4.8883362637800833E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5298,7 +5324,7 @@
       </c>
       <c r="B53" s="27">
         <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A53)</f>
-        <v>1</v>
+        <v>1.0093103448275862</v>
       </c>
       <c r="C53" s="63" t="s">
         <v>62</v>
@@ -5312,7 +5338,7 @@
       </c>
       <c r="B54" s="27">
         <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A54)</f>
-        <v>1</v>
+        <v>0.99362068965517247</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
@@ -5323,7 +5349,7 @@
       </c>
       <c r="B55" s="27">
         <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A55)</f>
-        <v>0.98571428571428565</v>
+        <v>0.98034482758620689</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -5334,7 +5360,7 @@
       </c>
       <c r="B56" s="27">
         <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A56)</f>
-        <v>0.97357142857142853</v>
+        <v>0.94586206896551717</v>
       </c>
     </row>
   </sheetData>

--- a/libraries/assets/grades/gradebook_percentage.xlsx
+++ b/libraries/assets/grades/gradebook_percentage.xlsx
@@ -1462,10 +1462,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.0</c:v>
@@ -1492,11 +1492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2143070912"/>
-        <c:axId val="-2143067664"/>
+        <c:axId val="-2133558736"/>
+        <c:axId val="-2133567616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2143070912"/>
+        <c:axId val="-2133558736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,7 +1531,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143067664"/>
+        <c:crossAx val="-2133567616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1541,7 +1541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143067664"/>
+        <c:axId val="-2133567616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,7 +1615,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143070912"/>
+        <c:crossAx val="-2133558736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1687,7 +1687,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1088"/>
+                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1091"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2236,7 +2236,7 @@
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2674,7 +2674,9 @@
       <c r="F12" s="77">
         <v>1</v>
       </c>
-      <c r="G12" s="77"/>
+      <c r="G12" s="77">
+        <v>1</v>
+      </c>
       <c r="H12" s="77"/>
       <c r="I12" s="77"/>
       <c r="J12" s="77"/>
@@ -2705,11 +2707,11 @@
       <c r="AA12" s="77"/>
       <c r="AB12" s="71">
         <f t="shared" ref="AB12:AB25" si="0">IF(SUM(C12:AA12)=0,"",SUMPRODUCT(C12:AA12,$C$9:$AA$9))</f>
-        <v>286.25</v>
+        <v>296.25</v>
       </c>
       <c r="AC12" s="72">
         <f t="shared" ref="AC12:AC25" si="1">IF(SUM(C12:AA12)=0,"",$AC$9+AB12/(SUMIF(C12:AA12,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C12:AA12,"=E",$C$9:$AA$9)))</f>
-        <v>0.98706896551724133</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="AD12" s="73" t="str">
         <f>IF(AC12="","",INDEX(Grades!$B$12:$B$24,MATCH(AC12,Grades!$A$12:$A$24,1)))</f>
@@ -2740,7 +2742,9 @@
       <c r="F13" s="77">
         <v>1</v>
       </c>
-      <c r="G13" s="77"/>
+      <c r="G13" s="77">
+        <v>0.85</v>
+      </c>
       <c r="H13" s="77"/>
       <c r="I13" s="77"/>
       <c r="J13" s="77"/>
@@ -2771,11 +2775,11 @@
       <c r="AA13" s="77"/>
       <c r="AB13" s="71">
         <f t="shared" si="0"/>
-        <v>273.25</v>
+        <v>281.75</v>
       </c>
       <c r="AC13" s="72">
         <f t="shared" si="1"/>
-        <v>0.9422413793103448</v>
+        <v>0.93916666666666671</v>
       </c>
       <c r="AD13" s="73" t="str">
         <f>IF(AC13="","",INDEX(Grades!$B$12:$B$24,MATCH(AC13,Grades!$A$12:$A$24,1)))</f>
@@ -2806,7 +2810,9 @@
       <c r="F14" s="77">
         <v>0.85</v>
       </c>
-      <c r="G14" s="77"/>
+      <c r="G14" s="77">
+        <v>1</v>
+      </c>
       <c r="H14" s="77"/>
       <c r="I14" s="77"/>
       <c r="J14" s="77"/>
@@ -2837,11 +2843,11 @@
       <c r="AA14" s="77"/>
       <c r="AB14" s="71">
         <f t="shared" si="0"/>
-        <v>269.5</v>
+        <v>279.5</v>
       </c>
       <c r="AC14" s="72">
         <f t="shared" si="1"/>
-        <v>0.96250000000000002</v>
+        <v>0.96379310344827585</v>
       </c>
       <c r="AD14" s="73" t="str">
         <f>IF(AC14="","",INDEX(Grades!$B$12:$B$24,MATCH(AC14,Grades!$A$12:$A$24,1)))</f>
@@ -2872,7 +2878,9 @@
       <c r="F15" s="92">
         <v>1</v>
       </c>
-      <c r="G15" s="77"/>
+      <c r="G15" s="77">
+        <v>1</v>
+      </c>
       <c r="H15" s="77"/>
       <c r="I15" s="77"/>
       <c r="J15" s="77"/>
@@ -2903,11 +2911,11 @@
       <c r="AA15" s="77"/>
       <c r="AB15" s="71">
         <f t="shared" si="0"/>
-        <v>286.75</v>
+        <v>296.75</v>
       </c>
       <c r="AC15" s="72">
         <f t="shared" si="1"/>
-        <v>0.98879310344827587</v>
+        <v>0.98916666666666664</v>
       </c>
       <c r="AD15" s="73" t="str">
         <f>IF(AC15="","",INDEX(Grades!$B$12:$B$24,MATCH(AC15,Grades!$A$12:$A$24,1)))</f>
@@ -2938,7 +2946,9 @@
       <c r="F16" s="92">
         <v>1</v>
       </c>
-      <c r="G16" s="77"/>
+      <c r="G16" s="77">
+        <v>1</v>
+      </c>
       <c r="H16" s="77"/>
       <c r="I16" s="77"/>
       <c r="J16" s="77"/>
@@ -2969,11 +2979,11 @@
       <c r="AA16" s="77"/>
       <c r="AB16" s="71">
         <f t="shared" si="0"/>
-        <v>288.5</v>
+        <v>298.5</v>
       </c>
       <c r="AC16" s="72">
         <f t="shared" si="1"/>
-        <v>0.9948275862068966</v>
+        <v>0.995</v>
       </c>
       <c r="AD16" s="73" t="str">
         <f>IF(AC16="","",INDEX(Grades!$B$12:$B$24,MATCH(AC16,Grades!$A$12:$A$24,1)))</f>
@@ -3004,7 +3014,9 @@
       <c r="F17" s="92">
         <v>1</v>
       </c>
-      <c r="G17" s="77"/>
+      <c r="G17" s="77">
+        <v>1</v>
+      </c>
       <c r="H17" s="77"/>
       <c r="I17" s="77"/>
       <c r="J17" s="77"/>
@@ -3035,11 +3047,11 @@
       <c r="AA17" s="77"/>
       <c r="AB17" s="71">
         <f t="shared" si="0"/>
-        <v>278.5</v>
+        <v>288.5</v>
       </c>
       <c r="AC17" s="72">
         <f t="shared" si="1"/>
-        <v>0.96034482758620687</v>
+        <v>0.96166666666666667</v>
       </c>
       <c r="AD17" s="73" t="str">
         <f>IF(AC17="","",INDEX(Grades!$B$12:$B$24,MATCH(AC17,Grades!$A$12:$A$24,1)))</f>
@@ -3070,7 +3082,9 @@
       <c r="F18" s="92">
         <v>1</v>
       </c>
-      <c r="G18" s="77"/>
+      <c r="G18" s="77">
+        <v>1</v>
+      </c>
       <c r="H18" s="77"/>
       <c r="I18" s="77"/>
       <c r="J18" s="77"/>
@@ -3101,11 +3115,11 @@
       <c r="AA18" s="77"/>
       <c r="AB18" s="71">
         <f t="shared" si="0"/>
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AC18" s="72">
         <f t="shared" si="1"/>
-        <v>0.97931034482758617</v>
+        <v>0.98</v>
       </c>
       <c r="AD18" s="73" t="str">
         <f>IF(AC18="","",INDEX(Grades!$B$12:$B$24,MATCH(AC18,Grades!$A$12:$A$24,1)))</f>
@@ -3136,7 +3150,9 @@
       <c r="F19" s="92">
         <v>1</v>
       </c>
-      <c r="G19" s="77"/>
+      <c r="G19" s="77">
+        <v>1</v>
+      </c>
       <c r="H19" s="77"/>
       <c r="I19" s="77"/>
       <c r="J19" s="77"/>
@@ -3167,11 +3183,11 @@
       <c r="AA19" s="77"/>
       <c r="AB19" s="71">
         <f t="shared" si="0"/>
-        <v>288.5</v>
+        <v>298.5</v>
       </c>
       <c r="AC19" s="72">
         <f t="shared" si="1"/>
-        <v>0.9948275862068966</v>
+        <v>0.995</v>
       </c>
       <c r="AD19" s="73" t="str">
         <f>IF(AC19="","",INDEX(Grades!$B$12:$B$24,MATCH(AC19,Grades!$A$12:$A$24,1)))</f>
@@ -3202,7 +3218,9 @@
       <c r="F20" s="92">
         <v>1</v>
       </c>
-      <c r="G20" s="77"/>
+      <c r="G20" s="77">
+        <v>1</v>
+      </c>
       <c r="H20" s="77"/>
       <c r="I20" s="77"/>
       <c r="J20" s="77"/>
@@ -3233,11 +3251,11 @@
       <c r="AA20" s="77"/>
       <c r="AB20" s="71">
         <f t="shared" si="0"/>
-        <v>285.5</v>
+        <v>295.5</v>
       </c>
       <c r="AC20" s="72">
         <f t="shared" si="1"/>
-        <v>0.98448275862068968</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="AD20" s="73" t="str">
         <f>IF(AC20="","",INDEX(Grades!$B$12:$B$24,MATCH(AC20,Grades!$A$12:$A$24,1)))</f>
@@ -3268,7 +3286,9 @@
       <c r="F21" s="92">
         <v>1</v>
       </c>
-      <c r="G21" s="77"/>
+      <c r="G21" s="77">
+        <v>1</v>
+      </c>
       <c r="H21" s="77"/>
       <c r="I21" s="77"/>
       <c r="J21" s="77"/>
@@ -3299,11 +3319,11 @@
       <c r="AA21" s="77"/>
       <c r="AB21" s="71">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="AC21" s="72">
         <f t="shared" si="1"/>
-        <v>1.0103448275862068</v>
+        <v>1.01</v>
       </c>
       <c r="AD21" s="73" t="str">
         <f>IF(AC21="","",INDEX(Grades!$B$12:$B$24,MATCH(AC21,Grades!$A$12:$A$24,1)))</f>
@@ -3332,7 +3352,9 @@
       <c r="F22" s="77">
         <v>0.85</v>
       </c>
-      <c r="G22" s="77"/>
+      <c r="G22" s="77">
+        <v>1</v>
+      </c>
       <c r="H22" s="77"/>
       <c r="I22" s="77"/>
       <c r="J22" s="77"/>
@@ -3363,15 +3385,15 @@
       <c r="AA22" s="77"/>
       <c r="AB22" s="71">
         <f t="shared" si="0"/>
-        <v>239.5</v>
+        <v>249.5</v>
       </c>
       <c r="AC22" s="72">
         <f t="shared" si="1"/>
-        <v>0.82586206896551728</v>
+        <v>0.83166666666666667</v>
       </c>
       <c r="AD22" s="73" t="str">
         <f>IF(AC22="","",INDEX(Grades!$B$12:$B$24,MATCH(AC22,Grades!$A$12:$A$24,1)))</f>
-        <v>B-</v>
+        <v>B</v>
       </c>
       <c r="AF22" s="84" t="s">
         <v>89</v>
@@ -3401,7 +3423,9 @@
       <c r="F23" s="92">
         <v>1</v>
       </c>
-      <c r="G23" s="77"/>
+      <c r="G23" s="77">
+        <v>1</v>
+      </c>
       <c r="H23" s="77"/>
       <c r="I23" s="77"/>
       <c r="J23" s="77"/>
@@ -3432,11 +3456,11 @@
       <c r="AA23" s="77"/>
       <c r="AB23" s="71">
         <f t="shared" si="0"/>
-        <v>291.5</v>
+        <v>301.5</v>
       </c>
       <c r="AC23" s="72">
         <f t="shared" si="1"/>
-        <v>1.0051724137931035</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="AD23" s="73" t="str">
         <f>IF(AC23="","",INDEX(Grades!$B$12:$B$24,MATCH(AC23,Grades!$A$12:$A$24,1)))</f>
@@ -3464,7 +3488,9 @@
       <c r="F24" s="92">
         <v>1</v>
       </c>
-      <c r="G24" s="77"/>
+      <c r="G24" s="77">
+        <v>1</v>
+      </c>
       <c r="H24" s="77"/>
       <c r="I24" s="77"/>
       <c r="J24" s="77"/>
@@ -3495,11 +3521,11 @@
       <c r="AA24" s="77"/>
       <c r="AB24" s="71">
         <f t="shared" si="0"/>
-        <v>294.5</v>
+        <v>304.5</v>
       </c>
       <c r="AC24" s="72">
         <f t="shared" si="1"/>
-        <v>1.0155172413793103</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="AD24" s="73" t="str">
         <f>IF(AC24="","",INDEX(Grades!$B$12:$B$24,MATCH(AC24,Grades!$A$12:$A$24,1)))</f>
@@ -3579,9 +3605,9 @@
         <f t="shared" si="3"/>
         <v>0.97692307692307689</v>
       </c>
-      <c r="G26" s="70" t="str">
+      <c r="G26" s="70">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0.98846153846153839</v>
       </c>
       <c r="H26" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3641,7 +3667,7 @@
       </c>
       <c r="AC26" s="67">
         <f>AVERAGE(AC12:AC25)</f>
-        <v>0.97317639257294419</v>
+        <v>0.97368921308576484</v>
       </c>
       <c r="AD26" s="68" t="str">
         <f>IF(AC26="","",INDEX(Grades!$B$12:$B$24,MATCH(AC26,Grades!$A$12:$A$24,1)))</f>
@@ -3668,9 +3694,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G27" s="70" t="str">
+      <c r="G27" s="70">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H27" s="70" t="str">
         <f t="shared" si="5"/>
@@ -3730,7 +3756,7 @@
       </c>
       <c r="AC27" s="67">
         <f>MEDIAN(AC12:AC25)</f>
-        <v>0.98706896551724133</v>
+        <v>0.98750000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.15">
@@ -3753,9 +3779,9 @@
         <f t="shared" si="7"/>
         <v>5.6330071214910814E-2</v>
       </c>
-      <c r="G28" s="70" t="str">
+      <c r="G28" s="70">
         <f t="shared" si="7"/>
-        <v/>
+        <v>4.1602514716892199E-2</v>
       </c>
       <c r="H28" s="70" t="str">
         <f t="shared" si="7"/>
@@ -3815,7 +3841,7 @@
       </c>
       <c r="AC28" s="67">
         <f>STDEV(AC12:AC25)</f>
-        <v>4.8883362637800833E-2</v>
+        <v>4.753634825444681E-2</v>
       </c>
       <c r="AD28" s="31" t="s">
         <v>65</v>
@@ -4987,11 +5013,11 @@
       </c>
       <c r="C19" s="9">
         <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A19)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A19,1,0,1,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -5004,11 +5030,11 @@
       </c>
       <c r="C20" s="9">
         <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A20)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A20,1,0,1,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -5098,7 +5124,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54">
         <f>Gradebook!$AC$26</f>
-        <v>0.97317639257294419</v>
+        <v>0.97368921308576484</v>
       </c>
       <c r="B28" s="55" t="str">
         <f>INDEX(B12:B24,MATCH(A28,A12:A24,1))</f>
@@ -5111,7 +5137,7 @@
       </c>
       <c r="B30" s="54">
         <f>Gradebook!AC27</f>
-        <v>0.98706896551724133</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="C30" s="63" t="s">
         <v>56</v>
@@ -5123,7 +5149,7 @@
       </c>
       <c r="B31" s="54">
         <f>Gradebook!AC28</f>
-        <v>4.8883362637800833E-2</v>
+        <v>4.753634825444681E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5324,7 +5350,7 @@
       </c>
       <c r="B53" s="27">
         <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A53)</f>
-        <v>1.0093103448275862</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="C53" s="63" t="s">
         <v>62</v>
@@ -5338,7 +5364,7 @@
       </c>
       <c r="B54" s="27">
         <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A54)</f>
-        <v>0.99362068965517247</v>
+        <v>0.99383333333333335</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
@@ -5349,7 +5375,7 @@
       </c>
       <c r="B55" s="27">
         <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A55)</f>
-        <v>0.98034482758620689</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -5360,7 +5386,7 @@
       </c>
       <c r="B56" s="27">
         <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A56)</f>
-        <v>0.94586206896551717</v>
+        <v>0.94366666666666665</v>
       </c>
     </row>
   </sheetData>

--- a/libraries/assets/grades/gradebook_percentage.xlsx
+++ b/libraries/assets/grades/gradebook_percentage.xlsx
@@ -1492,11 +1492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2133558736"/>
-        <c:axId val="-2133567616"/>
+        <c:axId val="-2115036160"/>
+        <c:axId val="-2115032928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2133558736"/>
+        <c:axId val="-2115036160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,7 +1531,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133567616"/>
+        <c:crossAx val="-2115032928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1541,7 +1541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133567616"/>
+        <c:axId val="-2115032928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,7 +1615,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133558736"/>
+        <c:crossAx val="-2115036160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1687,7 +1687,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1091"/>
+                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1094"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2236,7 +2236,7 @@
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2743,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="77">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="H13" s="77"/>
       <c r="I13" s="77"/>
@@ -2775,11 +2775,11 @@
       <c r="AA13" s="77"/>
       <c r="AB13" s="71">
         <f t="shared" si="0"/>
-        <v>281.75</v>
+        <v>280.25</v>
       </c>
       <c r="AC13" s="72">
         <f t="shared" si="1"/>
-        <v>0.93916666666666671</v>
+        <v>0.9341666666666667</v>
       </c>
       <c r="AD13" s="73" t="str">
         <f>IF(AC13="","",INDEX(Grades!$B$12:$B$24,MATCH(AC13,Grades!$A$12:$A$24,1)))</f>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="G26" s="70">
         <f t="shared" si="3"/>
-        <v>0.98846153846153839</v>
+        <v>0.97692307692307689</v>
       </c>
       <c r="H26" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="AC26" s="67">
         <f>AVERAGE(AC12:AC25)</f>
-        <v>0.97368921308576484</v>
+        <v>0.97330459770114952</v>
       </c>
       <c r="AD26" s="68" t="str">
         <f>IF(AC26="","",INDEX(Grades!$B$12:$B$24,MATCH(AC26,Grades!$A$12:$A$24,1)))</f>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="G28" s="70">
         <f t="shared" si="7"/>
-        <v>4.1602514716892199E-2</v>
+        <v>8.3205029433784355E-2</v>
       </c>
       <c r="H28" s="70" t="str">
         <f t="shared" si="7"/>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="AC28" s="67">
         <f>STDEV(AC12:AC25)</f>
-        <v>4.753634825444681E-2</v>
+        <v>4.7858084698133366E-2</v>
       </c>
       <c r="AD28" s="31" t="s">
         <v>65</v>
@@ -5124,7 +5124,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54">
         <f>Gradebook!$AC$26</f>
-        <v>0.97368921308576484</v>
+        <v>0.97330459770114952</v>
       </c>
       <c r="B28" s="55" t="str">
         <f>INDEX(B12:B24,MATCH(A28,A12:A24,1))</f>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B31" s="54">
         <f>Gradebook!AC28</f>
-        <v>4.753634825444681E-2</v>
+        <v>4.7858084698133366E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="B56" s="27">
         <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A56)</f>
-        <v>0.94366666666666665</v>
+        <v>0.93966666666666665</v>
       </c>
     </row>
   </sheetData>

--- a/libraries/assets/grades/gradebook_percentage.xlsx
+++ b/libraries/assets/grades/gradebook_percentage.xlsx
@@ -18,10 +18,10 @@
     <sheet name="©" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Gradebook!$A$1:$AD$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Gradebook!$A$1:$AE$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Grades!$A$1:$J$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Names!$A$1:$H$109</definedName>
-    <definedName name="displayID">Gradebook!$AG$24</definedName>
+    <definedName name="displayID">Gradebook!$AH$24</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Gradebook!$6:$11</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="152">
   <si>
     <t>Gradebook</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>Tarea 1</t>
+  </si>
+  <si>
+    <t>Tarea 2</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1465,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.0</c:v>
@@ -1477,7 +1480,7 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1492,11 +1495,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2115036160"/>
-        <c:axId val="-2115032928"/>
+        <c:axId val="-2091746992"/>
+        <c:axId val="-2087703392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2115036160"/>
+        <c:axId val="-2091746992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,7 +1534,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115032928"/>
+        <c:crossAx val="-2087703392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1541,7 +1544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115032928"/>
+        <c:axId val="-2087703392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,7 +1618,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115036160"/>
+        <c:crossAx val="-2091746992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1669,14 +1672,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>31</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:col>30</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>34</xdr:col>
-          <xdr:colOff>365711</xdr:colOff>
+          <xdr:colOff>403811</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1687,7 +1690,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1094"/>
+                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1096"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1719,13 +1722,13 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>1295400</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2233,10 +2236,10 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2244,17 +2247,17 @@
     <col min="1" max="1" width="3.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="3" customWidth="1"/>
     <col min="3" max="18" width="7" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" style="3" customWidth="1"/>
-    <col min="20" max="27" width="7" style="3" customWidth="1"/>
-    <col min="28" max="28" width="8.5" style="3" customWidth="1"/>
-    <col min="29" max="29" width="7.5" style="3" customWidth="1"/>
-    <col min="30" max="30" width="8.83203125" style="3"/>
-    <col min="31" max="31" width="5.33203125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="20.5" style="3" customWidth="1"/>
-    <col min="33" max="16384" width="8.83203125" style="3"/>
+    <col min="19" max="20" width="8.33203125" style="3" customWidth="1"/>
+    <col min="21" max="28" width="7" style="3" customWidth="1"/>
+    <col min="29" max="29" width="8.5" style="3" customWidth="1"/>
+    <col min="30" max="30" width="7.5" style="3" customWidth="1"/>
+    <col min="31" max="31" width="8.83203125" style="3"/>
+    <col min="32" max="32" width="5.33203125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="20.5" style="3" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
@@ -2286,19 +2289,20 @@
       <c r="AA1" s="7"/>
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
-      <c r="AF1" s="15"/>
-    </row>
-    <row r="2" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="AD1" s="7"/>
+      <c r="AG1" s="15"/>
+    </row>
+    <row r="2" spans="1:33" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="12" t="s">
         <v>132</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="AF2" s="46" t="s">
+      <c r="AG2" s="46" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:33" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="11" t="s">
         <v>133</v>
@@ -2330,24 +2334,25 @@
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
-      <c r="AF3" s="22" t="s">
+      <c r="AD3" s="7"/>
+      <c r="AG3" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="11" t="s">
         <v>134</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="Z4" s="80" t="s">
+      <c r="AA4" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="AA4" s="81" t="s">
+      <c r="AB4" s="81" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2374,8 +2379,9 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="AC5" s="4"/>
+    </row>
+    <row r="6" spans="1:33" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="4"/>
       <c r="C6" s="65" t="s">
         <v>1</v>
@@ -2404,9 +2410,10 @@
       <c r="Y6" s="66"/>
       <c r="Z6" s="66"/>
       <c r="AA6" s="66"/>
-      <c r="AB6" s="4"/>
-    </row>
-    <row r="7" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="4"/>
+    </row>
+    <row r="7" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
       <c r="C7" s="94" t="s">
         <v>140</v>
@@ -2429,21 +2436,22 @@
         <v>149</v>
       </c>
       <c r="S7" s="96"/>
-      <c r="T7" s="96" t="s">
+      <c r="T7" s="96"/>
+      <c r="U7" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="U7" s="96"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95" t="s">
+      <c r="V7" s="96"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="X7" s="95"/>
       <c r="Y7" s="95"/>
       <c r="Z7" s="95"/>
       <c r="AA7" s="95"/>
-      <c r="AB7" s="4"/>
-    </row>
-    <row r="8" spans="1:32" ht="67" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB7" s="95"/>
+      <c r="AC7" s="4"/>
+    </row>
+    <row r="8" spans="1:33" ht="67" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="91" t="s">
@@ -2498,32 +2506,35 @@
         <v>150</v>
       </c>
       <c r="T8" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="U8" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="U8" s="91" t="s">
+      <c r="V8" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="V8" s="91" t="s">
+      <c r="W8" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="W8" s="91" t="s">
+      <c r="X8" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="X8" s="91" t="s">
+      <c r="Y8" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="Y8" s="91" t="s">
+      <c r="Z8" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="Z8" s="91" t="s">
+      <c r="AA8" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="AA8" s="79" t="s">
+      <c r="AB8" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AB8" s="4"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AC8" s="4"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="21" t="s">
         <v>35</v>
@@ -2579,11 +2590,11 @@
       <c r="S9" s="14">
         <v>50</v>
       </c>
-      <c r="T9" s="14"/>
+      <c r="T9" s="14">
+        <v>50</v>
+      </c>
       <c r="U9" s="14"/>
-      <c r="V9" s="14">
-        <v>150</v>
-      </c>
+      <c r="V9" s="14"/>
       <c r="W9" s="14">
         <v>150</v>
       </c>
@@ -2597,20 +2608,23 @@
         <v>150</v>
       </c>
       <c r="AA9" s="14">
+        <v>150</v>
+      </c>
+      <c r="AB9" s="14">
         <v>1000</v>
       </c>
-      <c r="AB9" s="34" t="s">
+      <c r="AC9" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="AC9" s="78">
+      <c r="AD9" s="78">
         <v>0</v>
       </c>
-      <c r="AF9" s="83" t="s">
+      <c r="AG9" s="83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:33" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="12" t="s">
         <v>51</v>
@@ -2640,20 +2654,21 @@
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
-      <c r="AB11" s="8" t="s">
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AC11" s="8" t="s">
+      <c r="AD11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AD11" s="8" t="s">
+      <c r="AE11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AF11" s="82" t="s">
+      <c r="AG11" s="82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <f ca="1">OFFSET(A12,-1,0,1,1)+1</f>
         <v>1</v>
@@ -2677,7 +2692,9 @@
       <c r="G12" s="77">
         <v>1</v>
       </c>
-      <c r="H12" s="77"/>
+      <c r="H12" s="77">
+        <v>1</v>
+      </c>
       <c r="I12" s="77"/>
       <c r="J12" s="77"/>
       <c r="K12" s="77"/>
@@ -2693,37 +2710,40 @@
       <c r="S12" s="77">
         <v>1</v>
       </c>
-      <c r="T12" s="77" t="s">
+      <c r="T12" s="77">
+        <v>1</v>
+      </c>
+      <c r="U12" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="U12" s="77"/>
       <c r="V12" s="77"/>
-      <c r="W12" s="77">
+      <c r="W12" s="77"/>
+      <c r="X12" s="77">
         <v>0.97499999999999998</v>
       </c>
-      <c r="X12" s="77"/>
       <c r="Y12" s="77"/>
       <c r="Z12" s="77"/>
       <c r="AA12" s="77"/>
-      <c r="AB12" s="71">
-        <f t="shared" ref="AB12:AB25" si="0">IF(SUM(C12:AA12)=0,"",SUMPRODUCT(C12:AA12,$C$9:$AA$9))</f>
-        <v>296.25</v>
-      </c>
-      <c r="AC12" s="72">
-        <f t="shared" ref="AC12:AC25" si="1">IF(SUM(C12:AA12)=0,"",$AC$9+AB12/(SUMIF(C12:AA12,"&lt;&gt;",$C$9:$AA$9)-SUMIF(C12:AA12,"=E",$C$9:$AA$9)))</f>
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="AD12" s="73" t="str">
-        <f>IF(AC12="","",INDEX(Grades!$B$12:$B$24,MATCH(AC12,Grades!$A$12:$A$24,1)))</f>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="71">
+        <f>IF(SUM(C12:AB12)=0,"",SUMPRODUCT(C12:AB12,$C$9:$AB$9))</f>
+        <v>356.25</v>
+      </c>
+      <c r="AD12" s="72">
+        <f>IF(SUM(C12:AB12)=0,"",$AD$9+AC12/(SUMIF(C12:AB12,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C12:AB12,"=E",$C$9:$AB$9)))</f>
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="AE12" s="73" t="str">
+        <f>IF(AD12="","",INDEX(Grades!$B$12:$B$24,MATCH(AD12,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AF12" s="82" t="s">
+      <c r="AG12" s="82" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
-        <f t="shared" ref="A13:A24" ca="1" si="2">OFFSET(A13,-1,0,1,1)+1</f>
+        <f t="shared" ref="A13:A24" ca="1" si="0">OFFSET(A13,-1,0,1,1)+1</f>
         <v>2</v>
       </c>
       <c r="B13" s="76" t="str">
@@ -2745,7 +2765,9 @@
       <c r="G13" s="77">
         <v>0.7</v>
       </c>
-      <c r="H13" s="77"/>
+      <c r="H13" s="77">
+        <v>1</v>
+      </c>
       <c r="I13" s="77"/>
       <c r="J13" s="77"/>
       <c r="K13" s="77"/>
@@ -2761,37 +2783,40 @@
       <c r="S13" s="77">
         <v>1</v>
       </c>
-      <c r="T13" s="77" t="s">
+      <c r="T13" s="77">
+        <v>1</v>
+      </c>
+      <c r="U13" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="U13" s="77"/>
       <c r="V13" s="77"/>
-      <c r="W13" s="77">
+      <c r="W13" s="77"/>
+      <c r="X13" s="77">
         <v>0.90500000000000003</v>
       </c>
-      <c r="X13" s="77"/>
       <c r="Y13" s="77"/>
       <c r="Z13" s="77"/>
       <c r="AA13" s="77"/>
-      <c r="AB13" s="71">
-        <f t="shared" si="0"/>
-        <v>280.25</v>
-      </c>
-      <c r="AC13" s="72">
-        <f t="shared" si="1"/>
-        <v>0.9341666666666667</v>
-      </c>
-      <c r="AD13" s="73" t="str">
-        <f>IF(AC13="","",INDEX(Grades!$B$12:$B$24,MATCH(AC13,Grades!$A$12:$A$24,1)))</f>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="71">
+        <f>IF(SUM(C13:AB13)=0,"",SUMPRODUCT(C13:AB13,$C$9:$AB$9))</f>
+        <v>340.25</v>
+      </c>
+      <c r="AD13" s="72">
+        <f>IF(SUM(C13:AB13)=0,"",$AD$9+AC13/(SUMIF(C13:AB13,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C13:AB13,"=E",$C$9:$AB$9)))</f>
+        <v>0.94513888888888886</v>
+      </c>
+      <c r="AE13" s="73" t="str">
+        <f>IF(AD13="","",INDEX(Grades!$B$12:$B$24,MATCH(AD13,Grades!$A$12:$A$24,1)))</f>
         <v>A</v>
       </c>
-      <c r="AF13" s="82" t="s">
+      <c r="AG13" s="82" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="B14" s="76" t="str">
@@ -2813,7 +2838,9 @@
       <c r="G14" s="77">
         <v>1</v>
       </c>
-      <c r="H14" s="77"/>
+      <c r="H14" s="77">
+        <v>1</v>
+      </c>
       <c r="I14" s="77"/>
       <c r="J14" s="77"/>
       <c r="K14" s="77"/>
@@ -2829,37 +2856,40 @@
       <c r="S14" s="77">
         <v>1</v>
       </c>
-      <c r="T14" s="77" t="s">
+      <c r="T14" s="77">
+        <v>1</v>
+      </c>
+      <c r="U14" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="U14" s="77"/>
       <c r="V14" s="77"/>
-      <c r="W14" s="77">
+      <c r="W14" s="77"/>
+      <c r="X14" s="77">
         <v>0.96</v>
       </c>
-      <c r="X14" s="77"/>
       <c r="Y14" s="77"/>
       <c r="Z14" s="77"/>
       <c r="AA14" s="77"/>
-      <c r="AB14" s="71">
-        <f t="shared" si="0"/>
-        <v>279.5</v>
-      </c>
-      <c r="AC14" s="72">
-        <f t="shared" si="1"/>
-        <v>0.96379310344827585</v>
-      </c>
-      <c r="AD14" s="73" t="str">
-        <f>IF(AC14="","",INDEX(Grades!$B$12:$B$24,MATCH(AC14,Grades!$A$12:$A$24,1)))</f>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="71">
+        <f>IF(SUM(C14:AB14)=0,"",SUMPRODUCT(C14:AB14,$C$9:$AB$9))</f>
+        <v>339.5</v>
+      </c>
+      <c r="AD14" s="72">
+        <f>IF(SUM(C14:AB14)=0,"",$AD$9+AC14/(SUMIF(C14:AB14,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C14:AB14,"=E",$C$9:$AB$9)))</f>
+        <v>0.97</v>
+      </c>
+      <c r="AE14" s="73" t="str">
+        <f>IF(AD14="","",INDEX(Grades!$B$12:$B$24,MATCH(AD14,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AF14" s="82" t="s">
+      <c r="AG14" s="82" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="B15" s="76" t="str">
@@ -2881,8 +2911,12 @@
       <c r="G15" s="77">
         <v>1</v>
       </c>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
+      <c r="H15" s="77">
+        <v>1</v>
+      </c>
+      <c r="I15" s="77" t="s">
+        <v>147</v>
+      </c>
       <c r="J15" s="77"/>
       <c r="K15" s="77"/>
       <c r="L15" s="77"/>
@@ -2897,37 +2931,40 @@
       <c r="S15" s="77">
         <v>1</v>
       </c>
-      <c r="T15" s="77" t="s">
+      <c r="T15" s="77">
+        <v>0</v>
+      </c>
+      <c r="U15" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="U15" s="77"/>
       <c r="V15" s="77"/>
-      <c r="W15" s="77">
+      <c r="W15" s="77"/>
+      <c r="X15" s="77">
         <v>0.995</v>
       </c>
-      <c r="X15" s="77"/>
       <c r="Y15" s="77"/>
       <c r="Z15" s="77"/>
       <c r="AA15" s="77"/>
-      <c r="AB15" s="71">
-        <f t="shared" si="0"/>
-        <v>296.75</v>
-      </c>
-      <c r="AC15" s="72">
-        <f t="shared" si="1"/>
-        <v>0.98916666666666664</v>
-      </c>
-      <c r="AD15" s="73" t="str">
-        <f>IF(AC15="","",INDEX(Grades!$B$12:$B$24,MATCH(AC15,Grades!$A$12:$A$24,1)))</f>
-        <v>A+</v>
-      </c>
-      <c r="AF15" s="82" t="s">
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="71">
+        <f>IF(SUM(C15:AB15)=0,"",SUMPRODUCT(C15:AB15,$C$9:$AB$9))</f>
+        <v>306.75</v>
+      </c>
+      <c r="AD15" s="72">
+        <f>IF(SUM(C15:AB15)=0,"",$AD$9+AC15/(SUMIF(C15:AB15,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C15:AB15,"=E",$C$9:$AB$9)))</f>
+        <v>0.82905405405405408</v>
+      </c>
+      <c r="AE15" s="73" t="str">
+        <f>IF(AD15="","",INDEX(Grades!$B$12:$B$24,MATCH(AD15,Grades!$A$12:$A$24,1)))</f>
+        <v>B-</v>
+      </c>
+      <c r="AG15" s="82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="B16" s="76" t="str">
@@ -2949,7 +2986,9 @@
       <c r="G16" s="77">
         <v>1</v>
       </c>
-      <c r="H16" s="77"/>
+      <c r="H16" s="77">
+        <v>1</v>
+      </c>
       <c r="I16" s="77"/>
       <c r="J16" s="77"/>
       <c r="K16" s="77"/>
@@ -2965,37 +3004,40 @@
       <c r="S16" s="77">
         <v>1</v>
       </c>
-      <c r="T16" s="77" t="s">
+      <c r="T16" s="77">
+        <v>1</v>
+      </c>
+      <c r="U16" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="U16" s="77"/>
       <c r="V16" s="77"/>
-      <c r="W16" s="77">
+      <c r="W16" s="77"/>
+      <c r="X16" s="77">
         <v>0.99</v>
       </c>
-      <c r="X16" s="77"/>
       <c r="Y16" s="77"/>
       <c r="Z16" s="77"/>
       <c r="AA16" s="77"/>
-      <c r="AB16" s="71">
-        <f t="shared" si="0"/>
-        <v>298.5</v>
-      </c>
-      <c r="AC16" s="72">
-        <f t="shared" si="1"/>
-        <v>0.995</v>
-      </c>
-      <c r="AD16" s="73" t="str">
-        <f>IF(AC16="","",INDEX(Grades!$B$12:$B$24,MATCH(AC16,Grades!$A$12:$A$24,1)))</f>
+      <c r="AB16" s="77"/>
+      <c r="AC16" s="71">
+        <f>IF(SUM(C16:AB16)=0,"",SUMPRODUCT(C16:AB16,$C$9:$AB$9))</f>
+        <v>358.5</v>
+      </c>
+      <c r="AD16" s="72">
+        <f>IF(SUM(C16:AB16)=0,"",$AD$9+AC16/(SUMIF(C16:AB16,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C16:AB16,"=E",$C$9:$AB$9)))</f>
+        <v>0.99583333333333335</v>
+      </c>
+      <c r="AE16" s="73" t="str">
+        <f>IF(AD16="","",INDEX(Grades!$B$12:$B$24,MATCH(AD16,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AF16" s="82" t="s">
+      <c r="AG16" s="82" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="B17" s="76" t="str">
@@ -3017,7 +3059,9 @@
       <c r="G17" s="77">
         <v>1</v>
       </c>
-      <c r="H17" s="77"/>
+      <c r="H17" s="77">
+        <v>1</v>
+      </c>
       <c r="I17" s="77"/>
       <c r="J17" s="77"/>
       <c r="K17" s="77"/>
@@ -3033,37 +3077,40 @@
       <c r="S17" s="77">
         <v>1</v>
       </c>
-      <c r="T17" s="77" t="s">
+      <c r="T17" s="77">
+        <v>1</v>
+      </c>
+      <c r="U17" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="U17" s="77"/>
       <c r="V17" s="77"/>
-      <c r="W17" s="77">
+      <c r="W17" s="77"/>
+      <c r="X17" s="77">
         <v>0.94</v>
       </c>
-      <c r="X17" s="77"/>
       <c r="Y17" s="77"/>
       <c r="Z17" s="77"/>
       <c r="AA17" s="77"/>
-      <c r="AB17" s="71">
-        <f t="shared" si="0"/>
-        <v>288.5</v>
-      </c>
-      <c r="AC17" s="72">
-        <f t="shared" si="1"/>
-        <v>0.96166666666666667</v>
-      </c>
-      <c r="AD17" s="73" t="str">
-        <f>IF(AC17="","",INDEX(Grades!$B$12:$B$24,MATCH(AC17,Grades!$A$12:$A$24,1)))</f>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="71">
+        <f>IF(SUM(C17:AB17)=0,"",SUMPRODUCT(C17:AB17,$C$9:$AB$9))</f>
+        <v>348.5</v>
+      </c>
+      <c r="AD17" s="72">
+        <f>IF(SUM(C17:AB17)=0,"",$AD$9+AC17/(SUMIF(C17:AB17,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C17:AB17,"=E",$C$9:$AB$9)))</f>
+        <v>0.96805555555555556</v>
+      </c>
+      <c r="AE17" s="73" t="str">
+        <f>IF(AD17="","",INDEX(Grades!$B$12:$B$24,MATCH(AD17,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AF17" s="82" t="s">
+      <c r="AG17" s="82" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="B18" s="76" t="str">
@@ -3085,7 +3132,9 @@
       <c r="G18" s="77">
         <v>1</v>
       </c>
-      <c r="H18" s="77"/>
+      <c r="H18" s="77">
+        <v>1</v>
+      </c>
       <c r="I18" s="77"/>
       <c r="J18" s="77"/>
       <c r="K18" s="77"/>
@@ -3101,37 +3150,40 @@
       <c r="S18" s="77">
         <v>1</v>
       </c>
-      <c r="T18" s="77" t="s">
+      <c r="T18" s="77">
+        <v>0.85</v>
+      </c>
+      <c r="U18" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="U18" s="77"/>
       <c r="V18" s="77"/>
-      <c r="W18" s="77">
+      <c r="W18" s="77"/>
+      <c r="X18" s="77">
         <v>0.96</v>
       </c>
-      <c r="X18" s="77"/>
       <c r="Y18" s="77"/>
       <c r="Z18" s="77"/>
       <c r="AA18" s="77"/>
-      <c r="AB18" s="71">
-        <f t="shared" si="0"/>
-        <v>294</v>
-      </c>
-      <c r="AC18" s="72">
-        <f t="shared" si="1"/>
-        <v>0.98</v>
-      </c>
-      <c r="AD18" s="73" t="str">
-        <f>IF(AC18="","",INDEX(Grades!$B$12:$B$24,MATCH(AC18,Grades!$A$12:$A$24,1)))</f>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="71">
+        <f>IF(SUM(C18:AB18)=0,"",SUMPRODUCT(C18:AB18,$C$9:$AB$9))</f>
+        <v>346.5</v>
+      </c>
+      <c r="AD18" s="72">
+        <f>IF(SUM(C18:AB18)=0,"",$AD$9+AC18/(SUMIF(C18:AB18,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C18:AB18,"=E",$C$9:$AB$9)))</f>
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="AE18" s="73" t="str">
+        <f>IF(AD18="","",INDEX(Grades!$B$12:$B$24,MATCH(AD18,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AF18" s="82" t="s">
+      <c r="AG18" s="82" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
       <c r="B19" s="76" t="str">
@@ -3153,7 +3205,9 @@
       <c r="G19" s="77">
         <v>1</v>
       </c>
-      <c r="H19" s="77"/>
+      <c r="H19" s="77">
+        <v>1</v>
+      </c>
       <c r="I19" s="77"/>
       <c r="J19" s="77"/>
       <c r="K19" s="77"/>
@@ -3169,37 +3223,40 @@
       <c r="S19" s="77">
         <v>1</v>
       </c>
-      <c r="T19" s="77" t="s">
+      <c r="T19" s="77">
+        <v>1</v>
+      </c>
+      <c r="U19" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="U19" s="77"/>
       <c r="V19" s="77"/>
-      <c r="W19" s="77">
+      <c r="W19" s="77"/>
+      <c r="X19" s="77">
         <v>0.99</v>
       </c>
-      <c r="X19" s="77"/>
       <c r="Y19" s="77"/>
       <c r="Z19" s="77"/>
       <c r="AA19" s="77"/>
-      <c r="AB19" s="71">
-        <f t="shared" si="0"/>
-        <v>298.5</v>
-      </c>
-      <c r="AC19" s="72">
-        <f t="shared" si="1"/>
-        <v>0.995</v>
-      </c>
-      <c r="AD19" s="73" t="str">
-        <f>IF(AC19="","",INDEX(Grades!$B$12:$B$24,MATCH(AC19,Grades!$A$12:$A$24,1)))</f>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="71">
+        <f>IF(SUM(C19:AB19)=0,"",SUMPRODUCT(C19:AB19,$C$9:$AB$9))</f>
+        <v>358.5</v>
+      </c>
+      <c r="AD19" s="72">
+        <f>IF(SUM(C19:AB19)=0,"",$AD$9+AC19/(SUMIF(C19:AB19,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C19:AB19,"=E",$C$9:$AB$9)))</f>
+        <v>0.99583333333333335</v>
+      </c>
+      <c r="AE19" s="73" t="str">
+        <f>IF(AD19="","",INDEX(Grades!$B$12:$B$24,MATCH(AD19,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AF19" s="82" t="s">
+      <c r="AG19" s="82" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
       <c r="B20" s="76" t="str">
@@ -3221,7 +3278,9 @@
       <c r="G20" s="77">
         <v>1</v>
       </c>
-      <c r="H20" s="77"/>
+      <c r="H20" s="77">
+        <v>0.85</v>
+      </c>
       <c r="I20" s="77"/>
       <c r="J20" s="77"/>
       <c r="K20" s="77"/>
@@ -3237,37 +3296,40 @@
       <c r="S20" s="77">
         <v>1</v>
       </c>
-      <c r="T20" s="77" t="s">
+      <c r="T20" s="77">
+        <v>0.85</v>
+      </c>
+      <c r="U20" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="U20" s="77"/>
       <c r="V20" s="77"/>
-      <c r="W20" s="77">
+      <c r="W20" s="77"/>
+      <c r="X20" s="77">
         <v>0.97</v>
       </c>
-      <c r="X20" s="77"/>
       <c r="Y20" s="77"/>
       <c r="Z20" s="77"/>
       <c r="AA20" s="77"/>
-      <c r="AB20" s="71">
-        <f t="shared" si="0"/>
-        <v>295.5</v>
-      </c>
-      <c r="AC20" s="72">
-        <f t="shared" si="1"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="AD20" s="73" t="str">
-        <f>IF(AC20="","",INDEX(Grades!$B$12:$B$24,MATCH(AC20,Grades!$A$12:$A$24,1)))</f>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="71">
+        <f>IF(SUM(C20:AB20)=0,"",SUMPRODUCT(C20:AB20,$C$9:$AB$9))</f>
+        <v>346.5</v>
+      </c>
+      <c r="AD20" s="72">
+        <f>IF(SUM(C20:AB20)=0,"",$AD$9+AC20/(SUMIF(C20:AB20,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C20:AB20,"=E",$C$9:$AB$9)))</f>
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="AE20" s="73" t="str">
+        <f>IF(AD20="","",INDEX(Grades!$B$12:$B$24,MATCH(AD20,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AF20" s="82" t="s">
+      <c r="AG20" s="82" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="B21" s="76" t="str">
@@ -3289,7 +3351,9 @@
       <c r="G21" s="77">
         <v>1</v>
       </c>
-      <c r="H21" s="77"/>
+      <c r="H21" s="77">
+        <v>1</v>
+      </c>
       <c r="I21" s="77"/>
       <c r="J21" s="77"/>
       <c r="K21" s="77"/>
@@ -3305,35 +3369,38 @@
       <c r="S21" s="77">
         <v>1</v>
       </c>
-      <c r="T21" s="77" t="s">
+      <c r="T21" s="77">
+        <v>1</v>
+      </c>
+      <c r="U21" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="U21" s="77"/>
       <c r="V21" s="77"/>
-      <c r="W21" s="77">
+      <c r="W21" s="77"/>
+      <c r="X21" s="77">
         <v>1.02</v>
       </c>
-      <c r="X21" s="77"/>
       <c r="Y21" s="77"/>
       <c r="Z21" s="77"/>
       <c r="AA21" s="77"/>
-      <c r="AB21" s="71">
-        <f t="shared" si="0"/>
-        <v>303</v>
-      </c>
-      <c r="AC21" s="72">
-        <f t="shared" si="1"/>
-        <v>1.01</v>
-      </c>
-      <c r="AD21" s="73" t="str">
-        <f>IF(AC21="","",INDEX(Grades!$B$12:$B$24,MATCH(AC21,Grades!$A$12:$A$24,1)))</f>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="71">
+        <f>IF(SUM(C21:AB21)=0,"",SUMPRODUCT(C21:AB21,$C$9:$AB$9))</f>
+        <v>363</v>
+      </c>
+      <c r="AD21" s="72">
+        <f>IF(SUM(C21:AB21)=0,"",$AD$9+AC21/(SUMIF(C21:AB21,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C21:AB21,"=E",$C$9:$AB$9)))</f>
+        <v>1.0083333333333333</v>
+      </c>
+      <c r="AE21" s="73" t="str">
+        <f>IF(AD21="","",INDEX(Grades!$B$12:$B$24,MATCH(AD21,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AF21" s="82"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AG21" s="82"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
       <c r="B22" s="76" t="str">
@@ -3355,7 +3422,9 @@
       <c r="G22" s="77">
         <v>1</v>
       </c>
-      <c r="H22" s="77"/>
+      <c r="H22" s="77">
+        <v>1</v>
+      </c>
       <c r="I22" s="77"/>
       <c r="J22" s="77"/>
       <c r="K22" s="77"/>
@@ -3371,40 +3440,43 @@
       <c r="S22" s="77">
         <v>1</v>
       </c>
-      <c r="T22" s="77" t="s">
+      <c r="T22" s="77">
+        <v>1</v>
+      </c>
+      <c r="U22" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="U22" s="77"/>
       <c r="V22" s="77"/>
-      <c r="W22" s="77">
+      <c r="W22" s="77"/>
+      <c r="X22" s="77">
         <v>0.69</v>
       </c>
-      <c r="X22" s="77"/>
       <c r="Y22" s="77"/>
       <c r="Z22" s="77"/>
       <c r="AA22" s="77"/>
-      <c r="AB22" s="71">
-        <f t="shared" si="0"/>
-        <v>249.5</v>
-      </c>
-      <c r="AC22" s="72">
-        <f t="shared" si="1"/>
-        <v>0.83166666666666667</v>
-      </c>
-      <c r="AD22" s="73" t="str">
-        <f>IF(AC22="","",INDEX(Grades!$B$12:$B$24,MATCH(AC22,Grades!$A$12:$A$24,1)))</f>
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="71">
+        <f>IF(SUM(C22:AB22)=0,"",SUMPRODUCT(C22:AB22,$C$9:$AB$9))</f>
+        <v>309.5</v>
+      </c>
+      <c r="AD22" s="72">
+        <f>IF(SUM(C22:AB22)=0,"",$AD$9+AC22/(SUMIF(C22:AB22,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C22:AB22,"=E",$C$9:$AB$9)))</f>
+        <v>0.85972222222222228</v>
+      </c>
+      <c r="AE22" s="73" t="str">
+        <f>IF(AD22="","",INDEX(Grades!$B$12:$B$24,MATCH(AD22,Grades!$A$12:$A$24,1)))</f>
         <v>B</v>
       </c>
-      <c r="AF22" s="84" t="s">
+      <c r="AG22" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="AG22" s="85" t="s">
+      <c r="AH22" s="85" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="B23" s="76" t="str">
@@ -3426,7 +3498,9 @@
       <c r="G23" s="77">
         <v>1</v>
       </c>
-      <c r="H23" s="77"/>
+      <c r="H23" s="77">
+        <v>1</v>
+      </c>
       <c r="I23" s="77"/>
       <c r="J23" s="77"/>
       <c r="K23" s="77"/>
@@ -3442,34 +3516,37 @@
       <c r="S23" s="77">
         <v>1</v>
       </c>
-      <c r="T23" s="77" t="s">
+      <c r="T23" s="77">
+        <v>1</v>
+      </c>
+      <c r="U23" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="U23" s="77"/>
       <c r="V23" s="77"/>
-      <c r="W23" s="77">
+      <c r="W23" s="77"/>
+      <c r="X23" s="77">
         <v>1.01</v>
       </c>
-      <c r="X23" s="77"/>
       <c r="Y23" s="77"/>
       <c r="Z23" s="77"/>
       <c r="AA23" s="77"/>
-      <c r="AB23" s="71">
-        <f t="shared" si="0"/>
-        <v>301.5</v>
-      </c>
-      <c r="AC23" s="72">
-        <f t="shared" si="1"/>
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="AD23" s="73" t="str">
-        <f>IF(AC23="","",INDEX(Grades!$B$12:$B$24,MATCH(AC23,Grades!$A$12:$A$24,1)))</f>
+      <c r="AB23" s="77"/>
+      <c r="AC23" s="71">
+        <f>IF(SUM(C23:AB23)=0,"",SUMPRODUCT(C23:AB23,$C$9:$AB$9))</f>
+        <v>361.5</v>
+      </c>
+      <c r="AD23" s="72">
+        <f>IF(SUM(C23:AB23)=0,"",$AD$9+AC23/(SUMIF(C23:AB23,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C23:AB23,"=E",$C$9:$AB$9)))</f>
+        <v>1.0041666666666667</v>
+      </c>
+      <c r="AE23" s="73" t="str">
+        <f>IF(AD23="","",INDEX(Grades!$B$12:$B$24,MATCH(AD23,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
       <c r="B24" s="76" t="str">
@@ -3491,7 +3568,9 @@
       <c r="G24" s="77">
         <v>1</v>
       </c>
-      <c r="H24" s="77"/>
+      <c r="H24" s="77">
+        <v>1</v>
+      </c>
       <c r="I24" s="77"/>
       <c r="J24" s="77"/>
       <c r="K24" s="77"/>
@@ -3507,39 +3586,42 @@
       <c r="S24" s="77">
         <v>1</v>
       </c>
-      <c r="T24" s="77" t="s">
+      <c r="T24" s="77">
+        <v>1</v>
+      </c>
+      <c r="U24" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="U24" s="77"/>
       <c r="V24" s="77"/>
-      <c r="W24" s="77">
+      <c r="W24" s="77"/>
+      <c r="X24" s="77">
         <v>1.03</v>
       </c>
-      <c r="X24" s="77"/>
       <c r="Y24" s="77"/>
       <c r="Z24" s="77"/>
       <c r="AA24" s="77"/>
-      <c r="AB24" s="71">
-        <f t="shared" si="0"/>
-        <v>304.5</v>
-      </c>
-      <c r="AC24" s="72">
-        <f t="shared" si="1"/>
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="AD24" s="73" t="str">
-        <f>IF(AC24="","",INDEX(Grades!$B$12:$B$24,MATCH(AC24,Grades!$A$12:$A$24,1)))</f>
+      <c r="AB24" s="77"/>
+      <c r="AC24" s="71">
+        <f>IF(SUM(C24:AB24)=0,"",SUMPRODUCT(C24:AB24,$C$9:$AB$9))</f>
+        <v>364.5</v>
+      </c>
+      <c r="AD24" s="72">
+        <f>IF(SUM(C24:AB24)=0,"",$AD$9+AC24/(SUMIF(C24:AB24,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C24:AB24,"=E",$C$9:$AB$9)))</f>
+        <v>1.0125</v>
+      </c>
+      <c r="AE24" s="73" t="str">
+        <f>IF(AD24="","",INDEX(Grades!$B$12:$B$24,MATCH(AD24,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AF24" s="86" t="s">
+      <c r="AG24" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="AG24" s="87" t="b">
-        <f>AG22="Yes"</f>
+      <c r="AH24" s="87" t="b">
+        <f>AH22="Yes"</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A25" s="31" t="s">
         <v>65</v>
       </c>
@@ -3569,60 +3651,61 @@
       <c r="Y25" s="75"/>
       <c r="Z25" s="75"/>
       <c r="AA25" s="75"/>
-      <c r="AB25" s="71" t="str">
-        <f t="shared" si="0"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="71" t="str">
+        <f>IF(SUM(C25:AB25)=0,"",SUMPRODUCT(C25:AB25,$C$9:$AB$9))</f>
         <v/>
       </c>
-      <c r="AC25" s="72" t="str">
+      <c r="AD25" s="72" t="str">
+        <f>IF(SUM(C25:AB25)=0,"",$AD$9+AC25/(SUMIF(C25:AB25,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C25:AB25,"=E",$C$9:$AB$9)))</f>
+        <v/>
+      </c>
+      <c r="AE25" s="73" t="str">
+        <f>IF(AD25="","",INDEX(Grades!$B$12:$B$24,MATCH(AD25,Grades!$A$12:$A$24,1)))</f>
+        <v/>
+      </c>
+      <c r="AG25" s="82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="B26" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="70">
+        <f t="shared" ref="C26:K26" si="1">IF(SUM(C12:C25)=0,"",AVERAGE(C12:C25))</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="70">
+        <f t="shared" si="1"/>
+        <v>0.99615384615384606</v>
+      </c>
+      <c r="E26" s="70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="70">
+        <f t="shared" si="1"/>
+        <v>0.97692307692307689</v>
+      </c>
+      <c r="G26" s="70">
+        <f t="shared" si="1"/>
+        <v>0.97692307692307689</v>
+      </c>
+      <c r="H26" s="70">
+        <f t="shared" si="1"/>
+        <v>0.98846153846153839</v>
+      </c>
+      <c r="I26" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD25" s="73" t="str">
-        <f>IF(AC25="","",INDEX(Grades!$B$12:$B$24,MATCH(AC25,Grades!$A$12:$A$24,1)))</f>
+      <c r="J26" s="70" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF25" s="82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="B26" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="70">
-        <f t="shared" ref="C26:K26" si="3">IF(SUM(C12:C25)=0,"",AVERAGE(C12:C25))</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="70">
-        <f t="shared" si="3"/>
-        <v>0.99615384615384606</v>
-      </c>
-      <c r="E26" s="70">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F26" s="70">
-        <f t="shared" si="3"/>
-        <v>0.97692307692307689</v>
-      </c>
-      <c r="G26" s="70">
-        <f t="shared" si="3"/>
-        <v>0.97692307692307689</v>
-      </c>
-      <c r="H26" s="70" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I26" s="70" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J26" s="70" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
       <c r="K26" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L26" s="70"/>
@@ -3638,80 +3721,81 @@
       <c r="S26" s="70"/>
       <c r="T26" s="70"/>
       <c r="U26" s="70"/>
-      <c r="V26" s="70" t="str">
-        <f t="shared" ref="V26:AA26" si="4">IF(SUM(V12:V25)=0,"",AVERAGE(V12:V25))</f>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70" t="str">
+        <f t="shared" ref="W26:AB26" si="2">IF(SUM(W12:W25)=0,"",AVERAGE(W12:W25))</f>
         <v/>
       </c>
-      <c r="W26" s="70">
-        <f t="shared" si="4"/>
+      <c r="X26" s="70">
+        <f t="shared" si="2"/>
         <v>0.95653846153846145</v>
       </c>
-      <c r="X26" s="70" t="str">
-        <f t="shared" si="4"/>
+      <c r="Y26" s="70" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Y26" s="70" t="str">
-        <f t="shared" si="4"/>
+      <c r="Z26" s="70" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Z26" s="70" t="str">
-        <f t="shared" si="4"/>
+      <c r="AA26" s="70" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AA26" s="70" t="str">
-        <f t="shared" si="4"/>
+      <c r="AB26" s="70" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AB26" s="19" t="s">
+      <c r="AC26" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AC26" s="67">
-        <f>AVERAGE(AC12:AC25)</f>
-        <v>0.97330459770114952</v>
-      </c>
-      <c r="AD26" s="68" t="str">
-        <f>IF(AC26="","",INDEX(Grades!$B$12:$B$24,MATCH(AC26,Grades!$A$12:$A$24,1)))</f>
+      <c r="AD26" s="67">
+        <f>AVERAGE(AD12:AD25)</f>
+        <v>0.96178620928620928</v>
+      </c>
+      <c r="AE26" s="68" t="str">
+        <f>IF(AD26="","",INDEX(Grades!$B$12:$B$24,MATCH(AD26,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B27" s="69" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="70">
-        <f t="shared" ref="C27:K27" si="5">IF(OR(C9=0,C26=""),"",MEDIAN(C12:C25))</f>
+        <f t="shared" ref="C27:K27" si="3">IF(OR(C9=0,C26=""),"",MEDIAN(C12:C25))</f>
         <v>1</v>
       </c>
       <c r="D27" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E27" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F27" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G27" s="70">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H27" s="70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="70">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="70" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I27" s="70" t="str">
-        <f t="shared" si="5"/>
+      <c r="J27" s="70" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J27" s="70" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="K27" s="70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L27" s="70"/>
@@ -3727,76 +3811,77 @@
       <c r="S27" s="70"/>
       <c r="T27" s="70"/>
       <c r="U27" s="70"/>
-      <c r="V27" s="70" t="str">
-        <f t="shared" ref="V27:AA27" si="6">IF(OR(V9=0,V26=""),"",MEDIAN(V12:V25))</f>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70" t="str">
+        <f t="shared" ref="W27:AB27" si="4">IF(OR(W9=0,W26=""),"",MEDIAN(W12:W25))</f>
         <v/>
       </c>
-      <c r="W27" s="70">
-        <f t="shared" si="6"/>
+      <c r="X27" s="70">
+        <f t="shared" si="4"/>
         <v>0.97499999999999998</v>
       </c>
-      <c r="X27" s="70" t="str">
-        <f t="shared" si="6"/>
+      <c r="Y27" s="70" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Y27" s="70" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z27" s="70" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Z27" s="70" t="str">
-        <f t="shared" si="6"/>
+      <c r="AA27" s="70" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AA27" s="70" t="str">
-        <f t="shared" si="6"/>
+      <c r="AB27" s="70" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AB27" s="19" t="s">
+      <c r="AC27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AC27" s="67">
-        <f>MEDIAN(AC12:AC25)</f>
-        <v>0.98750000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AD27" s="67">
+        <f>MEDIAN(AD12:AD25)</f>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B28" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="70">
-        <f t="shared" ref="C28:K28" si="7">IF(OR(C9=0,C26=""),"",STDEV(C12:C25))</f>
+        <f t="shared" ref="C28:K28" si="5">IF(OR(C9=0,C26=""),"",STDEV(C12:C25))</f>
         <v>0</v>
       </c>
       <c r="D28" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.3867504905630743E-2</v>
       </c>
       <c r="E28" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F28" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.6330071214910814E-2</v>
       </c>
       <c r="G28" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>8.3205029433784355E-2</v>
       </c>
-      <c r="H28" s="70" t="str">
-        <f t="shared" si="7"/>
+      <c r="H28" s="70">
+        <f t="shared" si="5"/>
+        <v>4.1602514716892199E-2</v>
+      </c>
+      <c r="I28" s="70" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I28" s="70" t="str">
-        <f t="shared" si="7"/>
+      <c r="J28" s="70" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J28" s="70" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="K28" s="70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L28" s="70"/>
@@ -3812,50 +3897,51 @@
       <c r="S28" s="70"/>
       <c r="T28" s="70"/>
       <c r="U28" s="70"/>
-      <c r="V28" s="70" t="str">
-        <f t="shared" ref="V28:AA28" si="8">IF(OR(V9=0,V26=""),"",STDEV(V12:V25))</f>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70" t="str">
+        <f t="shared" ref="W28:AB28" si="6">IF(OR(W9=0,W26=""),"",STDEV(W12:W25))</f>
         <v/>
       </c>
-      <c r="W28" s="70">
-        <f t="shared" si="8"/>
+      <c r="X28" s="70">
+        <f t="shared" si="6"/>
         <v>8.6851996124264363E-2</v>
       </c>
-      <c r="X28" s="70" t="str">
-        <f t="shared" si="8"/>
+      <c r="Y28" s="70" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y28" s="70" t="str">
-        <f t="shared" si="8"/>
+      <c r="Z28" s="70" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Z28" s="70" t="str">
-        <f t="shared" si="8"/>
+      <c r="AA28" s="70" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA28" s="70" t="str">
-        <f t="shared" si="8"/>
+      <c r="AB28" s="70" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AB28" s="19" t="s">
+      <c r="AC28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AC28" s="67">
-        <f>STDEV(AC12:AC25)</f>
-        <v>4.7858084698133366E-2</v>
-      </c>
-      <c r="AD28" s="31" t="s">
+      <c r="AD28" s="67">
+        <f>STDEV(AD12:AD25)</f>
+        <v>5.630684219060459E-2</v>
+      </c>
+      <c r="AE28" s="31" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH22">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AF3" r:id="rId1"/>
+    <hyperlink ref="AG3" r:id="rId1"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -4893,7 +4979,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A12)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A12,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A12)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A12,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D12" s="16">
@@ -4909,7 +4995,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A13)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A13,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A13)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A13,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D13" s="16">
@@ -4926,7 +5012,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A14)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A14,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A14)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A14,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D14" s="16">
@@ -4943,7 +5029,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A15)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A15,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A15)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A15,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D15" s="16">
@@ -4959,7 +5045,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A16)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A16,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A16)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A16,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D16" s="16">
@@ -4979,7 +5065,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A17)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A17,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A17)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A17,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D17" s="16">
@@ -4996,7 +5082,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A18)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A18,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A18)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A18,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D18" s="16">
@@ -5012,12 +5098,12 @@
         <v>12</v>
       </c>
       <c r="C19" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A19)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A19,1,0,1,1))</f>
-        <v>0</v>
+        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A19)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A19,1,0,1,1))</f>
+        <v>1</v>
       </c>
       <c r="D19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -5029,7 +5115,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A20)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A20,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A20)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A20,1,0,1,1))</f>
         <v>1</v>
       </c>
       <c r="D20" s="16">
@@ -5046,7 +5132,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A21)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A21,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A21)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A21,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D21" s="16">
@@ -5062,7 +5148,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A22)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A22,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A22)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A22,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D22" s="16">
@@ -5079,7 +5165,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A23)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A23,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A23)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A23,1,0,1,1))</f>
         <v>1</v>
       </c>
       <c r="D23" s="16">
@@ -5096,12 +5182,12 @@
         <v>6</v>
       </c>
       <c r="C24" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;A24)-COUNTIF(Gradebook!$AC$12:$AC$25,"&gt;="&amp;OFFSET(A24,1,0,1,1))</f>
-        <v>11</v>
+        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A24)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A24,1,0,1,1))</f>
+        <v>10</v>
       </c>
       <c r="D24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84615384615384615</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -5123,8 +5209,8 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54">
-        <f>Gradebook!$AC$26</f>
-        <v>0.97330459770114952</v>
+        <f>Gradebook!$AD$26</f>
+        <v>0.96178620928620928</v>
       </c>
       <c r="B28" s="55" t="str">
         <f>INDEX(B12:B24,MATCH(A28,A12:A24,1))</f>
@@ -5136,8 +5222,8 @@
         <v>49</v>
       </c>
       <c r="B30" s="54">
-        <f>Gradebook!AC27</f>
-        <v>0.98750000000000004</v>
+        <f>Gradebook!AD27</f>
+        <v>0.97</v>
       </c>
       <c r="C30" s="63" t="s">
         <v>56</v>
@@ -5148,8 +5234,8 @@
         <v>50</v>
       </c>
       <c r="B31" s="54">
-        <f>Gradebook!AC28</f>
-        <v>4.7858084698133366E-2</v>
+        <f>Gradebook!AD28</f>
+        <v>5.630684219060459E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5349,8 +5435,8 @@
         <v>0.9</v>
       </c>
       <c r="B53" s="27">
-        <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A53)</f>
-        <v>1.0089999999999999</v>
+        <f>PERCENTILE(Gradebook!$AD$12:$AD$25,A53)</f>
+        <v>1.0075000000000001</v>
       </c>
       <c r="C53" s="63" t="s">
         <v>62</v>
@@ -5363,8 +5449,8 @@
         <v>0.65</v>
       </c>
       <c r="B54" s="27">
-        <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A54)</f>
-        <v>0.99383333333333335</v>
+        <f>PERCENTILE(Gradebook!$AD$12:$AD$25,A54)</f>
+        <v>0.99458333333333337</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
@@ -5374,8 +5460,8 @@
         <v>0.35</v>
       </c>
       <c r="B55" s="27">
-        <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A55)</f>
-        <v>0.98099999999999998</v>
+        <f>PERCENTILE(Gradebook!$AD$12:$AD$25,A55)</f>
+        <v>0.96361111111111108</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -5385,8 +5471,8 @@
         <v>0.1</v>
       </c>
       <c r="B56" s="27">
-        <f>PERCENTILE(Gradebook!$AC$12:$AC$25,A56)</f>
-        <v>0.93966666666666665</v>
+        <f>PERCENTILE(Gradebook!$AD$12:$AD$25,A56)</f>
+        <v>0.87680555555555562</v>
       </c>
     </row>
   </sheetData>

--- a/libraries/assets/grades/gradebook_percentage.xlsx
+++ b/libraries/assets/grades/gradebook_percentage.xlsx
@@ -18,10 +18,10 @@
     <sheet name="©" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Gradebook!$A$1:$AE$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Gradebook!$A$1:$AF$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Grades!$A$1:$J$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Names!$A$1:$H$109</definedName>
-    <definedName name="displayID">Gradebook!$AH$24</definedName>
+    <definedName name="displayID">Gradebook!$AI$24</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Gradebook!$6:$11</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="153">
   <si>
     <t>Gradebook</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t>Tarea 2</t>
+  </si>
+  <si>
+    <t>Pruebita 2</t>
   </si>
 </sst>
 </file>
@@ -1462,25 +1465,25 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1495,11 +1498,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2091746992"/>
-        <c:axId val="-2087703392"/>
+        <c:axId val="-2102099104"/>
+        <c:axId val="-2102095808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2091746992"/>
+        <c:axId val="-2102099104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1537,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087703392"/>
+        <c:crossAx val="-2102095808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1544,7 +1547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087703392"/>
+        <c:axId val="-2102095808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,7 +1621,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2091746992"/>
+        <c:crossAx val="-2102099104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1672,14 +1675,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>30</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
+          <xdr:col>31</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>34</xdr:col>
-          <xdr:colOff>403811</xdr:colOff>
+          <xdr:colOff>543511</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1690,7 +1693,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1096"/>
+                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1098"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1722,13 +1725,13 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>1295400</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2236,28 +2239,28 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="3" customWidth="1"/>
-    <col min="3" max="18" width="7" style="3" customWidth="1"/>
-    <col min="19" max="20" width="8.33203125" style="3" customWidth="1"/>
-    <col min="21" max="28" width="7" style="3" customWidth="1"/>
-    <col min="29" max="29" width="8.5" style="3" customWidth="1"/>
-    <col min="30" max="30" width="7.5" style="3" customWidth="1"/>
-    <col min="31" max="31" width="8.83203125" style="3"/>
-    <col min="32" max="32" width="5.33203125" style="3" customWidth="1"/>
-    <col min="33" max="33" width="20.5" style="3" customWidth="1"/>
-    <col min="34" max="16384" width="8.83203125" style="3"/>
+    <col min="3" max="19" width="7" style="3" customWidth="1"/>
+    <col min="20" max="21" width="8.33203125" style="3" customWidth="1"/>
+    <col min="22" max="29" width="7" style="3" customWidth="1"/>
+    <col min="30" max="30" width="8.5" style="3" customWidth="1"/>
+    <col min="31" max="31" width="7.5" style="3" customWidth="1"/>
+    <col min="32" max="32" width="8.83203125" style="3"/>
+    <col min="33" max="33" width="5.33203125" style="3" customWidth="1"/>
+    <col min="34" max="34" width="20.5" style="3" customWidth="1"/>
+    <col min="35" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
@@ -2290,19 +2293,20 @@
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
       <c r="AD1" s="7"/>
-      <c r="AG1" s="15"/>
-    </row>
-    <row r="2" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AE1" s="7"/>
+      <c r="AH1" s="15"/>
+    </row>
+    <row r="2" spans="1:34" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="12" t="s">
         <v>132</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="AG2" s="46" t="s">
+      <c r="AH2" s="46" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:34" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="11" t="s">
         <v>133</v>
@@ -2335,24 +2339,25 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
-      <c r="AG3" s="22" t="s">
+      <c r="AE3" s="7"/>
+      <c r="AH3" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:34" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="11" t="s">
         <v>134</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="AA4" s="80" t="s">
+      <c r="AB4" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="AB4" s="81" t="s">
+      <c r="AC4" s="81" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2380,8 +2385,9 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AD5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="4"/>
       <c r="C6" s="65" t="s">
         <v>1</v>
@@ -2411,9 +2417,10 @@
       <c r="Z6" s="66"/>
       <c r="AA6" s="66"/>
       <c r="AB6" s="66"/>
-      <c r="AC6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
       <c r="C7" s="94" t="s">
         <v>140</v>
@@ -2437,21 +2444,22 @@
       </c>
       <c r="S7" s="96"/>
       <c r="T7" s="96"/>
-      <c r="U7" s="96" t="s">
+      <c r="U7" s="96"/>
+      <c r="V7" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="V7" s="96"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="95" t="s">
+      <c r="W7" s="96"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="Y7" s="95"/>
       <c r="Z7" s="95"/>
       <c r="AA7" s="95"/>
       <c r="AB7" s="95"/>
-      <c r="AC7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" ht="67" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" ht="67" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="91" t="s">
@@ -2503,38 +2511,41 @@
         <v>142</v>
       </c>
       <c r="S8" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="T8" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="T8" s="91" t="s">
+      <c r="U8" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="U8" s="91" t="s">
+      <c r="V8" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="V8" s="91" t="s">
+      <c r="W8" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="W8" s="91" t="s">
+      <c r="X8" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="X8" s="91" t="s">
+      <c r="Y8" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="Y8" s="91" t="s">
+      <c r="Z8" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="Z8" s="91" t="s">
+      <c r="AA8" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="AA8" s="91" t="s">
+      <c r="AB8" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="AB8" s="79" t="s">
+      <c r="AC8" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AC8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AD8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="21" t="s">
         <v>35</v>
@@ -2593,11 +2604,11 @@
       <c r="T9" s="14">
         <v>50</v>
       </c>
-      <c r="U9" s="14"/>
+      <c r="U9" s="14">
+        <v>50</v>
+      </c>
       <c r="V9" s="14"/>
-      <c r="W9" s="14">
-        <v>150</v>
-      </c>
+      <c r="W9" s="14"/>
       <c r="X9" s="14">
         <v>150</v>
       </c>
@@ -2611,20 +2622,23 @@
         <v>150</v>
       </c>
       <c r="AB9" s="14">
+        <v>150</v>
+      </c>
+      <c r="AC9" s="14">
         <v>1000</v>
       </c>
-      <c r="AC9" s="34" t="s">
+      <c r="AD9" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="AD9" s="78">
+      <c r="AE9" s="78">
         <v>0</v>
       </c>
-      <c r="AG9" s="83" t="s">
+      <c r="AH9" s="83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:34" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:34" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="12" t="s">
         <v>51</v>
@@ -2655,20 +2669,21 @@
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
-      <c r="AC11" s="8" t="s">
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AD11" s="8" t="s">
+      <c r="AE11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="8" t="s">
+      <c r="AF11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AG11" s="82" t="s">
+      <c r="AH11" s="82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <f ca="1">OFFSET(A12,-1,0,1,1)+1</f>
         <v>1</v>
@@ -2695,7 +2710,9 @@
       <c r="H12" s="77">
         <v>1</v>
       </c>
-      <c r="I12" s="77"/>
+      <c r="I12" s="77">
+        <v>1</v>
+      </c>
       <c r="J12" s="77"/>
       <c r="K12" s="77"/>
       <c r="L12" s="77"/>
@@ -2708,40 +2725,45 @@
         <v>1</v>
       </c>
       <c r="S12" s="77">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="T12" s="77">
         <v>1</v>
       </c>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="77">
+        <v>1</v>
+      </c>
+      <c r="V12" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="V12" s="77"/>
       <c r="W12" s="77"/>
-      <c r="X12" s="77">
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77">
         <v>0.97499999999999998</v>
       </c>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="77"/>
+      <c r="Z12" s="77">
+        <v>0.94499999999999995</v>
+      </c>
       <c r="AA12" s="77"/>
       <c r="AB12" s="77"/>
-      <c r="AC12" s="71">
-        <f>IF(SUM(C12:AB12)=0,"",SUMPRODUCT(C12:AB12,$C$9:$AB$9))</f>
-        <v>356.25</v>
-      </c>
-      <c r="AD12" s="72">
-        <f>IF(SUM(C12:AB12)=0,"",$AD$9+AC12/(SUMIF(C12:AB12,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C12:AB12,"=E",$C$9:$AB$9)))</f>
-        <v>0.98958333333333337</v>
-      </c>
-      <c r="AE12" s="73" t="str">
-        <f>IF(AD12="","",INDEX(Grades!$B$12:$B$24,MATCH(AD12,Grades!$A$12:$A$24,1)))</f>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="71">
+        <f>IF(SUM(C12:AC12)=0,"",SUMPRODUCT(C12:AC12,$C$9:$AC$9))</f>
+        <v>553.5</v>
+      </c>
+      <c r="AE12" s="72">
+        <f>IF(SUM(C12:AC12)=0,"",$AE$9+AD12/(SUMIF(C12:AC12,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C12:AC12,"=E",$C$9:$AC$9)))</f>
+        <v>0.97105263157894739</v>
+      </c>
+      <c r="AF12" s="73" t="str">
+        <f>IF(AE12="","",INDEX(Grades!$B$12:$B$24,MATCH(AE12,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AG12" s="82" t="s">
+      <c r="AH12" s="82" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A24" ca="1" si="0">OFFSET(A13,-1,0,1,1)+1</f>
         <v>2</v>
@@ -2768,7 +2790,9 @@
       <c r="H13" s="77">
         <v>1</v>
       </c>
-      <c r="I13" s="77"/>
+      <c r="I13" s="77">
+        <v>1</v>
+      </c>
       <c r="J13" s="77"/>
       <c r="K13" s="77"/>
       <c r="L13" s="77"/>
@@ -2781,40 +2805,45 @@
         <v>0.95</v>
       </c>
       <c r="S13" s="77">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="T13" s="77">
         <v>1</v>
       </c>
-      <c r="U13" s="77" t="s">
+      <c r="U13" s="77">
+        <v>1</v>
+      </c>
+      <c r="V13" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="V13" s="77"/>
       <c r="W13" s="77"/>
-      <c r="X13" s="77">
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77">
         <v>0.90500000000000003</v>
       </c>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="77"/>
+      <c r="Z13" s="77">
+        <v>0.505</v>
+      </c>
       <c r="AA13" s="77"/>
       <c r="AB13" s="77"/>
-      <c r="AC13" s="71">
-        <f>IF(SUM(C13:AB13)=0,"",SUMPRODUCT(C13:AB13,$C$9:$AB$9))</f>
-        <v>340.25</v>
-      </c>
-      <c r="AD13" s="72">
-        <f>IF(SUM(C13:AB13)=0,"",$AD$9+AC13/(SUMIF(C13:AB13,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C13:AB13,"=E",$C$9:$AB$9)))</f>
-        <v>0.94513888888888886</v>
-      </c>
-      <c r="AE13" s="73" t="str">
-        <f>IF(AD13="","",INDEX(Grades!$B$12:$B$24,MATCH(AD13,Grades!$A$12:$A$24,1)))</f>
-        <v>A</v>
-      </c>
-      <c r="AG13" s="82" t="s">
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="71">
+        <f>IF(SUM(C13:AC13)=0,"",SUMPRODUCT(C13:AC13,$C$9:$AC$9))</f>
+        <v>438.5</v>
+      </c>
+      <c r="AE13" s="72">
+        <f>IF(SUM(C13:AC13)=0,"",$AE$9+AD13/(SUMIF(C13:AC13,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C13:AC13,"=E",$C$9:$AC$9)))</f>
+        <v>0.76929824561403504</v>
+      </c>
+      <c r="AF13" s="73" t="str">
+        <f>IF(AE13="","",INDEX(Grades!$B$12:$B$24,MATCH(AE13,Grades!$A$12:$A$24,1)))</f>
+        <v>C+</v>
+      </c>
+      <c r="AH13" s="82" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
@@ -2841,7 +2870,9 @@
       <c r="H14" s="77">
         <v>1</v>
       </c>
-      <c r="I14" s="77"/>
+      <c r="I14" s="77">
+        <v>1</v>
+      </c>
       <c r="J14" s="77"/>
       <c r="K14" s="77"/>
       <c r="L14" s="77"/>
@@ -2859,35 +2890,40 @@
       <c r="T14" s="77">
         <v>1</v>
       </c>
-      <c r="U14" s="77" t="s">
+      <c r="U14" s="77">
+        <v>1</v>
+      </c>
+      <c r="V14" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="V14" s="77"/>
       <c r="W14" s="77"/>
-      <c r="X14" s="77">
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77">
         <v>0.96</v>
       </c>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
+      <c r="Z14" s="77">
+        <v>1.01</v>
+      </c>
       <c r="AA14" s="77"/>
       <c r="AB14" s="77"/>
-      <c r="AC14" s="71">
-        <f>IF(SUM(C14:AB14)=0,"",SUMPRODUCT(C14:AB14,$C$9:$AB$9))</f>
-        <v>339.5</v>
-      </c>
-      <c r="AD14" s="72">
-        <f>IF(SUM(C14:AB14)=0,"",$AD$9+AC14/(SUMIF(C14:AB14,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C14:AB14,"=E",$C$9:$AB$9)))</f>
-        <v>0.97</v>
-      </c>
-      <c r="AE14" s="73" t="str">
-        <f>IF(AD14="","",INDEX(Grades!$B$12:$B$24,MATCH(AD14,Grades!$A$12:$A$24,1)))</f>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="71">
+        <f>IF(SUM(C14:AC14)=0,"",SUMPRODUCT(C14:AC14,$C$9:$AC$9))</f>
+        <v>551</v>
+      </c>
+      <c r="AE14" s="72">
+        <f>IF(SUM(C14:AC14)=0,"",$AE$9+AD14/(SUMIF(C14:AC14,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C14:AC14,"=E",$C$9:$AC$9)))</f>
+        <v>0.98392857142857137</v>
+      </c>
+      <c r="AF14" s="73" t="str">
+        <f>IF(AE14="","",INDEX(Grades!$B$12:$B$24,MATCH(AE14,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AG14" s="82" t="s">
+      <c r="AH14" s="82" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
@@ -2914,8 +2950,8 @@
       <c r="H15" s="77">
         <v>1</v>
       </c>
-      <c r="I15" s="77" t="s">
-        <v>147</v>
+      <c r="I15" s="77">
+        <v>0.85</v>
       </c>
       <c r="J15" s="77"/>
       <c r="K15" s="77"/>
@@ -2929,40 +2965,45 @@
         <v>0.95</v>
       </c>
       <c r="S15" s="77">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="T15" s="77">
+        <v>1</v>
+      </c>
+      <c r="U15" s="77">
         <v>0</v>
       </c>
-      <c r="U15" s="77" t="s">
+      <c r="V15" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="V15" s="77"/>
       <c r="W15" s="77"/>
-      <c r="X15" s="77">
+      <c r="X15" s="77"/>
+      <c r="Y15" s="77">
         <v>0.995</v>
       </c>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="77"/>
+      <c r="Z15" s="77">
+        <v>0.97499999999999998</v>
+      </c>
       <c r="AA15" s="77"/>
       <c r="AB15" s="77"/>
-      <c r="AC15" s="71">
-        <f>IF(SUM(C15:AB15)=0,"",SUMPRODUCT(C15:AB15,$C$9:$AB$9))</f>
-        <v>306.75</v>
-      </c>
-      <c r="AD15" s="72">
-        <f>IF(SUM(C15:AB15)=0,"",$AD$9+AC15/(SUMIF(C15:AB15,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C15:AB15,"=E",$C$9:$AB$9)))</f>
-        <v>0.82905405405405408</v>
-      </c>
-      <c r="AE15" s="73" t="str">
-        <f>IF(AD15="","",INDEX(Grades!$B$12:$B$24,MATCH(AD15,Grades!$A$12:$A$24,1)))</f>
-        <v>B-</v>
-      </c>
-      <c r="AG15" s="82" t="s">
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="71">
+        <f>IF(SUM(C15:AC15)=0,"",SUMPRODUCT(C15:AC15,$C$9:$AC$9))</f>
+        <v>503</v>
+      </c>
+      <c r="AE15" s="72">
+        <f>IF(SUM(C15:AC15)=0,"",$AE$9+AD15/(SUMIF(C15:AC15,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C15:AC15,"=E",$C$9:$AC$9)))</f>
+        <v>0.88245614035087716</v>
+      </c>
+      <c r="AF15" s="73" t="str">
+        <f>IF(AE15="","",INDEX(Grades!$B$12:$B$24,MATCH(AE15,Grades!$A$12:$A$24,1)))</f>
+        <v>B+</v>
+      </c>
+      <c r="AH15" s="82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
@@ -2989,7 +3030,9 @@
       <c r="H16" s="77">
         <v>1</v>
       </c>
-      <c r="I16" s="77"/>
+      <c r="I16" s="77">
+        <v>1</v>
+      </c>
       <c r="J16" s="77"/>
       <c r="K16" s="77"/>
       <c r="L16" s="77"/>
@@ -3002,40 +3045,45 @@
         <v>1</v>
       </c>
       <c r="S16" s="77">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="T16" s="77">
         <v>1</v>
       </c>
-      <c r="U16" s="77" t="s">
+      <c r="U16" s="77">
+        <v>1</v>
+      </c>
+      <c r="V16" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="V16" s="77"/>
       <c r="W16" s="77"/>
-      <c r="X16" s="77">
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77">
         <v>0.99</v>
       </c>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
+      <c r="Z16" s="77">
+        <v>0.93500000000000005</v>
+      </c>
       <c r="AA16" s="77"/>
       <c r="AB16" s="77"/>
-      <c r="AC16" s="71">
-        <f>IF(SUM(C16:AB16)=0,"",SUMPRODUCT(C16:AB16,$C$9:$AB$9))</f>
-        <v>358.5</v>
-      </c>
-      <c r="AD16" s="72">
-        <f>IF(SUM(C16:AB16)=0,"",$AD$9+AC16/(SUMIF(C16:AB16,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C16:AB16,"=E",$C$9:$AB$9)))</f>
-        <v>0.99583333333333335</v>
-      </c>
-      <c r="AE16" s="73" t="str">
-        <f>IF(AD16="","",INDEX(Grades!$B$12:$B$24,MATCH(AD16,Grades!$A$12:$A$24,1)))</f>
+      <c r="AC16" s="77"/>
+      <c r="AD16" s="71">
+        <f>IF(SUM(C16:AC16)=0,"",SUMPRODUCT(C16:AC16,$C$9:$AC$9))</f>
+        <v>550.25</v>
+      </c>
+      <c r="AE16" s="72">
+        <f>IF(SUM(C16:AC16)=0,"",$AE$9+AD16/(SUMIF(C16:AC16,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C16:AC16,"=E",$C$9:$AC$9)))</f>
+        <v>0.9653508771929824</v>
+      </c>
+      <c r="AF16" s="73" t="str">
+        <f>IF(AE16="","",INDEX(Grades!$B$12:$B$24,MATCH(AE16,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AG16" s="82" t="s">
+      <c r="AH16" s="82" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
@@ -3062,7 +3110,9 @@
       <c r="H17" s="77">
         <v>1</v>
       </c>
-      <c r="I17" s="77"/>
+      <c r="I17" s="77">
+        <v>1</v>
+      </c>
       <c r="J17" s="77"/>
       <c r="K17" s="77"/>
       <c r="L17" s="77"/>
@@ -3075,40 +3125,45 @@
         <v>0.95</v>
       </c>
       <c r="S17" s="77">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="T17" s="77">
         <v>1</v>
       </c>
-      <c r="U17" s="77" t="s">
+      <c r="U17" s="77">
+        <v>1</v>
+      </c>
+      <c r="V17" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="V17" s="77"/>
       <c r="W17" s="77"/>
-      <c r="X17" s="77">
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77">
         <v>0.94</v>
       </c>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="77"/>
+      <c r="Z17" s="77">
+        <v>0.94</v>
+      </c>
       <c r="AA17" s="77"/>
       <c r="AB17" s="77"/>
-      <c r="AC17" s="71">
-        <f>IF(SUM(C17:AB17)=0,"",SUMPRODUCT(C17:AB17,$C$9:$AB$9))</f>
-        <v>348.5</v>
-      </c>
-      <c r="AD17" s="72">
-        <f>IF(SUM(C17:AB17)=0,"",$AD$9+AC17/(SUMIF(C17:AB17,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C17:AB17,"=E",$C$9:$AB$9)))</f>
-        <v>0.96805555555555556</v>
-      </c>
-      <c r="AE17" s="73" t="str">
-        <f>IF(AD17="","",INDEX(Grades!$B$12:$B$24,MATCH(AD17,Grades!$A$12:$A$24,1)))</f>
-        <v>A+</v>
-      </c>
-      <c r="AG17" s="82" t="s">
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="71">
+        <f>IF(SUM(C17:AC17)=0,"",SUMPRODUCT(C17:AC17,$C$9:$AC$9))</f>
+        <v>547</v>
+      </c>
+      <c r="AE17" s="72">
+        <f>IF(SUM(C17:AC17)=0,"",$AE$9+AD17/(SUMIF(C17:AC17,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C17:AC17,"=E",$C$9:$AC$9)))</f>
+        <v>0.95964912280701753</v>
+      </c>
+      <c r="AF17" s="73" t="str">
+        <f>IF(AE17="","",INDEX(Grades!$B$12:$B$24,MATCH(AE17,Grades!$A$12:$A$24,1)))</f>
+        <v>A</v>
+      </c>
+      <c r="AH17" s="82" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
@@ -3135,7 +3190,9 @@
       <c r="H18" s="77">
         <v>1</v>
       </c>
-      <c r="I18" s="77"/>
+      <c r="I18" s="77">
+        <v>1</v>
+      </c>
       <c r="J18" s="77"/>
       <c r="K18" s="77"/>
       <c r="L18" s="77"/>
@@ -3148,40 +3205,45 @@
         <v>1</v>
       </c>
       <c r="S18" s="77">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="T18" s="77">
+        <v>1</v>
+      </c>
+      <c r="U18" s="77">
         <v>0.85</v>
       </c>
-      <c r="U18" s="77" t="s">
+      <c r="V18" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="V18" s="77"/>
       <c r="W18" s="77"/>
-      <c r="X18" s="77">
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77">
         <v>0.96</v>
       </c>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
+      <c r="Z18" s="77">
+        <v>0.96499999999999997</v>
+      </c>
       <c r="AA18" s="77"/>
       <c r="AB18" s="77"/>
-      <c r="AC18" s="71">
-        <f>IF(SUM(C18:AB18)=0,"",SUMPRODUCT(C18:AB18,$C$9:$AB$9))</f>
-        <v>346.5</v>
-      </c>
-      <c r="AD18" s="72">
-        <f>IF(SUM(C18:AB18)=0,"",$AD$9+AC18/(SUMIF(C18:AB18,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C18:AB18,"=E",$C$9:$AB$9)))</f>
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="AE18" s="73" t="str">
-        <f>IF(AD18="","",INDEX(Grades!$B$12:$B$24,MATCH(AD18,Grades!$A$12:$A$24,1)))</f>
-        <v>A+</v>
-      </c>
-      <c r="AG18" s="82" t="s">
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="71">
+        <f>IF(SUM(C18:AC18)=0,"",SUMPRODUCT(C18:AC18,$C$9:$AC$9))</f>
+        <v>546.75</v>
+      </c>
+      <c r="AE18" s="72">
+        <f>IF(SUM(C18:AC18)=0,"",$AE$9+AD18/(SUMIF(C18:AC18,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C18:AC18,"=E",$C$9:$AC$9)))</f>
+        <v>0.95921052631578951</v>
+      </c>
+      <c r="AF18" s="73" t="str">
+        <f>IF(AE18="","",INDEX(Grades!$B$12:$B$24,MATCH(AE18,Grades!$A$12:$A$24,1)))</f>
+        <v>A</v>
+      </c>
+      <c r="AH18" s="82" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
@@ -3208,7 +3270,9 @@
       <c r="H19" s="77">
         <v>1</v>
       </c>
-      <c r="I19" s="77"/>
+      <c r="I19" s="77">
+        <v>1</v>
+      </c>
       <c r="J19" s="77"/>
       <c r="K19" s="77"/>
       <c r="L19" s="77"/>
@@ -3221,40 +3285,45 @@
         <v>1</v>
       </c>
       <c r="S19" s="77">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="T19" s="77">
         <v>1</v>
       </c>
-      <c r="U19" s="77" t="s">
+      <c r="U19" s="77">
+        <v>1</v>
+      </c>
+      <c r="V19" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="V19" s="77"/>
       <c r="W19" s="77"/>
-      <c r="X19" s="77">
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77">
         <v>0.99</v>
       </c>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
+      <c r="Z19" s="77">
+        <v>0.94</v>
+      </c>
       <c r="AA19" s="77"/>
       <c r="AB19" s="77"/>
-      <c r="AC19" s="71">
-        <f>IF(SUM(C19:AB19)=0,"",SUMPRODUCT(C19:AB19,$C$9:$AB$9))</f>
-        <v>358.5</v>
-      </c>
-      <c r="AD19" s="72">
-        <f>IF(SUM(C19:AB19)=0,"",$AD$9+AC19/(SUMIF(C19:AB19,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C19:AB19,"=E",$C$9:$AB$9)))</f>
-        <v>0.99583333333333335</v>
-      </c>
-      <c r="AE19" s="73" t="str">
-        <f>IF(AD19="","",INDEX(Grades!$B$12:$B$24,MATCH(AD19,Grades!$A$12:$A$24,1)))</f>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="71">
+        <f>IF(SUM(C19:AC19)=0,"",SUMPRODUCT(C19:AC19,$C$9:$AC$9))</f>
+        <v>557</v>
+      </c>
+      <c r="AE19" s="72">
+        <f>IF(SUM(C19:AC19)=0,"",$AE$9+AD19/(SUMIF(C19:AC19,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C19:AC19,"=E",$C$9:$AC$9)))</f>
+        <v>0.97719298245614039</v>
+      </c>
+      <c r="AF19" s="73" t="str">
+        <f>IF(AE19="","",INDEX(Grades!$B$12:$B$24,MATCH(AE19,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AG19" s="82" t="s">
+      <c r="AH19" s="82" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
@@ -3281,7 +3350,9 @@
       <c r="H20" s="77">
         <v>0.85</v>
       </c>
-      <c r="I20" s="77"/>
+      <c r="I20" s="77">
+        <v>1</v>
+      </c>
       <c r="J20" s="77"/>
       <c r="K20" s="77"/>
       <c r="L20" s="77"/>
@@ -3294,40 +3365,45 @@
         <v>1</v>
       </c>
       <c r="S20" s="77">
-        <v>1</v>
+        <v>0.41</v>
       </c>
       <c r="T20" s="77">
+        <v>1</v>
+      </c>
+      <c r="U20" s="77">
         <v>0.85</v>
       </c>
-      <c r="U20" s="77" t="s">
+      <c r="V20" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="V20" s="77"/>
       <c r="W20" s="77"/>
-      <c r="X20" s="77">
+      <c r="X20" s="77"/>
+      <c r="Y20" s="77">
         <v>0.97</v>
       </c>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="77"/>
+      <c r="Z20" s="77">
+        <v>0.85</v>
+      </c>
       <c r="AA20" s="77"/>
       <c r="AB20" s="77"/>
-      <c r="AC20" s="71">
-        <f>IF(SUM(C20:AB20)=0,"",SUMPRODUCT(C20:AB20,$C$9:$AB$9))</f>
-        <v>346.5</v>
-      </c>
-      <c r="AD20" s="72">
-        <f>IF(SUM(C20:AB20)=0,"",$AD$9+AC20/(SUMIF(C20:AB20,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C20:AB20,"=E",$C$9:$AB$9)))</f>
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="AE20" s="73" t="str">
-        <f>IF(AD20="","",INDEX(Grades!$B$12:$B$24,MATCH(AD20,Grades!$A$12:$A$24,1)))</f>
-        <v>A+</v>
-      </c>
-      <c r="AG20" s="82" t="s">
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="71">
+        <f>IF(SUM(C20:AC20)=0,"",SUMPRODUCT(C20:AC20,$C$9:$AC$9))</f>
+        <v>504.5</v>
+      </c>
+      <c r="AE20" s="72">
+        <f>IF(SUM(C20:AC20)=0,"",$AE$9+AD20/(SUMIF(C20:AC20,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C20:AC20,"=E",$C$9:$AC$9)))</f>
+        <v>0.88508771929824559</v>
+      </c>
+      <c r="AF20" s="73" t="str">
+        <f>IF(AE20="","",INDEX(Grades!$B$12:$B$24,MATCH(AE20,Grades!$A$12:$A$24,1)))</f>
+        <v>B+</v>
+      </c>
+      <c r="AH20" s="82" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
@@ -3354,7 +3430,9 @@
       <c r="H21" s="77">
         <v>1</v>
       </c>
-      <c r="I21" s="77"/>
+      <c r="I21" s="77">
+        <v>1</v>
+      </c>
       <c r="J21" s="77"/>
       <c r="K21" s="77"/>
       <c r="L21" s="77"/>
@@ -3367,38 +3445,43 @@
         <v>1</v>
       </c>
       <c r="S21" s="77">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="T21" s="77">
         <v>1</v>
       </c>
-      <c r="U21" s="77" t="s">
+      <c r="U21" s="77">
+        <v>1</v>
+      </c>
+      <c r="V21" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="V21" s="77"/>
       <c r="W21" s="77"/>
-      <c r="X21" s="77">
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77">
         <v>1.02</v>
       </c>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="77"/>
+      <c r="Z21" s="77">
+        <v>0.97</v>
+      </c>
       <c r="AA21" s="77"/>
       <c r="AB21" s="77"/>
-      <c r="AC21" s="71">
-        <f>IF(SUM(C21:AB21)=0,"",SUMPRODUCT(C21:AB21,$C$9:$AB$9))</f>
-        <v>363</v>
-      </c>
-      <c r="AD21" s="72">
-        <f>IF(SUM(C21:AB21)=0,"",$AD$9+AC21/(SUMIF(C21:AB21,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C21:AB21,"=E",$C$9:$AB$9)))</f>
-        <v>1.0083333333333333</v>
-      </c>
-      <c r="AE21" s="73" t="str">
-        <f>IF(AD21="","",INDEX(Grades!$B$12:$B$24,MATCH(AD21,Grades!$A$12:$A$24,1)))</f>
+      <c r="AC21" s="77"/>
+      <c r="AD21" s="71">
+        <f>IF(SUM(C21:AC21)=0,"",SUMPRODUCT(C21:AC21,$C$9:$AC$9))</f>
+        <v>560</v>
+      </c>
+      <c r="AE21" s="72">
+        <f>IF(SUM(C21:AC21)=0,"",$AE$9+AD21/(SUMIF(C21:AC21,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C21:AC21,"=E",$C$9:$AC$9)))</f>
+        <v>0.98245614035087714</v>
+      </c>
+      <c r="AF21" s="73" t="str">
+        <f>IF(AE21="","",INDEX(Grades!$B$12:$B$24,MATCH(AE21,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AG21" s="82"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AH21" s="82"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
@@ -3425,7 +3508,9 @@
       <c r="H22" s="77">
         <v>1</v>
       </c>
-      <c r="I22" s="77"/>
+      <c r="I22" s="77">
+        <v>1</v>
+      </c>
       <c r="J22" s="77"/>
       <c r="K22" s="77"/>
       <c r="L22" s="77"/>
@@ -3438,43 +3523,48 @@
         <v>0.95</v>
       </c>
       <c r="S22" s="77">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="T22" s="77">
         <v>1</v>
       </c>
-      <c r="U22" s="77" t="s">
+      <c r="U22" s="77">
+        <v>1</v>
+      </c>
+      <c r="V22" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="V22" s="77"/>
       <c r="W22" s="77"/>
-      <c r="X22" s="77">
+      <c r="X22" s="77"/>
+      <c r="Y22" s="77">
         <v>0.69</v>
       </c>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="77"/>
+      <c r="Z22" s="77">
+        <v>0.85499999999999998</v>
+      </c>
       <c r="AA22" s="77"/>
       <c r="AB22" s="77"/>
-      <c r="AC22" s="71">
-        <f>IF(SUM(C22:AB22)=0,"",SUMPRODUCT(C22:AB22,$C$9:$AB$9))</f>
-        <v>309.5</v>
-      </c>
-      <c r="AD22" s="72">
-        <f>IF(SUM(C22:AB22)=0,"",$AD$9+AC22/(SUMIF(C22:AB22,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C22:AB22,"=E",$C$9:$AB$9)))</f>
-        <v>0.85972222222222228</v>
-      </c>
-      <c r="AE22" s="73" t="str">
-        <f>IF(AD22="","",INDEX(Grades!$B$12:$B$24,MATCH(AD22,Grades!$A$12:$A$24,1)))</f>
-        <v>B</v>
-      </c>
-      <c r="AG22" s="84" t="s">
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="71">
+        <f>IF(SUM(C22:AC22)=0,"",SUMPRODUCT(C22:AC22,$C$9:$AC$9))</f>
+        <v>491.5</v>
+      </c>
+      <c r="AE22" s="72">
+        <f>IF(SUM(C22:AC22)=0,"",$AE$9+AD22/(SUMIF(C22:AC22,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C22:AC22,"=E",$C$9:$AC$9)))</f>
+        <v>0.86228070175438598</v>
+      </c>
+      <c r="AF22" s="73" t="str">
+        <f>IF(AE22="","",INDEX(Grades!$B$12:$B$24,MATCH(AE22,Grades!$A$12:$A$24,1)))</f>
+        <v>B+</v>
+      </c>
+      <c r="AH22" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="AH22" s="85" t="s">
+      <c r="AI22" s="85" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
@@ -3501,7 +3591,9 @@
       <c r="H23" s="77">
         <v>1</v>
       </c>
-      <c r="I23" s="77"/>
+      <c r="I23" s="77">
+        <v>1</v>
+      </c>
       <c r="J23" s="77"/>
       <c r="K23" s="77"/>
       <c r="L23" s="77"/>
@@ -3514,37 +3606,42 @@
         <v>1</v>
       </c>
       <c r="S23" s="77">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="T23" s="77">
         <v>1</v>
       </c>
-      <c r="U23" s="77" t="s">
+      <c r="U23" s="77">
+        <v>1</v>
+      </c>
+      <c r="V23" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="V23" s="77"/>
       <c r="W23" s="77"/>
-      <c r="X23" s="77">
+      <c r="X23" s="77"/>
+      <c r="Y23" s="77">
         <v>1.01</v>
       </c>
-      <c r="Y23" s="77"/>
-      <c r="Z23" s="77"/>
+      <c r="Z23" s="77">
+        <v>0.98499999999999999</v>
+      </c>
       <c r="AA23" s="77"/>
       <c r="AB23" s="77"/>
-      <c r="AC23" s="71">
-        <f>IF(SUM(C23:AB23)=0,"",SUMPRODUCT(C23:AB23,$C$9:$AB$9))</f>
-        <v>361.5</v>
-      </c>
-      <c r="AD23" s="72">
-        <f>IF(SUM(C23:AB23)=0,"",$AD$9+AC23/(SUMIF(C23:AB23,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C23:AB23,"=E",$C$9:$AB$9)))</f>
-        <v>1.0041666666666667</v>
-      </c>
-      <c r="AE23" s="73" t="str">
-        <f>IF(AD23="","",INDEX(Grades!$B$12:$B$24,MATCH(AD23,Grades!$A$12:$A$24,1)))</f>
+      <c r="AC23" s="77"/>
+      <c r="AD23" s="71">
+        <f>IF(SUM(C23:AC23)=0,"",SUMPRODUCT(C23:AC23,$C$9:$AC$9))</f>
+        <v>560.75</v>
+      </c>
+      <c r="AE23" s="72">
+        <f>IF(SUM(C23:AC23)=0,"",$AE$9+AD23/(SUMIF(C23:AC23,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C23:AC23,"=E",$C$9:$AC$9)))</f>
+        <v>0.98377192982456141</v>
+      </c>
+      <c r="AF23" s="73" t="str">
+        <f>IF(AE23="","",INDEX(Grades!$B$12:$B$24,MATCH(AE23,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>13</v>
@@ -3571,7 +3668,9 @@
       <c r="H24" s="77">
         <v>1</v>
       </c>
-      <c r="I24" s="77"/>
+      <c r="I24" s="77">
+        <v>1</v>
+      </c>
       <c r="J24" s="77"/>
       <c r="K24" s="77"/>
       <c r="L24" s="77"/>
@@ -3589,39 +3688,44 @@
       <c r="T24" s="77">
         <v>1</v>
       </c>
-      <c r="U24" s="77" t="s">
+      <c r="U24" s="77">
+        <v>1</v>
+      </c>
+      <c r="V24" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="V24" s="77"/>
       <c r="W24" s="77"/>
-      <c r="X24" s="77">
+      <c r="X24" s="77"/>
+      <c r="Y24" s="77">
         <v>1.03</v>
       </c>
-      <c r="Y24" s="77"/>
-      <c r="Z24" s="77"/>
+      <c r="Z24" s="77">
+        <v>1.01</v>
+      </c>
       <c r="AA24" s="77"/>
       <c r="AB24" s="77"/>
-      <c r="AC24" s="71">
-        <f>IF(SUM(C24:AB24)=0,"",SUMPRODUCT(C24:AB24,$C$9:$AB$9))</f>
-        <v>364.5</v>
-      </c>
-      <c r="AD24" s="72">
-        <f>IF(SUM(C24:AB24)=0,"",$AD$9+AC24/(SUMIF(C24:AB24,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C24:AB24,"=E",$C$9:$AB$9)))</f>
-        <v>1.0125</v>
-      </c>
-      <c r="AE24" s="73" t="str">
-        <f>IF(AD24="","",INDEX(Grades!$B$12:$B$24,MATCH(AD24,Grades!$A$12:$A$24,1)))</f>
+      <c r="AC24" s="77"/>
+      <c r="AD24" s="71">
+        <f>IF(SUM(C24:AC24)=0,"",SUMPRODUCT(C24:AC24,$C$9:$AC$9))</f>
+        <v>576</v>
+      </c>
+      <c r="AE24" s="72">
+        <f>IF(SUM(C24:AC24)=0,"",$AE$9+AD24/(SUMIF(C24:AC24,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C24:AC24,"=E",$C$9:$AC$9)))</f>
+        <v>1.0105263157894737</v>
+      </c>
+      <c r="AF24" s="73" t="str">
+        <f>IF(AE24="","",INDEX(Grades!$B$12:$B$24,MATCH(AE24,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AG24" s="86" t="s">
+      <c r="AH24" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="AH24" s="87" t="b">
-        <f>AH22="Yes"</f>
+      <c r="AI24" s="87" t="b">
+        <f>AI22="Yes"</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A25" s="31" t="s">
         <v>65</v>
       </c>
@@ -3652,23 +3756,24 @@
       <c r="Z25" s="75"/>
       <c r="AA25" s="75"/>
       <c r="AB25" s="75"/>
-      <c r="AC25" s="71" t="str">
-        <f>IF(SUM(C25:AB25)=0,"",SUMPRODUCT(C25:AB25,$C$9:$AB$9))</f>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="71" t="str">
+        <f>IF(SUM(C25:AC25)=0,"",SUMPRODUCT(C25:AC25,$C$9:$AC$9))</f>
         <v/>
       </c>
-      <c r="AD25" s="72" t="str">
-        <f>IF(SUM(C25:AB25)=0,"",$AD$9+AC25/(SUMIF(C25:AB25,"&lt;&gt;",$C$9:$AB$9)-SUMIF(C25:AB25,"=E",$C$9:$AB$9)))</f>
+      <c r="AE25" s="72" t="str">
+        <f>IF(SUM(C25:AC25)=0,"",$AE$9+AD25/(SUMIF(C25:AC25,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C25:AC25,"=E",$C$9:$AC$9)))</f>
         <v/>
       </c>
-      <c r="AE25" s="73" t="str">
-        <f>IF(AD25="","",INDEX(Grades!$B$12:$B$24,MATCH(AD25,Grades!$A$12:$A$24,1)))</f>
+      <c r="AF25" s="73" t="str">
+        <f>IF(AE25="","",INDEX(Grades!$B$12:$B$24,MATCH(AE25,Grades!$A$12:$A$24,1)))</f>
         <v/>
       </c>
-      <c r="AG25" s="82" t="s">
+      <c r="AH25" s="82" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B26" s="69" t="s">
         <v>4</v>
       </c>
@@ -3696,9 +3801,9 @@
         <f t="shared" si="1"/>
         <v>0.98846153846153839</v>
       </c>
-      <c r="I26" s="70" t="str">
+      <c r="I26" s="70">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.98846153846153839</v>
       </c>
       <c r="J26" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3717,26 +3822,29 @@
         <f>IF(SUM(Q12:Q25)=0,"",AVERAGE(Q12:Q25))</f>
         <v/>
       </c>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
+      <c r="R26" s="70">
+        <f>IF(SUM(R12:R25)=0,"",AVERAGE(R12:R25))</f>
+        <v>0.98076923076923073</v>
+      </c>
+      <c r="S26" s="70">
+        <f>IF(SUM(S12:S25)=0,"",AVERAGE(S12:S25))</f>
+        <v>0.81346153846153857</v>
+      </c>
       <c r="T26" s="70"/>
       <c r="U26" s="70"/>
       <c r="V26" s="70"/>
-      <c r="W26" s="70" t="str">
-        <f t="shared" ref="W26:AB26" si="2">IF(SUM(W12:W25)=0,"",AVERAGE(W12:W25))</f>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70" t="str">
+        <f t="shared" ref="X26:AC26" si="2">IF(SUM(X12:X25)=0,"",AVERAGE(X12:X25))</f>
         <v/>
       </c>
-      <c r="X26" s="70">
+      <c r="Y26" s="70">
         <f t="shared" si="2"/>
         <v>0.95653846153846145</v>
       </c>
-      <c r="Y26" s="70" t="str">
+      <c r="Z26" s="70">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Z26" s="70" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>0.91423076923076918</v>
       </c>
       <c r="AA26" s="70" t="str">
         <f t="shared" si="2"/>
@@ -3746,19 +3854,23 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AC26" s="19" t="s">
+      <c r="AC26" s="70" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD26" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AD26" s="67">
-        <f>AVERAGE(AD12:AD25)</f>
-        <v>0.96178620928620928</v>
-      </c>
-      <c r="AE26" s="68" t="str">
-        <f>IF(AD26="","",INDEX(Grades!$B$12:$B$24,MATCH(AD26,Grades!$A$12:$A$24,1)))</f>
-        <v>A+</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AE26" s="67">
+        <f>AVERAGE(AE12:AE25)</f>
+        <v>0.93786630036630036</v>
+      </c>
+      <c r="AF26" s="68" t="str">
+        <f>IF(AE26="","",INDEX(Grades!$B$12:$B$24,MATCH(AE26,Grades!$A$12:$A$24,1)))</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B27" s="69" t="s">
         <v>49</v>
       </c>
@@ -3786,9 +3898,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I27" s="70" t="str">
+      <c r="I27" s="70">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J27" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3807,81 +3919,88 @@
         <f>IF(OR(Q9=0,Q26=""),"",MEDIAN(Q12:Q25))</f>
         <v/>
       </c>
-      <c r="R27" s="70"/>
-      <c r="S27" s="70"/>
+      <c r="R27" s="70">
+        <f t="shared" ref="R27:S27" si="4">IF(OR(R9=0,R26=""),"",MEDIAN(R12:R25))</f>
+        <v>1</v>
+      </c>
+      <c r="S27" s="70">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
       <c r="T27" s="70"/>
       <c r="U27" s="70"/>
       <c r="V27" s="70"/>
-      <c r="W27" s="70" t="str">
-        <f t="shared" ref="W27:AB27" si="4">IF(OR(W9=0,W26=""),"",MEDIAN(W12:W25))</f>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70" t="str">
+        <f t="shared" ref="X27:AC27" si="5">IF(OR(X9=0,X26=""),"",MEDIAN(X12:X25))</f>
         <v/>
       </c>
-      <c r="X27" s="70">
-        <f t="shared" si="4"/>
+      <c r="Y27" s="70">
+        <f t="shared" si="5"/>
         <v>0.97499999999999998</v>
       </c>
-      <c r="Y27" s="70" t="str">
-        <f t="shared" si="4"/>
+      <c r="Z27" s="70">
+        <f t="shared" si="5"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="AA27" s="70" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Z27" s="70" t="str">
-        <f t="shared" si="4"/>
+      <c r="AB27" s="70" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AA27" s="70" t="str">
-        <f t="shared" si="4"/>
+      <c r="AC27" s="70" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AB27" s="70" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC27" s="19" t="s">
+      <c r="AD27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AD27" s="67">
-        <f>MEDIAN(AD12:AD25)</f>
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AE27" s="67">
+        <f>MEDIAN(AE12:AE25)</f>
+        <v>0.9653508771929824</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B28" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="70">
-        <f t="shared" ref="C28:K28" si="5">IF(OR(C9=0,C26=""),"",STDEV(C12:C25))</f>
+        <f t="shared" ref="C28:K28" si="6">IF(OR(C9=0,C26=""),"",STDEV(C12:C25))</f>
         <v>0</v>
       </c>
       <c r="D28" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3867504905630743E-2</v>
       </c>
       <c r="E28" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F28" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.6330071214910814E-2</v>
       </c>
       <c r="G28" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.3205029433784355E-2</v>
       </c>
       <c r="H28" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.1602514716892199E-2</v>
       </c>
-      <c r="I28" s="70" t="str">
-        <f t="shared" si="5"/>
+      <c r="I28" s="70">
+        <f t="shared" si="6"/>
+        <v>4.1602514716892199E-2</v>
+      </c>
+      <c r="J28" s="70" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J28" s="70" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="K28" s="70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L28" s="70"/>
@@ -3893,55 +4012,62 @@
         <f>IF(OR(Q9=0,Q26=""),"",STDEV(Q12:Q25))</f>
         <v/>
       </c>
-      <c r="R28" s="70"/>
-      <c r="S28" s="70"/>
+      <c r="R28" s="70">
+        <f t="shared" ref="R28:S28" si="7">IF(OR(R9=0,R26=""),"",STDEV(R12:R25))</f>
+        <v>2.5318484177091691E-2</v>
+      </c>
+      <c r="S28" s="70">
+        <f t="shared" si="7"/>
+        <v>0.22558613114307899</v>
+      </c>
       <c r="T28" s="70"/>
       <c r="U28" s="70"/>
       <c r="V28" s="70"/>
-      <c r="W28" s="70" t="str">
-        <f t="shared" ref="W28:AB28" si="6">IF(OR(W9=0,W26=""),"",STDEV(W12:W25))</f>
+      <c r="W28" s="70"/>
+      <c r="X28" s="70" t="str">
+        <f t="shared" ref="X28:AC28" si="8">IF(OR(X9=0,X26=""),"",STDEV(X12:X25))</f>
         <v/>
       </c>
-      <c r="X28" s="70">
-        <f t="shared" si="6"/>
+      <c r="Y28" s="70">
+        <f t="shared" si="8"/>
         <v>8.6851996124264363E-2</v>
       </c>
-      <c r="Y28" s="70" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z28" s="70">
+        <f t="shared" si="8"/>
+        <v>0.13245826628675214</v>
+      </c>
+      <c r="AA28" s="70" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Z28" s="70" t="str">
-        <f t="shared" si="6"/>
+      <c r="AB28" s="70" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AA28" s="70" t="str">
-        <f t="shared" si="6"/>
+      <c r="AC28" s="70" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AB28" s="70" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC28" s="19" t="s">
+      <c r="AD28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AD28" s="67">
-        <f>STDEV(AD12:AD25)</f>
-        <v>5.630684219060459E-2</v>
-      </c>
-      <c r="AE28" s="31" t="s">
+      <c r="AE28" s="67">
+        <f>STDEV(AE12:AE25)</f>
+        <v>6.81997173486657E-2</v>
+      </c>
+      <c r="AF28" s="31" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI22">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AG3" r:id="rId1"/>
+    <hyperlink ref="AH3" r:id="rId1"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -4979,7 +5105,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A12)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A12,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A12)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A12,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D12" s="16">
@@ -4995,7 +5121,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A13)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A13,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A13)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A13,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D13" s="16">
@@ -5012,7 +5138,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A14)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A14,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A14)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A14,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D14" s="16">
@@ -5029,7 +5155,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A15)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A15,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A15)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A15,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D15" s="16">
@@ -5045,7 +5171,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A16)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A16,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A16)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A16,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D16" s="16">
@@ -5065,7 +5191,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A17)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A17,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A17)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A17,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D17" s="16">
@@ -5082,12 +5208,12 @@
         <v>13</v>
       </c>
       <c r="C18" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A18)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A18,1,0,1,1))</f>
-        <v>0</v>
+        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A18)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A18,1,0,1,1))</f>
+        <v>1</v>
       </c>
       <c r="D18" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -5098,12 +5224,12 @@
         <v>12</v>
       </c>
       <c r="C19" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A19)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A19,1,0,1,1))</f>
-        <v>1</v>
+        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A19)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A19,1,0,1,1))</f>
+        <v>0</v>
       </c>
       <c r="D19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -5115,12 +5241,12 @@
         <v>10</v>
       </c>
       <c r="C20" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A20)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A20,1,0,1,1))</f>
-        <v>1</v>
+        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A20)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A20,1,0,1,1))</f>
+        <v>0</v>
       </c>
       <c r="D20" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -5132,12 +5258,12 @@
         <v>9</v>
       </c>
       <c r="C21" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A21)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A21,1,0,1,1))</f>
-        <v>0</v>
+        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A21)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A21,1,0,1,1))</f>
+        <v>3</v>
       </c>
       <c r="D21" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -5148,7 +5274,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A22)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A22,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A22)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A22,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D22" s="16">
@@ -5165,12 +5291,12 @@
         <v>7</v>
       </c>
       <c r="C23" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A23)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A23,1,0,1,1))</f>
-        <v>1</v>
+        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A23)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A23,1,0,1,1))</f>
+        <v>2</v>
       </c>
       <c r="D23" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -5182,12 +5308,12 @@
         <v>6</v>
       </c>
       <c r="C24" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;A24)-COUNTIF(Gradebook!$AD$12:$AD$25,"&gt;="&amp;OFFSET(A24,1,0,1,1))</f>
-        <v>10</v>
+        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A24)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A24,1,0,1,1))</f>
+        <v>7</v>
       </c>
       <c r="D24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76923076923076927</v>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -5209,12 +5335,12 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54">
-        <f>Gradebook!$AD$26</f>
-        <v>0.96178620928620928</v>
+        <f>Gradebook!$AE$26</f>
+        <v>0.93786630036630036</v>
       </c>
       <c r="B28" s="55" t="str">
         <f>INDEX(B12:B24,MATCH(A28,A12:A24,1))</f>
-        <v>A+</v>
+        <v>A</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5222,8 +5348,8 @@
         <v>49</v>
       </c>
       <c r="B30" s="54">
-        <f>Gradebook!AD27</f>
-        <v>0.97</v>
+        <f>Gradebook!AE27</f>
+        <v>0.9653508771929824</v>
       </c>
       <c r="C30" s="63" t="s">
         <v>56</v>
@@ -5234,8 +5360,8 @@
         <v>50</v>
       </c>
       <c r="B31" s="54">
-        <f>Gradebook!AD28</f>
-        <v>5.630684219060459E-2</v>
+        <f>Gradebook!AE28</f>
+        <v>6.81997173486657E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5435,8 +5561,8 @@
         <v>0.9</v>
       </c>
       <c r="B53" s="27">
-        <f>PERCENTILE(Gradebook!$AD$12:$AD$25,A53)</f>
-        <v>1.0075000000000001</v>
+        <f>PERCENTILE(Gradebook!$AE$12:$AE$25,A53)</f>
+        <v>0.98389724310776938</v>
       </c>
       <c r="C53" s="63" t="s">
         <v>62</v>
@@ -5449,8 +5575,8 @@
         <v>0.65</v>
       </c>
       <c r="B54" s="27">
-        <f>PERCENTILE(Gradebook!$AD$12:$AD$25,A54)</f>
-        <v>0.99458333333333337</v>
+        <f>PERCENTILE(Gradebook!$AE$12:$AE$25,A54)</f>
+        <v>0.97596491228070181</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
@@ -5460,8 +5586,8 @@
         <v>0.35</v>
       </c>
       <c r="B55" s="27">
-        <f>PERCENTILE(Gradebook!$AD$12:$AD$25,A55)</f>
-        <v>0.96361111111111108</v>
+        <f>PERCENTILE(Gradebook!$AE$12:$AE$25,A55)</f>
+        <v>0.95929824561403509</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -5471,8 +5597,8 @@
         <v>0.1</v>
       </c>
       <c r="B56" s="27">
-        <f>PERCENTILE(Gradebook!$AD$12:$AD$25,A56)</f>
-        <v>0.87680555555555562</v>
+        <f>PERCENTILE(Gradebook!$AE$12:$AE$25,A56)</f>
+        <v>0.86631578947368426</v>
       </c>
     </row>
   </sheetData>

--- a/libraries/assets/grades/gradebook_percentage.xlsx
+++ b/libraries/assets/grades/gradebook_percentage.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1480,10 +1480,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1498,11 +1498,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2102099104"/>
-        <c:axId val="-2102095808"/>
+        <c:axId val="2141797568"/>
+        <c:axId val="2141789008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102099104"/>
+        <c:axId val="2141797568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,10 +1534,10 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102095808"/>
+        <c:crossAx val="2141789008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1547,7 +1547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102095808"/>
+        <c:axId val="2141789008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,10 +1618,10 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102099104"/>
+        <c:crossAx val="2141797568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1658,7 +1658,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1693,7 +1693,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1098"/>
+                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1101"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2242,7 +2242,7 @@
   <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2713,8 +2713,12 @@
       <c r="I12" s="77">
         <v>1</v>
       </c>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
+      <c r="J12" s="77">
+        <v>1</v>
+      </c>
+      <c r="K12" s="77">
+        <v>1</v>
+      </c>
       <c r="L12" s="77"/>
       <c r="M12" s="77"/>
       <c r="N12" s="77"/>
@@ -2748,12 +2752,12 @@
       <c r="AB12" s="77"/>
       <c r="AC12" s="77"/>
       <c r="AD12" s="71">
-        <f>IF(SUM(C12:AC12)=0,"",SUMPRODUCT(C12:AC12,$C$9:$AC$9))</f>
-        <v>553.5</v>
+        <f t="shared" ref="AD12:AD25" si="0">IF(SUM(C12:AC12)=0,"",SUMPRODUCT(C12:AC12,$C$9:$AC$9))</f>
+        <v>573.5</v>
       </c>
       <c r="AE12" s="72">
-        <f>IF(SUM(C12:AC12)=0,"",$AE$9+AD12/(SUMIF(C12:AC12,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C12:AC12,"=E",$C$9:$AC$9)))</f>
-        <v>0.97105263157894739</v>
+        <f t="shared" ref="AE12:AE25" si="1">IF(SUM(C12:AC12)=0,"",$AE$9+AD12/(SUMIF(C12:AC12,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C12:AC12,"=E",$C$9:$AC$9)))</f>
+        <v>0.9720338983050848</v>
       </c>
       <c r="AF12" s="73" t="str">
         <f>IF(AE12="","",INDEX(Grades!$B$12:$B$24,MATCH(AE12,Grades!$A$12:$A$24,1)))</f>
@@ -2765,7 +2769,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
-        <f t="shared" ref="A13:A24" ca="1" si="0">OFFSET(A13,-1,0,1,1)+1</f>
+        <f t="shared" ref="A13:A24" ca="1" si="2">OFFSET(A13,-1,0,1,1)+1</f>
         <v>2</v>
       </c>
       <c r="B13" s="76" t="str">
@@ -2793,8 +2797,12 @@
       <c r="I13" s="77">
         <v>1</v>
       </c>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
+      <c r="J13" s="77">
+        <v>1</v>
+      </c>
+      <c r="K13" s="77">
+        <v>1</v>
+      </c>
       <c r="L13" s="77"/>
       <c r="M13" s="77"/>
       <c r="N13" s="77"/>
@@ -2828,12 +2836,12 @@
       <c r="AB13" s="77"/>
       <c r="AC13" s="77"/>
       <c r="AD13" s="71">
-        <f>IF(SUM(C13:AC13)=0,"",SUMPRODUCT(C13:AC13,$C$9:$AC$9))</f>
-        <v>438.5</v>
+        <f t="shared" si="0"/>
+        <v>458.5</v>
       </c>
       <c r="AE13" s="72">
-        <f>IF(SUM(C13:AC13)=0,"",$AE$9+AD13/(SUMIF(C13:AC13,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C13:AC13,"=E",$C$9:$AC$9)))</f>
-        <v>0.76929824561403504</v>
+        <f t="shared" si="1"/>
+        <v>0.77711864406779663</v>
       </c>
       <c r="AF13" s="73" t="str">
         <f>IF(AE13="","",INDEX(Grades!$B$12:$B$24,MATCH(AE13,Grades!$A$12:$A$24,1)))</f>
@@ -2845,7 +2853,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="B14" s="76" t="str">
@@ -2873,8 +2881,12 @@
       <c r="I14" s="77">
         <v>1</v>
       </c>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
+      <c r="J14" s="77">
+        <v>1</v>
+      </c>
+      <c r="K14" s="77">
+        <v>1</v>
+      </c>
       <c r="L14" s="77"/>
       <c r="M14" s="77"/>
       <c r="N14" s="77"/>
@@ -2908,12 +2920,12 @@
       <c r="AB14" s="77"/>
       <c r="AC14" s="77"/>
       <c r="AD14" s="71">
-        <f>IF(SUM(C14:AC14)=0,"",SUMPRODUCT(C14:AC14,$C$9:$AC$9))</f>
-        <v>551</v>
+        <f t="shared" si="0"/>
+        <v>571</v>
       </c>
       <c r="AE14" s="72">
-        <f>IF(SUM(C14:AC14)=0,"",$AE$9+AD14/(SUMIF(C14:AC14,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C14:AC14,"=E",$C$9:$AC$9)))</f>
-        <v>0.98392857142857137</v>
+        <f t="shared" si="1"/>
+        <v>0.98448275862068968</v>
       </c>
       <c r="AF14" s="73" t="str">
         <f>IF(AE14="","",INDEX(Grades!$B$12:$B$24,MATCH(AE14,Grades!$A$12:$A$24,1)))</f>
@@ -2925,7 +2937,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="B15" s="76" t="str">
@@ -2953,8 +2965,12 @@
       <c r="I15" s="77">
         <v>0.85</v>
       </c>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
+      <c r="J15" s="77">
+        <v>1</v>
+      </c>
+      <c r="K15" s="77">
+        <v>1</v>
+      </c>
       <c r="L15" s="77"/>
       <c r="M15" s="77"/>
       <c r="N15" s="77"/>
@@ -2988,12 +3004,12 @@
       <c r="AB15" s="77"/>
       <c r="AC15" s="77"/>
       <c r="AD15" s="71">
-        <f>IF(SUM(C15:AC15)=0,"",SUMPRODUCT(C15:AC15,$C$9:$AC$9))</f>
-        <v>503</v>
+        <f t="shared" si="0"/>
+        <v>523</v>
       </c>
       <c r="AE15" s="72">
-        <f>IF(SUM(C15:AC15)=0,"",$AE$9+AD15/(SUMIF(C15:AC15,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C15:AC15,"=E",$C$9:$AC$9)))</f>
-        <v>0.88245614035087716</v>
+        <f t="shared" si="1"/>
+        <v>0.88644067796610171</v>
       </c>
       <c r="AF15" s="73" t="str">
         <f>IF(AE15="","",INDEX(Grades!$B$12:$B$24,MATCH(AE15,Grades!$A$12:$A$24,1)))</f>
@@ -3005,7 +3021,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
       <c r="B16" s="76" t="str">
@@ -3033,8 +3049,12 @@
       <c r="I16" s="77">
         <v>1</v>
       </c>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
+      <c r="J16" s="77">
+        <v>1</v>
+      </c>
+      <c r="K16" s="77">
+        <v>1</v>
+      </c>
       <c r="L16" s="77"/>
       <c r="M16" s="77"/>
       <c r="N16" s="77"/>
@@ -3068,12 +3088,12 @@
       <c r="AB16" s="77"/>
       <c r="AC16" s="77"/>
       <c r="AD16" s="71">
-        <f>IF(SUM(C16:AC16)=0,"",SUMPRODUCT(C16:AC16,$C$9:$AC$9))</f>
-        <v>550.25</v>
+        <f t="shared" si="0"/>
+        <v>570.25</v>
       </c>
       <c r="AE16" s="72">
-        <f>IF(SUM(C16:AC16)=0,"",$AE$9+AD16/(SUMIF(C16:AC16,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C16:AC16,"=E",$C$9:$AC$9)))</f>
-        <v>0.9653508771929824</v>
+        <f t="shared" si="1"/>
+        <v>0.96652542372881356</v>
       </c>
       <c r="AF16" s="73" t="str">
         <f>IF(AE16="","",INDEX(Grades!$B$12:$B$24,MATCH(AE16,Grades!$A$12:$A$24,1)))</f>
@@ -3085,7 +3105,7 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
       <c r="B17" s="76" t="str">
@@ -3113,8 +3133,12 @@
       <c r="I17" s="77">
         <v>1</v>
       </c>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
+      <c r="J17" s="77">
+        <v>1</v>
+      </c>
+      <c r="K17" s="77">
+        <v>1</v>
+      </c>
       <c r="L17" s="77"/>
       <c r="M17" s="77"/>
       <c r="N17" s="77"/>
@@ -3148,16 +3172,16 @@
       <c r="AB17" s="77"/>
       <c r="AC17" s="77"/>
       <c r="AD17" s="71">
-        <f>IF(SUM(C17:AC17)=0,"",SUMPRODUCT(C17:AC17,$C$9:$AC$9))</f>
-        <v>547</v>
+        <f t="shared" si="0"/>
+        <v>567</v>
       </c>
       <c r="AE17" s="72">
-        <f>IF(SUM(C17:AC17)=0,"",$AE$9+AD17/(SUMIF(C17:AC17,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C17:AC17,"=E",$C$9:$AC$9)))</f>
-        <v>0.95964912280701753</v>
+        <f t="shared" si="1"/>
+        <v>0.96101694915254232</v>
       </c>
       <c r="AF17" s="73" t="str">
         <f>IF(AE17="","",INDEX(Grades!$B$12:$B$24,MATCH(AE17,Grades!$A$12:$A$24,1)))</f>
-        <v>A</v>
+        <v>A+</v>
       </c>
       <c r="AH17" s="82" t="s">
         <v>83</v>
@@ -3165,7 +3189,7 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>7</v>
       </c>
       <c r="B18" s="76" t="str">
@@ -3193,8 +3217,12 @@
       <c r="I18" s="77">
         <v>1</v>
       </c>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
+      <c r="J18" s="77">
+        <v>1</v>
+      </c>
+      <c r="K18" s="77">
+        <v>1</v>
+      </c>
       <c r="L18" s="77"/>
       <c r="M18" s="77"/>
       <c r="N18" s="77"/>
@@ -3228,16 +3256,16 @@
       <c r="AB18" s="77"/>
       <c r="AC18" s="77"/>
       <c r="AD18" s="71">
-        <f>IF(SUM(C18:AC18)=0,"",SUMPRODUCT(C18:AC18,$C$9:$AC$9))</f>
-        <v>546.75</v>
+        <f t="shared" si="0"/>
+        <v>566.75</v>
       </c>
       <c r="AE18" s="72">
-        <f>IF(SUM(C18:AC18)=0,"",$AE$9+AD18/(SUMIF(C18:AC18,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C18:AC18,"=E",$C$9:$AC$9)))</f>
-        <v>0.95921052631578951</v>
+        <f t="shared" si="1"/>
+        <v>0.96059322033898309</v>
       </c>
       <c r="AF18" s="73" t="str">
         <f>IF(AE18="","",INDEX(Grades!$B$12:$B$24,MATCH(AE18,Grades!$A$12:$A$24,1)))</f>
-        <v>A</v>
+        <v>A+</v>
       </c>
       <c r="AH18" s="82" t="s">
         <v>84</v>
@@ -3245,7 +3273,7 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>8</v>
       </c>
       <c r="B19" s="76" t="str">
@@ -3273,8 +3301,12 @@
       <c r="I19" s="77">
         <v>1</v>
       </c>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
+      <c r="J19" s="77">
+        <v>1</v>
+      </c>
+      <c r="K19" s="77">
+        <v>1</v>
+      </c>
       <c r="L19" s="77"/>
       <c r="M19" s="77"/>
       <c r="N19" s="77"/>
@@ -3308,12 +3340,12 @@
       <c r="AB19" s="77"/>
       <c r="AC19" s="77"/>
       <c r="AD19" s="71">
-        <f>IF(SUM(C19:AC19)=0,"",SUMPRODUCT(C19:AC19,$C$9:$AC$9))</f>
-        <v>557</v>
+        <f t="shared" si="0"/>
+        <v>577</v>
       </c>
       <c r="AE19" s="72">
-        <f>IF(SUM(C19:AC19)=0,"",$AE$9+AD19/(SUMIF(C19:AC19,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C19:AC19,"=E",$C$9:$AC$9)))</f>
-        <v>0.97719298245614039</v>
+        <f t="shared" si="1"/>
+        <v>0.97796610169491527</v>
       </c>
       <c r="AF19" s="73" t="str">
         <f>IF(AE19="","",INDEX(Grades!$B$12:$B$24,MATCH(AE19,Grades!$A$12:$A$24,1)))</f>
@@ -3325,7 +3357,7 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
       <c r="B20" s="76" t="str">
@@ -3353,8 +3385,12 @@
       <c r="I20" s="77">
         <v>1</v>
       </c>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
+      <c r="J20" s="77">
+        <v>1</v>
+      </c>
+      <c r="K20" s="77">
+        <v>1</v>
+      </c>
       <c r="L20" s="77"/>
       <c r="M20" s="77"/>
       <c r="N20" s="77"/>
@@ -3388,12 +3424,12 @@
       <c r="AB20" s="77"/>
       <c r="AC20" s="77"/>
       <c r="AD20" s="71">
-        <f>IF(SUM(C20:AC20)=0,"",SUMPRODUCT(C20:AC20,$C$9:$AC$9))</f>
-        <v>504.5</v>
+        <f t="shared" si="0"/>
+        <v>524.5</v>
       </c>
       <c r="AE20" s="72">
-        <f>IF(SUM(C20:AC20)=0,"",$AE$9+AD20/(SUMIF(C20:AC20,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C20:AC20,"=E",$C$9:$AC$9)))</f>
-        <v>0.88508771929824559</v>
+        <f t="shared" si="1"/>
+        <v>0.88898305084745766</v>
       </c>
       <c r="AF20" s="73" t="str">
         <f>IF(AE20="","",INDEX(Grades!$B$12:$B$24,MATCH(AE20,Grades!$A$12:$A$24,1)))</f>
@@ -3405,7 +3441,7 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
       <c r="B21" s="76" t="str">
@@ -3433,8 +3469,12 @@
       <c r="I21" s="77">
         <v>1</v>
       </c>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
+      <c r="J21" s="77">
+        <v>1</v>
+      </c>
+      <c r="K21" s="77">
+        <v>1</v>
+      </c>
       <c r="L21" s="77"/>
       <c r="M21" s="77"/>
       <c r="N21" s="77"/>
@@ -3468,12 +3508,12 @@
       <c r="AB21" s="77"/>
       <c r="AC21" s="77"/>
       <c r="AD21" s="71">
-        <f>IF(SUM(C21:AC21)=0,"",SUMPRODUCT(C21:AC21,$C$9:$AC$9))</f>
-        <v>560</v>
+        <f t="shared" si="0"/>
+        <v>580</v>
       </c>
       <c r="AE21" s="72">
-        <f>IF(SUM(C21:AC21)=0,"",$AE$9+AD21/(SUMIF(C21:AC21,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C21:AC21,"=E",$C$9:$AC$9)))</f>
-        <v>0.98245614035087714</v>
+        <f t="shared" si="1"/>
+        <v>0.98305084745762716</v>
       </c>
       <c r="AF21" s="73" t="str">
         <f>IF(AE21="","",INDEX(Grades!$B$12:$B$24,MATCH(AE21,Grades!$A$12:$A$24,1)))</f>
@@ -3483,7 +3523,7 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>11</v>
       </c>
       <c r="B22" s="76" t="str">
@@ -3511,8 +3551,12 @@
       <c r="I22" s="77">
         <v>1</v>
       </c>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
+      <c r="J22" s="77">
+        <v>1</v>
+      </c>
+      <c r="K22" s="77">
+        <v>1</v>
+      </c>
       <c r="L22" s="77"/>
       <c r="M22" s="77"/>
       <c r="N22" s="77"/>
@@ -3546,12 +3590,12 @@
       <c r="AB22" s="77"/>
       <c r="AC22" s="77"/>
       <c r="AD22" s="71">
-        <f>IF(SUM(C22:AC22)=0,"",SUMPRODUCT(C22:AC22,$C$9:$AC$9))</f>
-        <v>491.5</v>
+        <f t="shared" si="0"/>
+        <v>511.5</v>
       </c>
       <c r="AE22" s="72">
-        <f>IF(SUM(C22:AC22)=0,"",$AE$9+AD22/(SUMIF(C22:AC22,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C22:AC22,"=E",$C$9:$AC$9)))</f>
-        <v>0.86228070175438598</v>
+        <f t="shared" si="1"/>
+        <v>0.86694915254237293</v>
       </c>
       <c r="AF22" s="73" t="str">
         <f>IF(AE22="","",INDEX(Grades!$B$12:$B$24,MATCH(AE22,Grades!$A$12:$A$24,1)))</f>
@@ -3566,7 +3610,7 @@
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>12</v>
       </c>
       <c r="B23" s="76" t="str">
@@ -3594,8 +3638,12 @@
       <c r="I23" s="77">
         <v>1</v>
       </c>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
+      <c r="J23" s="77">
+        <v>1</v>
+      </c>
+      <c r="K23" s="77">
+        <v>1</v>
+      </c>
       <c r="L23" s="77"/>
       <c r="M23" s="77"/>
       <c r="N23" s="77"/>
@@ -3629,12 +3677,12 @@
       <c r="AB23" s="77"/>
       <c r="AC23" s="77"/>
       <c r="AD23" s="71">
-        <f>IF(SUM(C23:AC23)=0,"",SUMPRODUCT(C23:AC23,$C$9:$AC$9))</f>
-        <v>560.75</v>
+        <f t="shared" si="0"/>
+        <v>580.75</v>
       </c>
       <c r="AE23" s="72">
-        <f>IF(SUM(C23:AC23)=0,"",$AE$9+AD23/(SUMIF(C23:AC23,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C23:AC23,"=E",$C$9:$AC$9)))</f>
-        <v>0.98377192982456141</v>
+        <f t="shared" si="1"/>
+        <v>0.98432203389830508</v>
       </c>
       <c r="AF23" s="73" t="str">
         <f>IF(AE23="","",INDEX(Grades!$B$12:$B$24,MATCH(AE23,Grades!$A$12:$A$24,1)))</f>
@@ -3643,7 +3691,7 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>13</v>
       </c>
       <c r="B24" s="76" t="str">
@@ -3671,8 +3719,12 @@
       <c r="I24" s="77">
         <v>1</v>
       </c>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
+      <c r="J24" s="77">
+        <v>1</v>
+      </c>
+      <c r="K24" s="77">
+        <v>1</v>
+      </c>
       <c r="L24" s="77"/>
       <c r="M24" s="77"/>
       <c r="N24" s="77"/>
@@ -3706,12 +3758,12 @@
       <c r="AB24" s="77"/>
       <c r="AC24" s="77"/>
       <c r="AD24" s="71">
-        <f>IF(SUM(C24:AC24)=0,"",SUMPRODUCT(C24:AC24,$C$9:$AC$9))</f>
-        <v>576</v>
+        <f t="shared" si="0"/>
+        <v>596</v>
       </c>
       <c r="AE24" s="72">
-        <f>IF(SUM(C24:AC24)=0,"",$AE$9+AD24/(SUMIF(C24:AC24,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C24:AC24,"=E",$C$9:$AC$9)))</f>
-        <v>1.0105263157894737</v>
+        <f t="shared" si="1"/>
+        <v>1.0101694915254238</v>
       </c>
       <c r="AF24" s="73" t="str">
         <f>IF(AE24="","",INDEX(Grades!$B$12:$B$24,MATCH(AE24,Grades!$A$12:$A$24,1)))</f>
@@ -3758,11 +3810,11 @@
       <c r="AB25" s="75"/>
       <c r="AC25" s="75"/>
       <c r="AD25" s="71" t="str">
-        <f>IF(SUM(C25:AC25)=0,"",SUMPRODUCT(C25:AC25,$C$9:$AC$9))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AE25" s="72" t="str">
-        <f>IF(SUM(C25:AC25)=0,"",$AE$9+AD25/(SUMIF(C25:AC25,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C25:AC25,"=E",$C$9:$AC$9)))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AF25" s="73" t="str">
@@ -3778,40 +3830,40 @@
         <v>4</v>
       </c>
       <c r="C26" s="70">
-        <f t="shared" ref="C26:K26" si="1">IF(SUM(C12:C25)=0,"",AVERAGE(C12:C25))</f>
+        <f t="shared" ref="C26:K26" si="3">IF(SUM(C12:C25)=0,"",AVERAGE(C12:C25))</f>
         <v>1</v>
       </c>
       <c r="D26" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99615384615384606</v>
       </c>
       <c r="E26" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F26" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.97692307692307689</v>
       </c>
       <c r="G26" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.97692307692307689</v>
       </c>
       <c r="H26" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98846153846153839</v>
       </c>
       <c r="I26" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98846153846153839</v>
       </c>
-      <c r="J26" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K26" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="J26" s="70">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="70">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L26" s="70"/>
       <c r="M26" s="70"/>
@@ -3835,27 +3887,27 @@
       <c r="V26" s="70"/>
       <c r="W26" s="70"/>
       <c r="X26" s="70" t="str">
-        <f t="shared" ref="X26:AC26" si="2">IF(SUM(X12:X25)=0,"",AVERAGE(X12:X25))</f>
+        <f t="shared" ref="X26:AC26" si="4">IF(SUM(X12:X25)=0,"",AVERAGE(X12:X25))</f>
         <v/>
       </c>
       <c r="Y26" s="70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.95653846153846145</v>
       </c>
       <c r="Z26" s="70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.91423076923076918</v>
       </c>
       <c r="AA26" s="70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB26" s="70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC26" s="70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD26" s="19" t="s">
@@ -3863,7 +3915,7 @@
       </c>
       <c r="AE26" s="67">
         <f>AVERAGE(AE12:AE25)</f>
-        <v>0.93786630036630036</v>
+        <v>0.93997325001123955</v>
       </c>
       <c r="AF26" s="68" t="str">
         <f>IF(AE26="","",INDEX(Grades!$B$12:$B$24,MATCH(AE26,Grades!$A$12:$A$24,1)))</f>
@@ -3875,40 +3927,40 @@
         <v>49</v>
       </c>
       <c r="C27" s="70">
-        <f t="shared" ref="C27:K27" si="3">IF(OR(C9=0,C26=""),"",MEDIAN(C12:C25))</f>
+        <f t="shared" ref="C27:K27" si="5">IF(OR(C9=0,C26=""),"",MEDIAN(C12:C25))</f>
         <v>1</v>
       </c>
       <c r="D27" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E27" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F27" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G27" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H27" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I27" s="70">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J27" s="70" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K27" s="70" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J27" s="70">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="70">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="L27" s="70"/>
       <c r="M27" s="70"/>
@@ -3920,11 +3972,11 @@
         <v/>
       </c>
       <c r="R27" s="70">
-        <f t="shared" ref="R27:S27" si="4">IF(OR(R9=0,R26=""),"",MEDIAN(R12:R25))</f>
+        <f t="shared" ref="R27:S27" si="6">IF(OR(R9=0,R26=""),"",MEDIAN(R12:R25))</f>
         <v>1</v>
       </c>
       <c r="S27" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.875</v>
       </c>
       <c r="T27" s="70"/>
@@ -3932,27 +3984,27 @@
       <c r="V27" s="70"/>
       <c r="W27" s="70"/>
       <c r="X27" s="70" t="str">
-        <f t="shared" ref="X27:AC27" si="5">IF(OR(X9=0,X26=""),"",MEDIAN(X12:X25))</f>
+        <f t="shared" ref="X27:AC27" si="7">IF(OR(X9=0,X26=""),"",MEDIAN(X12:X25))</f>
         <v/>
       </c>
       <c r="Y27" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="Z27" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="AA27" s="70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB27" s="70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC27" s="70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD27" s="19" t="s">
@@ -3960,7 +4012,7 @@
       </c>
       <c r="AE27" s="67">
         <f>MEDIAN(AE12:AE25)</f>
-        <v>0.9653508771929824</v>
+        <v>0.96652542372881356</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.15">
@@ -3968,40 +4020,40 @@
         <v>50</v>
       </c>
       <c r="C28" s="70">
-        <f t="shared" ref="C28:K28" si="6">IF(OR(C9=0,C26=""),"",STDEV(C12:C25))</f>
+        <f t="shared" ref="C28:K28" si="8">IF(OR(C9=0,C26=""),"",STDEV(C12:C25))</f>
         <v>0</v>
       </c>
       <c r="D28" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3867504905630743E-2</v>
       </c>
       <c r="E28" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F28" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6330071214910814E-2</v>
       </c>
       <c r="G28" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.3205029433784355E-2</v>
       </c>
       <c r="H28" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1602514716892199E-2</v>
       </c>
       <c r="I28" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1602514716892199E-2</v>
       </c>
-      <c r="J28" s="70" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K28" s="70" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="J28" s="70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="70">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="L28" s="70"/>
       <c r="M28" s="70"/>
@@ -4013,11 +4065,11 @@
         <v/>
       </c>
       <c r="R28" s="70">
-        <f t="shared" ref="R28:S28" si="7">IF(OR(R9=0,R26=""),"",STDEV(R12:R25))</f>
+        <f t="shared" ref="R28:S28" si="9">IF(OR(R9=0,R26=""),"",STDEV(R12:R25))</f>
         <v>2.5318484177091691E-2</v>
       </c>
       <c r="S28" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.22558613114307899</v>
       </c>
       <c r="T28" s="70"/>
@@ -4025,27 +4077,27 @@
       <c r="V28" s="70"/>
       <c r="W28" s="70"/>
       <c r="X28" s="70" t="str">
-        <f t="shared" ref="X28:AC28" si="8">IF(OR(X9=0,X26=""),"",STDEV(X12:X25))</f>
+        <f t="shared" ref="X28:AC28" si="10">IF(OR(X9=0,X26=""),"",STDEV(X12:X25))</f>
         <v/>
       </c>
       <c r="Y28" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.6851996124264363E-2</v>
       </c>
       <c r="Z28" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.13245826628675214</v>
       </c>
       <c r="AA28" s="70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AB28" s="70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC28" s="70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD28" s="19" t="s">
@@ -4053,7 +4105,7 @@
       </c>
       <c r="AE28" s="67">
         <f>STDEV(AE12:AE25)</f>
-        <v>6.81997173486657E-2</v>
+        <v>6.5888391244290287E-2</v>
       </c>
       <c r="AF28" s="31" t="s">
         <v>65</v>
@@ -5292,11 +5344,11 @@
       </c>
       <c r="C23" s="9">
         <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A23)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A23,1,0,1,1))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15384615384615385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -5309,11 +5361,11 @@
       </c>
       <c r="C24" s="9">
         <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A24)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A24,1,0,1,1))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53846153846153844</v>
+        <v>0.69230769230769229</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -5336,7 +5388,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54">
         <f>Gradebook!$AE$26</f>
-        <v>0.93786630036630036</v>
+        <v>0.93997325001123955</v>
       </c>
       <c r="B28" s="55" t="str">
         <f>INDEX(B12:B24,MATCH(A28,A12:A24,1))</f>
@@ -5349,7 +5401,7 @@
       </c>
       <c r="B30" s="54">
         <f>Gradebook!AE27</f>
-        <v>0.9653508771929824</v>
+        <v>0.96652542372881356</v>
       </c>
       <c r="C30" s="63" t="s">
         <v>56</v>
@@ -5361,7 +5413,7 @@
       </c>
       <c r="B31" s="54">
         <f>Gradebook!AE28</f>
-        <v>6.81997173486657E-2</v>
+        <v>6.5888391244290287E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5562,7 +5614,7 @@
       </c>
       <c r="B53" s="27">
         <f>PERCENTILE(Gradebook!$AE$12:$AE$25,A53)</f>
-        <v>0.98389724310776938</v>
+        <v>0.98445061367621278</v>
       </c>
       <c r="C53" s="63" t="s">
         <v>62</v>
@@ -5576,7 +5628,7 @@
       </c>
       <c r="B54" s="27">
         <f>PERCENTILE(Gradebook!$AE$12:$AE$25,A54)</f>
-        <v>0.97596491228070181</v>
+        <v>0.97677966101694913</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
@@ -5587,7 +5639,7 @@
       </c>
       <c r="B55" s="27">
         <f>PERCENTILE(Gradebook!$AE$12:$AE$25,A55)</f>
-        <v>0.95929824561403509</v>
+        <v>0.96067796610169498</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -5598,7 +5650,7 @@
       </c>
       <c r="B56" s="27">
         <f>PERCENTILE(Gradebook!$AE$12:$AE$25,A56)</f>
-        <v>0.86631578947368426</v>
+        <v>0.87084745762711868</v>
       </c>
     </row>
   </sheetData>

--- a/libraries/assets/grades/gradebook_percentage.xlsx
+++ b/libraries/assets/grades/gradebook_percentage.xlsx
@@ -1498,11 +1498,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2141797568"/>
-        <c:axId val="2141789008"/>
+        <c:axId val="-2082718112"/>
+        <c:axId val="-2109574704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141797568"/>
+        <c:axId val="-2082718112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,7 +1537,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141789008"/>
+        <c:crossAx val="-2109574704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1547,7 +1547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141789008"/>
+        <c:axId val="-2109574704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1621,7 +1621,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141797568"/>
+        <c:crossAx val="-2082718112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1693,7 +1693,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1101"/>
+                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1103"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2242,7 +2242,7 @@
   <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2719,7 +2719,9 @@
       <c r="K12" s="77">
         <v>1</v>
       </c>
-      <c r="L12" s="77"/>
+      <c r="L12" s="77">
+        <v>1</v>
+      </c>
       <c r="M12" s="77"/>
       <c r="N12" s="77"/>
       <c r="O12" s="77"/>
@@ -2753,11 +2755,11 @@
       <c r="AC12" s="77"/>
       <c r="AD12" s="71">
         <f t="shared" ref="AD12:AD25" si="0">IF(SUM(C12:AC12)=0,"",SUMPRODUCT(C12:AC12,$C$9:$AC$9))</f>
-        <v>573.5</v>
+        <v>583.5</v>
       </c>
       <c r="AE12" s="72">
         <f t="shared" ref="AE12:AE25" si="1">IF(SUM(C12:AC12)=0,"",$AE$9+AD12/(SUMIF(C12:AC12,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C12:AC12,"=E",$C$9:$AC$9)))</f>
-        <v>0.9720338983050848</v>
+        <v>0.97250000000000003</v>
       </c>
       <c r="AF12" s="73" t="str">
         <f>IF(AE12="","",INDEX(Grades!$B$12:$B$24,MATCH(AE12,Grades!$A$12:$A$24,1)))</f>
@@ -2803,7 +2805,9 @@
       <c r="K13" s="77">
         <v>1</v>
       </c>
-      <c r="L13" s="77"/>
+      <c r="L13" s="77">
+        <v>0.85</v>
+      </c>
       <c r="M13" s="77"/>
       <c r="N13" s="77"/>
       <c r="O13" s="77"/>
@@ -2837,11 +2841,11 @@
       <c r="AC13" s="77"/>
       <c r="AD13" s="71">
         <f t="shared" si="0"/>
-        <v>458.5</v>
+        <v>467</v>
       </c>
       <c r="AE13" s="72">
         <f t="shared" si="1"/>
-        <v>0.77711864406779663</v>
+        <v>0.77833333333333332</v>
       </c>
       <c r="AF13" s="73" t="str">
         <f>IF(AE13="","",INDEX(Grades!$B$12:$B$24,MATCH(AE13,Grades!$A$12:$A$24,1)))</f>
@@ -2887,7 +2891,9 @@
       <c r="K14" s="77">
         <v>1</v>
       </c>
-      <c r="L14" s="77"/>
+      <c r="L14" s="77">
+        <v>1</v>
+      </c>
       <c r="M14" s="77"/>
       <c r="N14" s="77"/>
       <c r="O14" s="77"/>
@@ -2921,11 +2927,11 @@
       <c r="AC14" s="77"/>
       <c r="AD14" s="71">
         <f t="shared" si="0"/>
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="AE14" s="72">
         <f t="shared" si="1"/>
-        <v>0.98448275862068968</v>
+        <v>0.98474576271186443</v>
       </c>
       <c r="AF14" s="73" t="str">
         <f>IF(AE14="","",INDEX(Grades!$B$12:$B$24,MATCH(AE14,Grades!$A$12:$A$24,1)))</f>
@@ -2971,7 +2977,9 @@
       <c r="K15" s="77">
         <v>1</v>
       </c>
-      <c r="L15" s="77"/>
+      <c r="L15" s="77">
+        <v>1</v>
+      </c>
       <c r="M15" s="77"/>
       <c r="N15" s="77"/>
       <c r="O15" s="77"/>
@@ -3005,11 +3013,11 @@
       <c r="AC15" s="77"/>
       <c r="AD15" s="71">
         <f t="shared" si="0"/>
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="AE15" s="72">
         <f t="shared" si="1"/>
-        <v>0.88644067796610171</v>
+        <v>0.88833333333333331</v>
       </c>
       <c r="AF15" s="73" t="str">
         <f>IF(AE15="","",INDEX(Grades!$B$12:$B$24,MATCH(AE15,Grades!$A$12:$A$24,1)))</f>
@@ -3055,7 +3063,9 @@
       <c r="K16" s="77">
         <v>1</v>
       </c>
-      <c r="L16" s="77"/>
+      <c r="L16" s="77">
+        <v>1</v>
+      </c>
       <c r="M16" s="77"/>
       <c r="N16" s="77"/>
       <c r="O16" s="77"/>
@@ -3089,11 +3099,11 @@
       <c r="AC16" s="77"/>
       <c r="AD16" s="71">
         <f t="shared" si="0"/>
-        <v>570.25</v>
+        <v>580.25</v>
       </c>
       <c r="AE16" s="72">
         <f t="shared" si="1"/>
-        <v>0.96652542372881356</v>
+        <v>0.96708333333333329</v>
       </c>
       <c r="AF16" s="73" t="str">
         <f>IF(AE16="","",INDEX(Grades!$B$12:$B$24,MATCH(AE16,Grades!$A$12:$A$24,1)))</f>
@@ -3139,7 +3149,9 @@
       <c r="K17" s="77">
         <v>1</v>
       </c>
-      <c r="L17" s="77"/>
+      <c r="L17" s="77">
+        <v>1</v>
+      </c>
       <c r="M17" s="77"/>
       <c r="N17" s="77"/>
       <c r="O17" s="77"/>
@@ -3173,11 +3185,11 @@
       <c r="AC17" s="77"/>
       <c r="AD17" s="71">
         <f t="shared" si="0"/>
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="AE17" s="72">
         <f t="shared" si="1"/>
-        <v>0.96101694915254232</v>
+        <v>0.96166666666666667</v>
       </c>
       <c r="AF17" s="73" t="str">
         <f>IF(AE17="","",INDEX(Grades!$B$12:$B$24,MATCH(AE17,Grades!$A$12:$A$24,1)))</f>
@@ -3223,7 +3235,9 @@
       <c r="K18" s="77">
         <v>1</v>
       </c>
-      <c r="L18" s="77"/>
+      <c r="L18" s="77">
+        <v>1</v>
+      </c>
       <c r="M18" s="77"/>
       <c r="N18" s="77"/>
       <c r="O18" s="77"/>
@@ -3257,11 +3271,11 @@
       <c r="AC18" s="77"/>
       <c r="AD18" s="71">
         <f t="shared" si="0"/>
-        <v>566.75</v>
+        <v>576.75</v>
       </c>
       <c r="AE18" s="72">
         <f t="shared" si="1"/>
-        <v>0.96059322033898309</v>
+        <v>0.96125000000000005</v>
       </c>
       <c r="AF18" s="73" t="str">
         <f>IF(AE18="","",INDEX(Grades!$B$12:$B$24,MATCH(AE18,Grades!$A$12:$A$24,1)))</f>
@@ -3307,7 +3321,9 @@
       <c r="K19" s="77">
         <v>1</v>
       </c>
-      <c r="L19" s="77"/>
+      <c r="L19" s="77">
+        <v>1</v>
+      </c>
       <c r="M19" s="77"/>
       <c r="N19" s="77"/>
       <c r="O19" s="77"/>
@@ -3341,11 +3357,11 @@
       <c r="AC19" s="77"/>
       <c r="AD19" s="71">
         <f t="shared" si="0"/>
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="AE19" s="72">
         <f t="shared" si="1"/>
-        <v>0.97796610169491527</v>
+        <v>0.97833333333333339</v>
       </c>
       <c r="AF19" s="73" t="str">
         <f>IF(AE19="","",INDEX(Grades!$B$12:$B$24,MATCH(AE19,Grades!$A$12:$A$24,1)))</f>
@@ -3391,7 +3407,9 @@
       <c r="K20" s="77">
         <v>1</v>
       </c>
-      <c r="L20" s="77"/>
+      <c r="L20" s="77">
+        <v>1</v>
+      </c>
       <c r="M20" s="77"/>
       <c r="N20" s="77"/>
       <c r="O20" s="77"/>
@@ -3425,11 +3443,11 @@
       <c r="AC20" s="77"/>
       <c r="AD20" s="71">
         <f t="shared" si="0"/>
-        <v>524.5</v>
+        <v>534.5</v>
       </c>
       <c r="AE20" s="72">
         <f t="shared" si="1"/>
-        <v>0.88898305084745766</v>
+        <v>0.89083333333333337</v>
       </c>
       <c r="AF20" s="73" t="str">
         <f>IF(AE20="","",INDEX(Grades!$B$12:$B$24,MATCH(AE20,Grades!$A$12:$A$24,1)))</f>
@@ -3475,7 +3493,9 @@
       <c r="K21" s="77">
         <v>1</v>
       </c>
-      <c r="L21" s="77"/>
+      <c r="L21" s="77">
+        <v>1</v>
+      </c>
       <c r="M21" s="77"/>
       <c r="N21" s="77"/>
       <c r="O21" s="77"/>
@@ -3509,11 +3529,11 @@
       <c r="AC21" s="77"/>
       <c r="AD21" s="71">
         <f t="shared" si="0"/>
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="AE21" s="72">
         <f t="shared" si="1"/>
-        <v>0.98305084745762716</v>
+        <v>0.98333333333333328</v>
       </c>
       <c r="AF21" s="73" t="str">
         <f>IF(AE21="","",INDEX(Grades!$B$12:$B$24,MATCH(AE21,Grades!$A$12:$A$24,1)))</f>
@@ -3557,7 +3577,9 @@
       <c r="K22" s="77">
         <v>1</v>
       </c>
-      <c r="L22" s="77"/>
+      <c r="L22" s="77">
+        <v>1</v>
+      </c>
       <c r="M22" s="77"/>
       <c r="N22" s="77"/>
       <c r="O22" s="77"/>
@@ -3591,11 +3613,11 @@
       <c r="AC22" s="77"/>
       <c r="AD22" s="71">
         <f t="shared" si="0"/>
-        <v>511.5</v>
+        <v>521.5</v>
       </c>
       <c r="AE22" s="72">
         <f t="shared" si="1"/>
-        <v>0.86694915254237293</v>
+        <v>0.86916666666666664</v>
       </c>
       <c r="AF22" s="73" t="str">
         <f>IF(AE22="","",INDEX(Grades!$B$12:$B$24,MATCH(AE22,Grades!$A$12:$A$24,1)))</f>
@@ -3644,7 +3666,9 @@
       <c r="K23" s="77">
         <v>1</v>
       </c>
-      <c r="L23" s="77"/>
+      <c r="L23" s="77">
+        <v>1</v>
+      </c>
       <c r="M23" s="77"/>
       <c r="N23" s="77"/>
       <c r="O23" s="77"/>
@@ -3678,11 +3702,11 @@
       <c r="AC23" s="77"/>
       <c r="AD23" s="71">
         <f t="shared" si="0"/>
-        <v>580.75</v>
+        <v>590.75</v>
       </c>
       <c r="AE23" s="72">
         <f t="shared" si="1"/>
-        <v>0.98432203389830508</v>
+        <v>0.98458333333333337</v>
       </c>
       <c r="AF23" s="73" t="str">
         <f>IF(AE23="","",INDEX(Grades!$B$12:$B$24,MATCH(AE23,Grades!$A$12:$A$24,1)))</f>
@@ -3725,7 +3749,9 @@
       <c r="K24" s="77">
         <v>1</v>
       </c>
-      <c r="L24" s="77"/>
+      <c r="L24" s="77">
+        <v>1</v>
+      </c>
       <c r="M24" s="77"/>
       <c r="N24" s="77"/>
       <c r="O24" s="77"/>
@@ -3759,11 +3785,11 @@
       <c r="AC24" s="77"/>
       <c r="AD24" s="71">
         <f t="shared" si="0"/>
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="AE24" s="72">
         <f t="shared" si="1"/>
-        <v>1.0101694915254238</v>
+        <v>1.01</v>
       </c>
       <c r="AF24" s="73" t="str">
         <f>IF(AE24="","",INDEX(Grades!$B$12:$B$24,MATCH(AE24,Grades!$A$12:$A$24,1)))</f>
@@ -3915,7 +3941,7 @@
       </c>
       <c r="AE26" s="67">
         <f>AVERAGE(AE12:AE25)</f>
-        <v>0.93997325001123955</v>
+        <v>0.94078172533681004</v>
       </c>
       <c r="AF26" s="68" t="str">
         <f>IF(AE26="","",INDEX(Grades!$B$12:$B$24,MATCH(AE26,Grades!$A$12:$A$24,1)))</f>
@@ -4012,7 +4038,7 @@
       </c>
       <c r="AE27" s="67">
         <f>MEDIAN(AE12:AE25)</f>
-        <v>0.96652542372881356</v>
+        <v>0.96708333333333329</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.15">
@@ -4105,7 +4131,7 @@
       </c>
       <c r="AE28" s="67">
         <f>STDEV(AE12:AE25)</f>
-        <v>6.5888391244290287E-2</v>
+        <v>6.5307080111410176E-2</v>
       </c>
       <c r="AF28" s="31" t="s">
         <v>65</v>
@@ -5388,7 +5414,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54">
         <f>Gradebook!$AE$26</f>
-        <v>0.93997325001123955</v>
+        <v>0.94078172533681004</v>
       </c>
       <c r="B28" s="55" t="str">
         <f>INDEX(B12:B24,MATCH(A28,A12:A24,1))</f>
@@ -5401,7 +5427,7 @@
       </c>
       <c r="B30" s="54">
         <f>Gradebook!AE27</f>
-        <v>0.96652542372881356</v>
+        <v>0.96708333333333329</v>
       </c>
       <c r="C30" s="63" t="s">
         <v>56</v>
@@ -5413,7 +5439,7 @@
       </c>
       <c r="B31" s="54">
         <f>Gradebook!AE28</f>
-        <v>6.5888391244290287E-2</v>
+        <v>6.5307080111410176E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5614,7 +5640,7 @@
       </c>
       <c r="B53" s="27">
         <f>PERCENTILE(Gradebook!$AE$12:$AE$25,A53)</f>
-        <v>0.98445061367621278</v>
+        <v>0.98471327683615817</v>
       </c>
       <c r="C53" s="63" t="s">
         <v>62</v>
@@ -5628,7 +5654,7 @@
       </c>
       <c r="B54" s="27">
         <f>PERCENTILE(Gradebook!$AE$12:$AE$25,A54)</f>
-        <v>0.97677966101694913</v>
+        <v>0.97716666666666674</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
@@ -5639,7 +5665,7 @@
       </c>
       <c r="B55" s="27">
         <f>PERCENTILE(Gradebook!$AE$12:$AE$25,A55)</f>
-        <v>0.96067796610169498</v>
+        <v>0.96133333333333337</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -5650,7 +5676,7 @@
       </c>
       <c r="B56" s="27">
         <f>PERCENTILE(Gradebook!$AE$12:$AE$25,A56)</f>
-        <v>0.87084745762711868</v>
+        <v>0.873</v>
       </c>
     </row>
   </sheetData>

--- a/libraries/assets/grades/gradebook_percentage.xlsx
+++ b/libraries/assets/grades/gradebook_percentage.xlsx
@@ -18,10 +18,10 @@
     <sheet name="©" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Gradebook!$A$1:$AF$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Gradebook!$A$1:$AG$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Grades!$A$1:$J$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Names!$A$1:$H$109</definedName>
-    <definedName name="displayID">Gradebook!$AI$24</definedName>
+    <definedName name="displayID">Gradebook!$AJ$24</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Gradebook!$6:$11</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="154">
   <si>
     <t>Gradebook</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>Pruebita 2</t>
+  </si>
+  <si>
+    <t>Tarea 3</t>
   </si>
 </sst>
 </file>
@@ -1459,13 +1462,13 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -1498,11 +1501,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2082718112"/>
-        <c:axId val="-2109574704"/>
+        <c:axId val="-2098713648"/>
+        <c:axId val="-2099713264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2082718112"/>
+        <c:axId val="-2098713648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,7 +1540,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109574704"/>
+        <c:crossAx val="-2099713264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1547,7 +1550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2109574704"/>
+        <c:axId val="-2099713264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1621,7 +1624,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082718112"/>
+        <c:crossAx val="-2098713648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1676,13 +1679,13 @@
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
           <xdr:col>31</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>34</xdr:col>
-          <xdr:colOff>543511</xdr:colOff>
+          <xdr:colOff>1470611</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1693,7 +1696,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1103"/>
+                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1106"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1725,13 +1728,13 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>1295400</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2239,10 +2242,10 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI28"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2250,17 +2253,17 @@
     <col min="1" max="1" width="3.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="3" customWidth="1"/>
     <col min="3" max="19" width="7" style="3" customWidth="1"/>
-    <col min="20" max="21" width="8.33203125" style="3" customWidth="1"/>
-    <col min="22" max="29" width="7" style="3" customWidth="1"/>
-    <col min="30" max="30" width="8.5" style="3" customWidth="1"/>
-    <col min="31" max="31" width="7.5" style="3" customWidth="1"/>
-    <col min="32" max="32" width="8.83203125" style="3"/>
-    <col min="33" max="33" width="5.33203125" style="3" customWidth="1"/>
-    <col min="34" max="34" width="20.5" style="3" customWidth="1"/>
-    <col min="35" max="16384" width="8.83203125" style="3"/>
+    <col min="20" max="22" width="8.33203125" style="3" customWidth="1"/>
+    <col min="23" max="30" width="7" style="3" customWidth="1"/>
+    <col min="31" max="31" width="8.5" style="3" customWidth="1"/>
+    <col min="32" max="32" width="7.5" style="3" customWidth="1"/>
+    <col min="33" max="33" width="8.83203125" style="3"/>
+    <col min="34" max="34" width="5.33203125" style="3" customWidth="1"/>
+    <col min="35" max="35" width="20.5" style="3" customWidth="1"/>
+    <col min="36" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
@@ -2294,19 +2297,20 @@
       <c r="AC1" s="7"/>
       <c r="AD1" s="7"/>
       <c r="AE1" s="7"/>
-      <c r="AH1" s="15"/>
-    </row>
-    <row r="2" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+      <c r="AF1" s="7"/>
+      <c r="AI1" s="15"/>
+    </row>
+    <row r="2" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="12" t="s">
         <v>132</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="AH2" s="46" t="s">
+      <c r="AI2" s="46" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="11" t="s">
         <v>133</v>
@@ -2340,24 +2344,25 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
-      <c r="AH3" s="22" t="s">
+      <c r="AF3" s="7"/>
+      <c r="AI3" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="11" t="s">
         <v>134</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="AB4" s="80" t="s">
+      <c r="AC4" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="AC4" s="81" t="s">
+      <c r="AD4" s="81" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2386,8 +2391,9 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
-    </row>
-    <row r="6" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+      <c r="AE5" s="4"/>
+    </row>
+    <row r="6" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="4"/>
       <c r="C6" s="65" t="s">
         <v>1</v>
@@ -2418,9 +2424,10 @@
       <c r="AA6" s="66"/>
       <c r="AB6" s="66"/>
       <c r="AC6" s="66"/>
-      <c r="AD6" s="4"/>
-    </row>
-    <row r="7" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="4"/>
+    </row>
+    <row r="7" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
       <c r="C7" s="94" t="s">
         <v>140</v>
@@ -2445,21 +2452,22 @@
       <c r="S7" s="96"/>
       <c r="T7" s="96"/>
       <c r="U7" s="96"/>
-      <c r="V7" s="96" t="s">
+      <c r="V7" s="96"/>
+      <c r="W7" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="W7" s="96"/>
-      <c r="X7" s="95"/>
-      <c r="Y7" s="95" t="s">
+      <c r="X7" s="96"/>
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="Z7" s="95"/>
       <c r="AA7" s="95"/>
       <c r="AB7" s="95"/>
       <c r="AC7" s="95"/>
-      <c r="AD7" s="4"/>
-    </row>
-    <row r="8" spans="1:34" ht="67" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="4"/>
+    </row>
+    <row r="8" spans="1:35" ht="67" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="91" t="s">
@@ -2520,32 +2528,35 @@
         <v>151</v>
       </c>
       <c r="V8" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="W8" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="W8" s="91" t="s">
+      <c r="X8" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="X8" s="91" t="s">
+      <c r="Y8" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="Y8" s="91" t="s">
+      <c r="Z8" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="Z8" s="91" t="s">
+      <c r="AA8" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="AA8" s="91" t="s">
+      <c r="AB8" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="AB8" s="91" t="s">
+      <c r="AC8" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="AC8" s="79" t="s">
+      <c r="AD8" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AD8" s="4"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AE8" s="4"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="21" t="s">
         <v>35</v>
@@ -2607,11 +2618,11 @@
       <c r="U9" s="14">
         <v>50</v>
       </c>
-      <c r="V9" s="14"/>
+      <c r="V9" s="14">
+        <v>50</v>
+      </c>
       <c r="W9" s="14"/>
-      <c r="X9" s="14">
-        <v>150</v>
-      </c>
+      <c r="X9" s="14"/>
       <c r="Y9" s="14">
         <v>150</v>
       </c>
@@ -2625,20 +2636,23 @@
         <v>150</v>
       </c>
       <c r="AC9" s="14">
+        <v>150</v>
+      </c>
+      <c r="AD9" s="14">
         <v>1000</v>
       </c>
-      <c r="AD9" s="34" t="s">
+      <c r="AE9" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="AE9" s="78">
+      <c r="AF9" s="78">
         <v>0</v>
       </c>
-      <c r="AH9" s="83" t="s">
+      <c r="AI9" s="83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="12" t="s">
         <v>51</v>
@@ -2670,20 +2684,21 @@
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
       <c r="AC11" s="20"/>
-      <c r="AD11" s="8" t="s">
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AE11" s="8" t="s">
+      <c r="AF11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AF11" s="8" t="s">
+      <c r="AG11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AH11" s="82" t="s">
+      <c r="AI11" s="82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <f ca="1">OFFSET(A12,-1,0,1,1)+1</f>
         <v>1</v>
@@ -2739,39 +2754,42 @@
       <c r="U12" s="77">
         <v>1</v>
       </c>
-      <c r="V12" s="77" t="s">
+      <c r="V12" s="77">
+        <v>1</v>
+      </c>
+      <c r="W12" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="W12" s="77"/>
       <c r="X12" s="77"/>
-      <c r="Y12" s="77">
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77">
         <v>0.97499999999999998</v>
       </c>
-      <c r="Z12" s="77">
+      <c r="AA12" s="77">
         <v>0.94499999999999995</v>
       </c>
-      <c r="AA12" s="77"/>
       <c r="AB12" s="77"/>
       <c r="AC12" s="77"/>
-      <c r="AD12" s="71">
-        <f t="shared" ref="AD12:AD25" si="0">IF(SUM(C12:AC12)=0,"",SUMPRODUCT(C12:AC12,$C$9:$AC$9))</f>
-        <v>583.5</v>
-      </c>
-      <c r="AE12" s="72">
-        <f t="shared" ref="AE12:AE25" si="1">IF(SUM(C12:AC12)=0,"",$AE$9+AD12/(SUMIF(C12:AC12,"&lt;&gt;",$C$9:$AC$9)-SUMIF(C12:AC12,"=E",$C$9:$AC$9)))</f>
-        <v>0.97250000000000003</v>
-      </c>
-      <c r="AF12" s="73" t="str">
-        <f>IF(AE12="","",INDEX(Grades!$B$12:$B$24,MATCH(AE12,Grades!$A$12:$A$24,1)))</f>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="71">
+        <f>IF(SUM(C12:AD12)=0,"",SUMPRODUCT(C12:AD12,$C$9:$AD$9))</f>
+        <v>633.5</v>
+      </c>
+      <c r="AF12" s="72">
+        <f>IF(SUM(C12:AD12)=0,"",$AF$9+AE12/(SUMIF(C12:AD12,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C12:AD12,"=E",$C$9:$AD$9)))</f>
+        <v>0.97461538461538466</v>
+      </c>
+      <c r="AG12" s="73" t="str">
+        <f>IF(AF12="","",INDEX(Grades!$B$12:$B$24,MATCH(AF12,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AH12" s="82" t="s">
+      <c r="AI12" s="82" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
-        <f t="shared" ref="A13:A24" ca="1" si="2">OFFSET(A13,-1,0,1,1)+1</f>
+        <f t="shared" ref="A13:A24" ca="1" si="0">OFFSET(A13,-1,0,1,1)+1</f>
         <v>2</v>
       </c>
       <c r="B13" s="76" t="str">
@@ -2825,39 +2843,42 @@
       <c r="U13" s="77">
         <v>1</v>
       </c>
-      <c r="V13" s="77" t="s">
+      <c r="V13" s="77">
+        <v>0</v>
+      </c>
+      <c r="W13" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="W13" s="77"/>
       <c r="X13" s="77"/>
-      <c r="Y13" s="77">
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77">
         <v>0.90500000000000003</v>
       </c>
-      <c r="Z13" s="77">
+      <c r="AA13" s="77">
         <v>0.505</v>
       </c>
-      <c r="AA13" s="77"/>
       <c r="AB13" s="77"/>
       <c r="AC13" s="77"/>
-      <c r="AD13" s="71">
-        <f t="shared" si="0"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="71">
+        <f>IF(SUM(C13:AD13)=0,"",SUMPRODUCT(C13:AD13,$C$9:$AD$9))</f>
         <v>467</v>
       </c>
-      <c r="AE13" s="72">
-        <f t="shared" si="1"/>
-        <v>0.77833333333333332</v>
-      </c>
-      <c r="AF13" s="73" t="str">
-        <f>IF(AE13="","",INDEX(Grades!$B$12:$B$24,MATCH(AE13,Grades!$A$12:$A$24,1)))</f>
-        <v>C+</v>
-      </c>
-      <c r="AH13" s="82" t="s">
+      <c r="AF13" s="72">
+        <f>IF(SUM(C13:AD13)=0,"",$AF$9+AE13/(SUMIF(C13:AD13,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C13:AD13,"=E",$C$9:$AD$9)))</f>
+        <v>0.71846153846153848</v>
+      </c>
+      <c r="AG13" s="73" t="str">
+        <f>IF(AF13="","",INDEX(Grades!$B$12:$B$24,MATCH(AF13,Grades!$A$12:$A$24,1)))</f>
+        <v>C-</v>
+      </c>
+      <c r="AI13" s="82" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="B14" s="76" t="str">
@@ -2911,39 +2932,42 @@
       <c r="U14" s="77">
         <v>1</v>
       </c>
-      <c r="V14" s="77" t="s">
+      <c r="V14" s="77">
+        <v>1</v>
+      </c>
+      <c r="W14" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="W14" s="77"/>
       <c r="X14" s="77"/>
-      <c r="Y14" s="77">
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="77">
         <v>0.96</v>
       </c>
-      <c r="Z14" s="77">
+      <c r="AA14" s="77">
         <v>1.01</v>
       </c>
-      <c r="AA14" s="77"/>
       <c r="AB14" s="77"/>
       <c r="AC14" s="77"/>
-      <c r="AD14" s="71">
-        <f t="shared" si="0"/>
-        <v>581</v>
-      </c>
-      <c r="AE14" s="72">
-        <f t="shared" si="1"/>
-        <v>0.98474576271186443</v>
-      </c>
-      <c r="AF14" s="73" t="str">
-        <f>IF(AE14="","",INDEX(Grades!$B$12:$B$24,MATCH(AE14,Grades!$A$12:$A$24,1)))</f>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="71">
+        <f>IF(SUM(C14:AD14)=0,"",SUMPRODUCT(C14:AD14,$C$9:$AD$9))</f>
+        <v>631</v>
+      </c>
+      <c r="AF14" s="72">
+        <f>IF(SUM(C14:AD14)=0,"",$AF$9+AE14/(SUMIF(C14:AD14,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C14:AD14,"=E",$C$9:$AD$9)))</f>
+        <v>0.98593750000000002</v>
+      </c>
+      <c r="AG14" s="73" t="str">
+        <f>IF(AF14="","",INDEX(Grades!$B$12:$B$24,MATCH(AF14,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AH14" s="82" t="s">
+      <c r="AI14" s="82" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="B15" s="76" t="str">
@@ -2997,39 +3021,42 @@
       <c r="U15" s="77">
         <v>0</v>
       </c>
-      <c r="V15" s="77" t="s">
+      <c r="V15" s="77">
+        <v>1</v>
+      </c>
+      <c r="W15" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="W15" s="77"/>
       <c r="X15" s="77"/>
-      <c r="Y15" s="77">
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="77">
         <v>0.995</v>
       </c>
-      <c r="Z15" s="77">
+      <c r="AA15" s="77">
         <v>0.97499999999999998</v>
       </c>
-      <c r="AA15" s="77"/>
       <c r="AB15" s="77"/>
       <c r="AC15" s="77"/>
-      <c r="AD15" s="71">
-        <f t="shared" si="0"/>
-        <v>533</v>
-      </c>
-      <c r="AE15" s="72">
-        <f t="shared" si="1"/>
-        <v>0.88833333333333331</v>
-      </c>
-      <c r="AF15" s="73" t="str">
-        <f>IF(AE15="","",INDEX(Grades!$B$12:$B$24,MATCH(AE15,Grades!$A$12:$A$24,1)))</f>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="71">
+        <f>IF(SUM(C15:AD15)=0,"",SUMPRODUCT(C15:AD15,$C$9:$AD$9))</f>
+        <v>583</v>
+      </c>
+      <c r="AF15" s="72">
+        <f>IF(SUM(C15:AD15)=0,"",$AF$9+AE15/(SUMIF(C15:AD15,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C15:AD15,"=E",$C$9:$AD$9)))</f>
+        <v>0.89692307692307693</v>
+      </c>
+      <c r="AG15" s="73" t="str">
+        <f>IF(AF15="","",INDEX(Grades!$B$12:$B$24,MATCH(AF15,Grades!$A$12:$A$24,1)))</f>
         <v>B+</v>
       </c>
-      <c r="AH15" s="82" t="s">
+      <c r="AI15" s="82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="B16" s="76" t="str">
@@ -3083,39 +3110,42 @@
       <c r="U16" s="77">
         <v>1</v>
       </c>
-      <c r="V16" s="77" t="s">
+      <c r="V16" s="77">
+        <v>1</v>
+      </c>
+      <c r="W16" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="W16" s="77"/>
       <c r="X16" s="77"/>
-      <c r="Y16" s="77">
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="77">
         <v>0.99</v>
       </c>
-      <c r="Z16" s="77">
+      <c r="AA16" s="77">
         <v>0.93500000000000005</v>
       </c>
-      <c r="AA16" s="77"/>
       <c r="AB16" s="77"/>
       <c r="AC16" s="77"/>
-      <c r="AD16" s="71">
-        <f t="shared" si="0"/>
-        <v>580.25</v>
-      </c>
-      <c r="AE16" s="72">
-        <f t="shared" si="1"/>
-        <v>0.96708333333333329</v>
-      </c>
-      <c r="AF16" s="73" t="str">
-        <f>IF(AE16="","",INDEX(Grades!$B$12:$B$24,MATCH(AE16,Grades!$A$12:$A$24,1)))</f>
+      <c r="AD16" s="77"/>
+      <c r="AE16" s="71">
+        <f>IF(SUM(C16:AD16)=0,"",SUMPRODUCT(C16:AD16,$C$9:$AD$9))</f>
+        <v>630.25</v>
+      </c>
+      <c r="AF16" s="72">
+        <f>IF(SUM(C16:AD16)=0,"",$AF$9+AE16/(SUMIF(C16:AD16,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C16:AD16,"=E",$C$9:$AD$9)))</f>
+        <v>0.96961538461538466</v>
+      </c>
+      <c r="AG16" s="73" t="str">
+        <f>IF(AF16="","",INDEX(Grades!$B$12:$B$24,MATCH(AF16,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AH16" s="82" t="s">
+      <c r="AI16" s="82" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="B17" s="76" t="str">
@@ -3169,39 +3199,42 @@
       <c r="U17" s="77">
         <v>1</v>
       </c>
-      <c r="V17" s="77" t="s">
+      <c r="V17" s="77">
+        <v>1</v>
+      </c>
+      <c r="W17" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="W17" s="77"/>
       <c r="X17" s="77"/>
-      <c r="Y17" s="77">
-        <v>0.94</v>
-      </c>
+      <c r="Y17" s="77"/>
       <c r="Z17" s="77">
         <v>0.94</v>
       </c>
-      <c r="AA17" s="77"/>
+      <c r="AA17" s="77">
+        <v>0.94</v>
+      </c>
       <c r="AB17" s="77"/>
       <c r="AC17" s="77"/>
-      <c r="AD17" s="71">
-        <f t="shared" si="0"/>
-        <v>577</v>
-      </c>
-      <c r="AE17" s="72">
-        <f t="shared" si="1"/>
-        <v>0.96166666666666667</v>
-      </c>
-      <c r="AF17" s="73" t="str">
-        <f>IF(AE17="","",INDEX(Grades!$B$12:$B$24,MATCH(AE17,Grades!$A$12:$A$24,1)))</f>
+      <c r="AD17" s="77"/>
+      <c r="AE17" s="71">
+        <f>IF(SUM(C17:AD17)=0,"",SUMPRODUCT(C17:AD17,$C$9:$AD$9))</f>
+        <v>627</v>
+      </c>
+      <c r="AF17" s="72">
+        <f>IF(SUM(C17:AD17)=0,"",$AF$9+AE17/(SUMIF(C17:AD17,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C17:AD17,"=E",$C$9:$AD$9)))</f>
+        <v>0.96461538461538465</v>
+      </c>
+      <c r="AG17" s="73" t="str">
+        <f>IF(AF17="","",INDEX(Grades!$B$12:$B$24,MATCH(AF17,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AH17" s="82" t="s">
+      <c r="AI17" s="82" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="B18" s="76" t="str">
@@ -3255,39 +3288,42 @@
       <c r="U18" s="77">
         <v>0.85</v>
       </c>
-      <c r="V18" s="77" t="s">
+      <c r="V18" s="77">
+        <v>1</v>
+      </c>
+      <c r="W18" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="W18" s="77"/>
       <c r="X18" s="77"/>
-      <c r="Y18" s="77">
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="77">
         <v>0.96</v>
       </c>
-      <c r="Z18" s="77">
+      <c r="AA18" s="77">
         <v>0.96499999999999997</v>
       </c>
-      <c r="AA18" s="77"/>
       <c r="AB18" s="77"/>
       <c r="AC18" s="77"/>
-      <c r="AD18" s="71">
-        <f t="shared" si="0"/>
-        <v>576.75</v>
-      </c>
-      <c r="AE18" s="72">
-        <f t="shared" si="1"/>
-        <v>0.96125000000000005</v>
-      </c>
-      <c r="AF18" s="73" t="str">
-        <f>IF(AE18="","",INDEX(Grades!$B$12:$B$24,MATCH(AE18,Grades!$A$12:$A$24,1)))</f>
+      <c r="AD18" s="77"/>
+      <c r="AE18" s="71">
+        <f>IF(SUM(C18:AD18)=0,"",SUMPRODUCT(C18:AD18,$C$9:$AD$9))</f>
+        <v>626.75</v>
+      </c>
+      <c r="AF18" s="72">
+        <f>IF(SUM(C18:AD18)=0,"",$AF$9+AE18/(SUMIF(C18:AD18,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C18:AD18,"=E",$C$9:$AD$9)))</f>
+        <v>0.96423076923076922</v>
+      </c>
+      <c r="AG18" s="73" t="str">
+        <f>IF(AF18="","",INDEX(Grades!$B$12:$B$24,MATCH(AF18,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AH18" s="82" t="s">
+      <c r="AI18" s="82" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
       <c r="B19" s="76" t="str">
@@ -3341,39 +3377,42 @@
       <c r="U19" s="77">
         <v>1</v>
       </c>
-      <c r="V19" s="77" t="s">
+      <c r="V19" s="77">
+        <v>1</v>
+      </c>
+      <c r="W19" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="W19" s="77"/>
       <c r="X19" s="77"/>
-      <c r="Y19" s="77">
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="77">
         <v>0.99</v>
       </c>
-      <c r="Z19" s="77">
+      <c r="AA19" s="77">
         <v>0.94</v>
       </c>
-      <c r="AA19" s="77"/>
       <c r="AB19" s="77"/>
       <c r="AC19" s="77"/>
-      <c r="AD19" s="71">
-        <f t="shared" si="0"/>
-        <v>587</v>
-      </c>
-      <c r="AE19" s="72">
-        <f t="shared" si="1"/>
-        <v>0.97833333333333339</v>
-      </c>
-      <c r="AF19" s="73" t="str">
-        <f>IF(AE19="","",INDEX(Grades!$B$12:$B$24,MATCH(AE19,Grades!$A$12:$A$24,1)))</f>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="71">
+        <f>IF(SUM(C19:AD19)=0,"",SUMPRODUCT(C19:AD19,$C$9:$AD$9))</f>
+        <v>637</v>
+      </c>
+      <c r="AF19" s="72">
+        <f>IF(SUM(C19:AD19)=0,"",$AF$9+AE19/(SUMIF(C19:AD19,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C19:AD19,"=E",$C$9:$AD$9)))</f>
+        <v>0.98</v>
+      </c>
+      <c r="AG19" s="73" t="str">
+        <f>IF(AF19="","",INDEX(Grades!$B$12:$B$24,MATCH(AF19,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AH19" s="82" t="s">
+      <c r="AI19" s="82" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
       <c r="B20" s="76" t="str">
@@ -3427,39 +3466,42 @@
       <c r="U20" s="77">
         <v>0.85</v>
       </c>
-      <c r="V20" s="77" t="s">
+      <c r="V20" s="77">
+        <v>1</v>
+      </c>
+      <c r="W20" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="W20" s="77"/>
       <c r="X20" s="77"/>
-      <c r="Y20" s="77">
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="77">
         <v>0.97</v>
       </c>
-      <c r="Z20" s="77">
+      <c r="AA20" s="77">
         <v>0.85</v>
       </c>
-      <c r="AA20" s="77"/>
       <c r="AB20" s="77"/>
       <c r="AC20" s="77"/>
-      <c r="AD20" s="71">
-        <f t="shared" si="0"/>
-        <v>534.5</v>
-      </c>
-      <c r="AE20" s="72">
-        <f t="shared" si="1"/>
-        <v>0.89083333333333337</v>
-      </c>
-      <c r="AF20" s="73" t="str">
-        <f>IF(AE20="","",INDEX(Grades!$B$12:$B$24,MATCH(AE20,Grades!$A$12:$A$24,1)))</f>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="71">
+        <f>IF(SUM(C20:AD20)=0,"",SUMPRODUCT(C20:AD20,$C$9:$AD$9))</f>
+        <v>584.5</v>
+      </c>
+      <c r="AF20" s="72">
+        <f>IF(SUM(C20:AD20)=0,"",$AF$9+AE20/(SUMIF(C20:AD20,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C20:AD20,"=E",$C$9:$AD$9)))</f>
+        <v>0.89923076923076928</v>
+      </c>
+      <c r="AG20" s="73" t="str">
+        <f>IF(AF20="","",INDEX(Grades!$B$12:$B$24,MATCH(AF20,Grades!$A$12:$A$24,1)))</f>
         <v>B+</v>
       </c>
-      <c r="AH20" s="82" t="s">
+      <c r="AI20" s="82" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="B21" s="76" t="str">
@@ -3513,37 +3555,40 @@
       <c r="U21" s="77">
         <v>1</v>
       </c>
-      <c r="V21" s="77" t="s">
+      <c r="V21" s="77">
+        <v>1</v>
+      </c>
+      <c r="W21" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="W21" s="77"/>
       <c r="X21" s="77"/>
-      <c r="Y21" s="77">
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="77">
         <v>1.02</v>
       </c>
-      <c r="Z21" s="77">
+      <c r="AA21" s="77">
         <v>0.97</v>
       </c>
-      <c r="AA21" s="77"/>
       <c r="AB21" s="77"/>
       <c r="AC21" s="77"/>
-      <c r="AD21" s="71">
-        <f t="shared" si="0"/>
-        <v>590</v>
-      </c>
-      <c r="AE21" s="72">
-        <f t="shared" si="1"/>
-        <v>0.98333333333333328</v>
-      </c>
-      <c r="AF21" s="73" t="str">
-        <f>IF(AE21="","",INDEX(Grades!$B$12:$B$24,MATCH(AE21,Grades!$A$12:$A$24,1)))</f>
+      <c r="AD21" s="77"/>
+      <c r="AE21" s="71">
+        <f>IF(SUM(C21:AD21)=0,"",SUMPRODUCT(C21:AD21,$C$9:$AD$9))</f>
+        <v>640</v>
+      </c>
+      <c r="AF21" s="72">
+        <f>IF(SUM(C21:AD21)=0,"",$AF$9+AE21/(SUMIF(C21:AD21,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C21:AD21,"=E",$C$9:$AD$9)))</f>
+        <v>0.98461538461538467</v>
+      </c>
+      <c r="AG21" s="73" t="str">
+        <f>IF(AF21="","",INDEX(Grades!$B$12:$B$24,MATCH(AF21,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AH21" s="82"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AI21" s="82"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
       <c r="B22" s="76" t="str">
@@ -3597,42 +3642,45 @@
       <c r="U22" s="77">
         <v>1</v>
       </c>
-      <c r="V22" s="77" t="s">
+      <c r="V22" s="77">
+        <v>1</v>
+      </c>
+      <c r="W22" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="W22" s="77"/>
       <c r="X22" s="77"/>
-      <c r="Y22" s="77">
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="77">
         <v>0.69</v>
       </c>
-      <c r="Z22" s="77">
+      <c r="AA22" s="77">
         <v>0.85499999999999998</v>
       </c>
-      <c r="AA22" s="77"/>
       <c r="AB22" s="77"/>
       <c r="AC22" s="77"/>
-      <c r="AD22" s="71">
-        <f t="shared" si="0"/>
-        <v>521.5</v>
-      </c>
-      <c r="AE22" s="72">
-        <f t="shared" si="1"/>
-        <v>0.86916666666666664</v>
-      </c>
-      <c r="AF22" s="73" t="str">
-        <f>IF(AE22="","",INDEX(Grades!$B$12:$B$24,MATCH(AE22,Grades!$A$12:$A$24,1)))</f>
+      <c r="AD22" s="77"/>
+      <c r="AE22" s="71">
+        <f>IF(SUM(C22:AD22)=0,"",SUMPRODUCT(C22:AD22,$C$9:$AD$9))</f>
+        <v>571.5</v>
+      </c>
+      <c r="AF22" s="72">
+        <f>IF(SUM(C22:AD22)=0,"",$AF$9+AE22/(SUMIF(C22:AD22,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C22:AD22,"=E",$C$9:$AD$9)))</f>
+        <v>0.87923076923076926</v>
+      </c>
+      <c r="AG22" s="73" t="str">
+        <f>IF(AF22="","",INDEX(Grades!$B$12:$B$24,MATCH(AF22,Grades!$A$12:$A$24,1)))</f>
         <v>B+</v>
       </c>
-      <c r="AH22" s="84" t="s">
+      <c r="AI22" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="AI22" s="85" t="s">
+      <c r="AJ22" s="85" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="B23" s="76" t="str">
@@ -3686,36 +3734,39 @@
       <c r="U23" s="77">
         <v>1</v>
       </c>
-      <c r="V23" s="77" t="s">
+      <c r="V23" s="77">
+        <v>1</v>
+      </c>
+      <c r="W23" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="W23" s="77"/>
       <c r="X23" s="77"/>
-      <c r="Y23" s="77">
+      <c r="Y23" s="77"/>
+      <c r="Z23" s="77">
         <v>1.01</v>
       </c>
-      <c r="Z23" s="77">
+      <c r="AA23" s="77">
         <v>0.98499999999999999</v>
       </c>
-      <c r="AA23" s="77"/>
       <c r="AB23" s="77"/>
       <c r="AC23" s="77"/>
-      <c r="AD23" s="71">
-        <f t="shared" si="0"/>
-        <v>590.75</v>
-      </c>
-      <c r="AE23" s="72">
-        <f t="shared" si="1"/>
-        <v>0.98458333333333337</v>
-      </c>
-      <c r="AF23" s="73" t="str">
-        <f>IF(AE23="","",INDEX(Grades!$B$12:$B$24,MATCH(AE23,Grades!$A$12:$A$24,1)))</f>
+      <c r="AD23" s="77"/>
+      <c r="AE23" s="71">
+        <f>IF(SUM(C23:AD23)=0,"",SUMPRODUCT(C23:AD23,$C$9:$AD$9))</f>
+        <v>640.75</v>
+      </c>
+      <c r="AF23" s="72">
+        <f>IF(SUM(C23:AD23)=0,"",$AF$9+AE23/(SUMIF(C23:AD23,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C23:AD23,"=E",$C$9:$AD$9)))</f>
+        <v>0.98576923076923073</v>
+      </c>
+      <c r="AG23" s="73" t="str">
+        <f>IF(AF23="","",INDEX(Grades!$B$12:$B$24,MATCH(AF23,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
       <c r="B24" s="76" t="str">
@@ -3769,41 +3820,44 @@
       <c r="U24" s="77">
         <v>1</v>
       </c>
-      <c r="V24" s="77" t="s">
+      <c r="V24" s="77">
+        <v>1</v>
+      </c>
+      <c r="W24" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="W24" s="77"/>
       <c r="X24" s="77"/>
-      <c r="Y24" s="77">
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="77">
         <v>1.03</v>
       </c>
-      <c r="Z24" s="77">
+      <c r="AA24" s="77">
         <v>1.01</v>
       </c>
-      <c r="AA24" s="77"/>
       <c r="AB24" s="77"/>
       <c r="AC24" s="77"/>
-      <c r="AD24" s="71">
-        <f t="shared" si="0"/>
-        <v>606</v>
-      </c>
-      <c r="AE24" s="72">
-        <f t="shared" si="1"/>
-        <v>1.01</v>
-      </c>
-      <c r="AF24" s="73" t="str">
-        <f>IF(AE24="","",INDEX(Grades!$B$12:$B$24,MATCH(AE24,Grades!$A$12:$A$24,1)))</f>
+      <c r="AD24" s="77"/>
+      <c r="AE24" s="71">
+        <f>IF(SUM(C24:AD24)=0,"",SUMPRODUCT(C24:AD24,$C$9:$AD$9))</f>
+        <v>656</v>
+      </c>
+      <c r="AF24" s="72">
+        <f>IF(SUM(C24:AD24)=0,"",$AF$9+AE24/(SUMIF(C24:AD24,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C24:AD24,"=E",$C$9:$AD$9)))</f>
+        <v>1.0092307692307692</v>
+      </c>
+      <c r="AG24" s="73" t="str">
+        <f>IF(AF24="","",INDEX(Grades!$B$12:$B$24,MATCH(AF24,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AH24" s="86" t="s">
+      <c r="AI24" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="AI24" s="87" t="b">
-        <f>AI22="Yes"</f>
+      <c r="AJ24" s="87" t="b">
+        <f>AJ22="Yes"</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A25" s="31" t="s">
         <v>65</v>
       </c>
@@ -3835,60 +3889,61 @@
       <c r="AA25" s="75"/>
       <c r="AB25" s="75"/>
       <c r="AC25" s="75"/>
-      <c r="AD25" s="71" t="str">
-        <f t="shared" si="0"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="71" t="str">
+        <f>IF(SUM(C25:AD25)=0,"",SUMPRODUCT(C25:AD25,$C$9:$AD$9))</f>
         <v/>
       </c>
-      <c r="AE25" s="72" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF25" s="72" t="str">
+        <f>IF(SUM(C25:AD25)=0,"",$AF$9+AE25/(SUMIF(C25:AD25,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C25:AD25,"=E",$C$9:$AD$9)))</f>
         <v/>
       </c>
-      <c r="AF25" s="73" t="str">
-        <f>IF(AE25="","",INDEX(Grades!$B$12:$B$24,MATCH(AE25,Grades!$A$12:$A$24,1)))</f>
+      <c r="AG25" s="73" t="str">
+        <f>IF(AF25="","",INDEX(Grades!$B$12:$B$24,MATCH(AF25,Grades!$A$12:$A$24,1)))</f>
         <v/>
       </c>
-      <c r="AH25" s="82" t="s">
+      <c r="AI25" s="82" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B26" s="69" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="70">
-        <f t="shared" ref="C26:K26" si="3">IF(SUM(C12:C25)=0,"",AVERAGE(C12:C25))</f>
+        <f t="shared" ref="C26:K26" si="1">IF(SUM(C12:C25)=0,"",AVERAGE(C12:C25))</f>
         <v>1</v>
       </c>
       <c r="D26" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.99615384615384606</v>
       </c>
       <c r="E26" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F26" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.97692307692307689</v>
       </c>
       <c r="G26" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.97692307692307689</v>
       </c>
       <c r="H26" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.98846153846153839</v>
       </c>
       <c r="I26" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.98846153846153839</v>
       </c>
       <c r="J26" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K26" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L26" s="70"/>
@@ -3912,80 +3967,81 @@
       <c r="U26" s="70"/>
       <c r="V26" s="70"/>
       <c r="W26" s="70"/>
-      <c r="X26" s="70" t="str">
-        <f t="shared" ref="X26:AC26" si="4">IF(SUM(X12:X25)=0,"",AVERAGE(X12:X25))</f>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70" t="str">
+        <f t="shared" ref="Y26:AD26" si="2">IF(SUM(Y12:Y25)=0,"",AVERAGE(Y12:Y25))</f>
         <v/>
       </c>
-      <c r="Y26" s="70">
-        <f t="shared" si="4"/>
+      <c r="Z26" s="70">
+        <f t="shared" si="2"/>
         <v>0.95653846153846145</v>
       </c>
-      <c r="Z26" s="70">
-        <f t="shared" si="4"/>
+      <c r="AA26" s="70">
+        <f t="shared" si="2"/>
         <v>0.91423076923076918</v>
       </c>
-      <c r="AA26" s="70" t="str">
-        <f t="shared" si="4"/>
+      <c r="AB26" s="70" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AB26" s="70" t="str">
-        <f t="shared" si="4"/>
+      <c r="AC26" s="70" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AC26" s="70" t="str">
-        <f t="shared" si="4"/>
+      <c r="AD26" s="70" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD26" s="19" t="s">
+      <c r="AE26" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AE26" s="67">
-        <f>AVERAGE(AE12:AE25)</f>
-        <v>0.94078172533681004</v>
-      </c>
-      <c r="AF26" s="68" t="str">
-        <f>IF(AE26="","",INDEX(Grades!$B$12:$B$24,MATCH(AE26,Grades!$A$12:$A$24,1)))</f>
+      <c r="AF26" s="67">
+        <f>AVERAGE(AF12:AF25)</f>
+        <v>0.93942122781065085</v>
+      </c>
+      <c r="AG26" s="68" t="str">
+        <f>IF(AF26="","",INDEX(Grades!$B$12:$B$24,MATCH(AF26,Grades!$A$12:$A$24,1)))</f>
         <v>A</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B27" s="69" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="70">
-        <f t="shared" ref="C27:K27" si="5">IF(OR(C9=0,C26=""),"",MEDIAN(C12:C25))</f>
+        <f t="shared" ref="C27:K27" si="3">IF(OR(C9=0,C26=""),"",MEDIAN(C12:C25))</f>
         <v>1</v>
       </c>
       <c r="D27" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E27" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F27" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G27" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H27" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I27" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J27" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K27" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L27" s="70"/>
@@ -3998,87 +4054,88 @@
         <v/>
       </c>
       <c r="R27" s="70">
-        <f t="shared" ref="R27:S27" si="6">IF(OR(R9=0,R26=""),"",MEDIAN(R12:R25))</f>
+        <f t="shared" ref="R27:S27" si="4">IF(OR(R9=0,R26=""),"",MEDIAN(R12:R25))</f>
         <v>1</v>
       </c>
       <c r="S27" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
       <c r="T27" s="70"/>
       <c r="U27" s="70"/>
       <c r="V27" s="70"/>
       <c r="W27" s="70"/>
-      <c r="X27" s="70" t="str">
-        <f t="shared" ref="X27:AC27" si="7">IF(OR(X9=0,X26=""),"",MEDIAN(X12:X25))</f>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70" t="str">
+        <f t="shared" ref="Y27:AD27" si="5">IF(OR(Y9=0,Y26=""),"",MEDIAN(Y12:Y25))</f>
         <v/>
       </c>
-      <c r="Y27" s="70">
-        <f t="shared" si="7"/>
+      <c r="Z27" s="70">
+        <f t="shared" si="5"/>
         <v>0.97499999999999998</v>
       </c>
-      <c r="Z27" s="70">
-        <f t="shared" si="7"/>
+      <c r="AA27" s="70">
+        <f t="shared" si="5"/>
         <v>0.94499999999999995</v>
       </c>
-      <c r="AA27" s="70" t="str">
-        <f t="shared" si="7"/>
+      <c r="AB27" s="70" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AB27" s="70" t="str">
-        <f t="shared" si="7"/>
+      <c r="AC27" s="70" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC27" s="70" t="str">
-        <f t="shared" si="7"/>
+      <c r="AD27" s="70" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AD27" s="19" t="s">
+      <c r="AE27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AE27" s="67">
-        <f>MEDIAN(AE12:AE25)</f>
-        <v>0.96708333333333329</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AF27" s="67">
+        <f>MEDIAN(AF12:AF25)</f>
+        <v>0.96961538461538466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B28" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="70">
-        <f t="shared" ref="C28:K28" si="8">IF(OR(C9=0,C26=""),"",STDEV(C12:C25))</f>
+        <f t="shared" ref="C28:K28" si="6">IF(OR(C9=0,C26=""),"",STDEV(C12:C25))</f>
         <v>0</v>
       </c>
       <c r="D28" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.3867504905630743E-2</v>
       </c>
       <c r="E28" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F28" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.6330071214910814E-2</v>
       </c>
       <c r="G28" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8.3205029433784355E-2</v>
       </c>
       <c r="H28" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.1602514716892199E-2</v>
       </c>
       <c r="I28" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.1602514716892199E-2</v>
       </c>
       <c r="J28" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K28" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L28" s="70"/>
@@ -4091,61 +4148,62 @@
         <v/>
       </c>
       <c r="R28" s="70">
-        <f t="shared" ref="R28:S28" si="9">IF(OR(R9=0,R26=""),"",STDEV(R12:R25))</f>
+        <f t="shared" ref="R28:S28" si="7">IF(OR(R9=0,R26=""),"",STDEV(R12:R25))</f>
         <v>2.5318484177091691E-2</v>
       </c>
       <c r="S28" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.22558613114307899</v>
       </c>
       <c r="T28" s="70"/>
       <c r="U28" s="70"/>
       <c r="V28" s="70"/>
       <c r="W28" s="70"/>
-      <c r="X28" s="70" t="str">
-        <f t="shared" ref="X28:AC28" si="10">IF(OR(X9=0,X26=""),"",STDEV(X12:X25))</f>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="70" t="str">
+        <f t="shared" ref="Y28:AD28" si="8">IF(OR(Y9=0,Y26=""),"",STDEV(Y12:Y25))</f>
         <v/>
       </c>
-      <c r="Y28" s="70">
-        <f t="shared" si="10"/>
+      <c r="Z28" s="70">
+        <f t="shared" si="8"/>
         <v>8.6851996124264363E-2</v>
       </c>
-      <c r="Z28" s="70">
-        <f t="shared" si="10"/>
+      <c r="AA28" s="70">
+        <f t="shared" si="8"/>
         <v>0.13245826628675214</v>
       </c>
-      <c r="AA28" s="70" t="str">
-        <f t="shared" si="10"/>
+      <c r="AB28" s="70" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AB28" s="70" t="str">
-        <f t="shared" si="10"/>
+      <c r="AC28" s="70" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AC28" s="70" t="str">
-        <f t="shared" si="10"/>
+      <c r="AD28" s="70" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AD28" s="19" t="s">
+      <c r="AE28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AE28" s="67">
-        <f>STDEV(AE12:AE25)</f>
-        <v>6.5307080111410176E-2</v>
-      </c>
-      <c r="AF28" s="31" t="s">
+      <c r="AF28" s="67">
+        <f>STDEV(AF12:AF25)</f>
+        <v>7.7536248331331728E-2</v>
+      </c>
+      <c r="AG28" s="31" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ22">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AH3" r:id="rId1"/>
+    <hyperlink ref="AI3" r:id="rId1"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -5183,7 +5241,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A12)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A12,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A12)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A12,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D12" s="16">
@@ -5199,7 +5257,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A13)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A13,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A13)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A13,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D13" s="16">
@@ -5216,7 +5274,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A14)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A14,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A14)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A14,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D14" s="16">
@@ -5233,7 +5291,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A15)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A15,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A15)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A15,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D15" s="16">
@@ -5249,12 +5307,12 @@
         <v>15</v>
       </c>
       <c r="C16" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A16)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A16,1,0,1,1))</f>
-        <v>0</v>
+        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A16)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A16,1,0,1,1))</f>
+        <v>1</v>
       </c>
       <c r="D16" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>65</v>
@@ -5269,7 +5327,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A17)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A17,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A17)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A17,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D17" s="16">
@@ -5286,12 +5344,12 @@
         <v>13</v>
       </c>
       <c r="C18" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A18)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A18,1,0,1,1))</f>
-        <v>1</v>
+        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A18)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A18,1,0,1,1))</f>
+        <v>0</v>
       </c>
       <c r="D18" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -5302,7 +5360,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A19)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A19,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A19)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A19,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D19" s="16">
@@ -5319,7 +5377,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A20)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A20,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A20)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A20,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D20" s="16">
@@ -5336,7 +5394,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A21)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A21,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A21)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A21,1,0,1,1))</f>
         <v>3</v>
       </c>
       <c r="D21" s="16">
@@ -5352,7 +5410,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A22)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A22,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A22)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A22,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D22" s="16">
@@ -5369,7 +5427,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A23)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A23,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A23)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A23,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D23" s="16">
@@ -5386,7 +5444,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;A24)-COUNTIF(Gradebook!$AE$12:$AE$25,"&gt;="&amp;OFFSET(A24,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A24)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A24,1,0,1,1))</f>
         <v>9</v>
       </c>
       <c r="D24" s="29">
@@ -5413,8 +5471,8 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54">
-        <f>Gradebook!$AE$26</f>
-        <v>0.94078172533681004</v>
+        <f>Gradebook!$AF$26</f>
+        <v>0.93942122781065085</v>
       </c>
       <c r="B28" s="55" t="str">
         <f>INDEX(B12:B24,MATCH(A28,A12:A24,1))</f>
@@ -5426,8 +5484,8 @@
         <v>49</v>
       </c>
       <c r="B30" s="54">
-        <f>Gradebook!AE27</f>
-        <v>0.96708333333333329</v>
+        <f>Gradebook!AF27</f>
+        <v>0.96961538461538466</v>
       </c>
       <c r="C30" s="63" t="s">
         <v>56</v>
@@ -5438,8 +5496,8 @@
         <v>50</v>
       </c>
       <c r="B31" s="54">
-        <f>Gradebook!AE28</f>
-        <v>6.5307080111410176E-2</v>
+        <f>Gradebook!AF28</f>
+        <v>7.7536248331331728E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5639,8 +5697,8 @@
         <v>0.9</v>
       </c>
       <c r="B53" s="27">
-        <f>PERCENTILE(Gradebook!$AE$12:$AE$25,A53)</f>
-        <v>0.98471327683615817</v>
+        <f>PERCENTILE(Gradebook!$AF$12:$AF$25,A53)</f>
+        <v>0.98590384615384619</v>
       </c>
       <c r="C53" s="63" t="s">
         <v>62</v>
@@ -5653,8 +5711,8 @@
         <v>0.65</v>
       </c>
       <c r="B54" s="27">
-        <f>PERCENTILE(Gradebook!$AE$12:$AE$25,A54)</f>
-        <v>0.97716666666666674</v>
+        <f>PERCENTILE(Gradebook!$AF$12:$AF$25,A54)</f>
+        <v>0.9789230769230769</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
@@ -5664,8 +5722,8 @@
         <v>0.35</v>
       </c>
       <c r="B55" s="27">
-        <f>PERCENTILE(Gradebook!$AE$12:$AE$25,A55)</f>
-        <v>0.96133333333333337</v>
+        <f>PERCENTILE(Gradebook!$AF$12:$AF$25,A55)</f>
+        <v>0.96430769230769231</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -5675,8 +5733,8 @@
         <v>0.1</v>
       </c>
       <c r="B56" s="27">
-        <f>PERCENTILE(Gradebook!$AE$12:$AE$25,A56)</f>
-        <v>0.873</v>
+        <f>PERCENTILE(Gradebook!$AF$12:$AF$25,A56)</f>
+        <v>0.88276923076923075</v>
       </c>
     </row>
   </sheetData>

--- a/libraries/assets/grades/gradebook_percentage.xlsx
+++ b/libraries/assets/grades/gradebook_percentage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="28680" windowHeight="17460"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="32980" windowHeight="17740"/>
   </bookViews>
   <sheets>
     <sheet name="Gradebook" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="©" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Gradebook!$A$1:$AG$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Gradebook!$A$1:$AH$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Grades!$A$1:$J$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Names!$A$1:$H$109</definedName>
-    <definedName name="displayID">Gradebook!$AJ$24</definedName>
+    <definedName name="displayID">Gradebook!$AK$24</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Gradebook!$6:$11</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
   <si>
     <t>Gradebook</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>Tarea 3</t>
+  </si>
+  <si>
+    <t>Pruebita 3</t>
   </si>
 </sst>
 </file>
@@ -959,7 +962,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,6 +970,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1211,13 +1215,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
@@ -1474,19 +1479,19 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1501,11 +1506,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2098713648"/>
-        <c:axId val="-2099713264"/>
+        <c:axId val="-2113217232"/>
+        <c:axId val="-2113209392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098713648"/>
+        <c:axId val="-2113217232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1540,7 +1545,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099713264"/>
+        <c:crossAx val="-2113209392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1550,7 +1555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2099713264"/>
+        <c:axId val="-2113209392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1624,7 +1629,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098713648"/>
+        <c:crossAx val="-2113217232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1679,13 +1684,13 @@
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
           <xdr:col>31</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>165100</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>34</xdr:col>
-          <xdr:colOff>1470611</xdr:colOff>
+          <xdr:col>35</xdr:col>
+          <xdr:colOff>937211</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1696,7 +1701,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1106"/>
+                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1112"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1728,13 +1733,13 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>1295400</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2242,28 +2247,28 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AK28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="3" customWidth="1"/>
-    <col min="3" max="19" width="7" style="3" customWidth="1"/>
-    <col min="20" max="22" width="8.33203125" style="3" customWidth="1"/>
-    <col min="23" max="30" width="7" style="3" customWidth="1"/>
-    <col min="31" max="31" width="8.5" style="3" customWidth="1"/>
-    <col min="32" max="32" width="7.5" style="3" customWidth="1"/>
-    <col min="33" max="33" width="8.83203125" style="3"/>
-    <col min="34" max="34" width="5.33203125" style="3" customWidth="1"/>
-    <col min="35" max="35" width="20.5" style="3" customWidth="1"/>
-    <col min="36" max="16384" width="8.83203125" style="3"/>
+    <col min="3" max="20" width="7" style="3" customWidth="1"/>
+    <col min="21" max="23" width="8.33203125" style="3" customWidth="1"/>
+    <col min="24" max="31" width="7" style="3" customWidth="1"/>
+    <col min="32" max="32" width="8.5" style="3" customWidth="1"/>
+    <col min="33" max="33" width="7.5" style="3" customWidth="1"/>
+    <col min="34" max="34" width="8.83203125" style="3"/>
+    <col min="35" max="35" width="5.33203125" style="3" customWidth="1"/>
+    <col min="36" max="36" width="20.5" style="3" customWidth="1"/>
+    <col min="37" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
@@ -2298,19 +2303,20 @@
       <c r="AD1" s="7"/>
       <c r="AE1" s="7"/>
       <c r="AF1" s="7"/>
-      <c r="AI1" s="15"/>
-    </row>
-    <row r="2" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AG1" s="7"/>
+      <c r="AJ1" s="15"/>
+    </row>
+    <row r="2" spans="1:36" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="12" t="s">
         <v>132</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="AI2" s="46" t="s">
+      <c r="AJ2" s="46" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="11" t="s">
         <v>133</v>
@@ -2345,24 +2351,25 @@
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
-      <c r="AI3" s="22" t="s">
+      <c r="AG3" s="7"/>
+      <c r="AJ3" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="11" t="s">
         <v>134</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="AC4" s="80" t="s">
+      <c r="AD4" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="AD4" s="81" t="s">
+      <c r="AE4" s="81" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2392,8 +2399,9 @@
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
-    </row>
-    <row r="6" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AF5" s="4"/>
+    </row>
+    <row r="6" spans="1:36" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="4"/>
       <c r="C6" s="65" t="s">
         <v>1</v>
@@ -2425,9 +2433,10 @@
       <c r="AB6" s="66"/>
       <c r="AC6" s="66"/>
       <c r="AD6" s="66"/>
-      <c r="AE6" s="4"/>
-    </row>
-    <row r="7" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="4"/>
+    </row>
+    <row r="7" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
       <c r="C7" s="94" t="s">
         <v>140</v>
@@ -2453,21 +2462,22 @@
       <c r="T7" s="96"/>
       <c r="U7" s="96"/>
       <c r="V7" s="96"/>
-      <c r="W7" s="96" t="s">
+      <c r="W7" s="96"/>
+      <c r="X7" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="95"/>
-      <c r="Z7" s="95" t="s">
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="AA7" s="95"/>
       <c r="AB7" s="95"/>
       <c r="AC7" s="95"/>
       <c r="AD7" s="95"/>
-      <c r="AE7" s="4"/>
-    </row>
-    <row r="8" spans="1:35" ht="67" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="4"/>
+    </row>
+    <row r="8" spans="1:36" ht="67" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="91" t="s">
@@ -2522,41 +2532,44 @@
         <v>152</v>
       </c>
       <c r="T8" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="U8" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="U8" s="91" t="s">
+      <c r="V8" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="V8" s="91" t="s">
+      <c r="W8" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="W8" s="91" t="s">
+      <c r="X8" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="X8" s="91" t="s">
+      <c r="Y8" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="Y8" s="91" t="s">
+      <c r="Z8" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="Z8" s="91" t="s">
+      <c r="AA8" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="AA8" s="91" t="s">
+      <c r="AB8" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="AB8" s="91" t="s">
+      <c r="AC8" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="AC8" s="91" t="s">
+      <c r="AD8" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="AD8" s="79" t="s">
+      <c r="AE8" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AE8" s="4"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AF8" s="4"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="21" t="s">
         <v>35</v>
@@ -2613,7 +2626,7 @@
         <v>50</v>
       </c>
       <c r="T9" s="14">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="U9" s="14">
         <v>50</v>
@@ -2621,11 +2634,11 @@
       <c r="V9" s="14">
         <v>50</v>
       </c>
-      <c r="W9" s="14"/>
+      <c r="W9" s="14">
+        <v>50</v>
+      </c>
       <c r="X9" s="14"/>
-      <c r="Y9" s="14">
-        <v>150</v>
-      </c>
+      <c r="Y9" s="14"/>
       <c r="Z9" s="14">
         <v>150</v>
       </c>
@@ -2639,20 +2652,23 @@
         <v>150</v>
       </c>
       <c r="AD9" s="14">
+        <v>150</v>
+      </c>
+      <c r="AE9" s="14">
         <v>1000</v>
       </c>
-      <c r="AE9" s="34" t="s">
+      <c r="AF9" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="AF9" s="78">
+      <c r="AG9" s="78">
         <v>0</v>
       </c>
-      <c r="AI9" s="83" t="s">
+      <c r="AJ9" s="83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:36" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="12" t="s">
         <v>51</v>
@@ -2685,20 +2701,21 @@
       <c r="AB11" s="20"/>
       <c r="AC11" s="20"/>
       <c r="AD11" s="20"/>
-      <c r="AE11" s="8" t="s">
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AF11" s="8" t="s">
+      <c r="AG11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AG11" s="8" t="s">
+      <c r="AH11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AI11" s="82" t="s">
+      <c r="AJ11" s="82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <f ca="1">OFFSET(A12,-1,0,1,1)+1</f>
         <v>1</v>
@@ -2737,8 +2754,12 @@
       <c r="L12" s="77">
         <v>1</v>
       </c>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
+      <c r="M12" s="77">
+        <v>1</v>
+      </c>
+      <c r="N12" s="77">
+        <v>1</v>
+      </c>
       <c r="O12" s="77"/>
       <c r="P12" s="77"/>
       <c r="Q12" s="77"/>
@@ -2749,7 +2770,7 @@
         <v>0.91</v>
       </c>
       <c r="T12" s="77">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="U12" s="77">
         <v>1</v>
@@ -2757,39 +2778,44 @@
       <c r="V12" s="77">
         <v>1</v>
       </c>
-      <c r="W12" s="77" t="s">
+      <c r="W12" s="77">
+        <v>1</v>
+      </c>
+      <c r="X12" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="X12" s="77"/>
       <c r="Y12" s="77"/>
-      <c r="Z12" s="77">
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77">
         <v>0.97499999999999998</v>
       </c>
-      <c r="AA12" s="77">
+      <c r="AB12" s="77">
         <v>0.94499999999999995</v>
       </c>
-      <c r="AB12" s="77"/>
-      <c r="AC12" s="77"/>
+      <c r="AC12" s="77">
+        <v>1.01</v>
+      </c>
       <c r="AD12" s="77"/>
-      <c r="AE12" s="71">
-        <f>IF(SUM(C12:AD12)=0,"",SUMPRODUCT(C12:AD12,$C$9:$AD$9))</f>
-        <v>633.5</v>
-      </c>
-      <c r="AF12" s="72">
-        <f>IF(SUM(C12:AD12)=0,"",$AF$9+AE12/(SUMIF(C12:AD12,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C12:AD12,"=E",$C$9:$AD$9)))</f>
-        <v>0.97461538461538466</v>
-      </c>
-      <c r="AG12" s="73" t="str">
-        <f>IF(AF12="","",INDEX(Grades!$B$12:$B$24,MATCH(AF12,Grades!$A$12:$A$24,1)))</f>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="71">
+        <f t="shared" ref="AF12:AF25" si="0">IF(SUM(C12:AE12)=0,"",SUMPRODUCT(C12:AE12,$C$9:$AE$9))</f>
+        <v>824</v>
+      </c>
+      <c r="AG12" s="72">
+        <f t="shared" ref="AG12:AG25" si="1">IF(SUM(C12:AE12)=0,"",$AG$9+AF12/(SUMIF(C12:AE12,"&lt;&gt;",$C$9:$AE$9)-SUMIF(C12:AE12,"=E",$C$9:$AE$9)))</f>
+        <v>0.98095238095238091</v>
+      </c>
+      <c r="AH12" s="73" t="str">
+        <f>IF(AG12="","",INDEX(Grades!$B$12:$B$24,MATCH(AG12,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AI12" s="82" t="s">
+      <c r="AJ12" s="82" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
-        <f t="shared" ref="A13:A24" ca="1" si="0">OFFSET(A13,-1,0,1,1)+1</f>
+        <f t="shared" ref="A13:A24" ca="1" si="2">OFFSET(A13,-1,0,1,1)+1</f>
         <v>2</v>
       </c>
       <c r="B13" s="76" t="str">
@@ -2826,8 +2852,12 @@
       <c r="L13" s="77">
         <v>0.85</v>
       </c>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
+      <c r="M13" s="77">
+        <v>0.9</v>
+      </c>
+      <c r="N13" s="77">
+        <v>1</v>
+      </c>
       <c r="O13" s="77"/>
       <c r="P13" s="77"/>
       <c r="Q13" s="77"/>
@@ -2838,47 +2868,52 @@
         <v>0.25</v>
       </c>
       <c r="T13" s="77">
-        <v>1</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="U13" s="77">
         <v>1</v>
       </c>
       <c r="V13" s="77">
+        <v>1</v>
+      </c>
+      <c r="W13" s="77">
         <v>0</v>
       </c>
-      <c r="W13" s="77" t="s">
+      <c r="X13" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="X13" s="77"/>
       <c r="Y13" s="77"/>
-      <c r="Z13" s="77">
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="77">
         <v>0.90500000000000003</v>
       </c>
-      <c r="AA13" s="77">
+      <c r="AB13" s="77">
         <v>0.505</v>
       </c>
-      <c r="AB13" s="77"/>
-      <c r="AC13" s="77"/>
+      <c r="AC13" s="77">
+        <v>0.77500000000000002</v>
+      </c>
       <c r="AD13" s="77"/>
-      <c r="AE13" s="71">
-        <f>IF(SUM(C13:AD13)=0,"",SUMPRODUCT(C13:AD13,$C$9:$AD$9))</f>
-        <v>467</v>
-      </c>
-      <c r="AF13" s="72">
-        <f>IF(SUM(C13:AD13)=0,"",$AF$9+AE13/(SUMIF(C13:AD13,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C13:AD13,"=E",$C$9:$AD$9)))</f>
-        <v>0.71846153846153848</v>
-      </c>
-      <c r="AG13" s="73" t="str">
-        <f>IF(AF13="","",INDEX(Grades!$B$12:$B$24,MATCH(AF13,Grades!$A$12:$A$24,1)))</f>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="71">
+        <f t="shared" si="0"/>
+        <v>612.75</v>
+      </c>
+      <c r="AG13" s="72">
+        <f t="shared" si="1"/>
+        <v>0.72946428571428568</v>
+      </c>
+      <c r="AH13" s="73" t="str">
+        <f>IF(AG13="","",INDEX(Grades!$B$12:$B$24,MATCH(AG13,Grades!$A$12:$A$24,1)))</f>
         <v>C-</v>
       </c>
-      <c r="AI13" s="82" t="s">
+      <c r="AJ13" s="82" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="B14" s="76" t="str">
@@ -2915,8 +2950,12 @@
       <c r="L14" s="77">
         <v>1</v>
       </c>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
+      <c r="M14" s="77">
+        <v>1</v>
+      </c>
+      <c r="N14" s="77">
+        <v>1</v>
+      </c>
       <c r="O14" s="77"/>
       <c r="P14" s="77"/>
       <c r="Q14" s="77"/>
@@ -2927,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="77">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U14" s="77">
         <v>1</v>
@@ -2935,39 +2974,44 @@
       <c r="V14" s="77">
         <v>1</v>
       </c>
-      <c r="W14" s="77" t="s">
+      <c r="W14" s="77">
+        <v>1</v>
+      </c>
+      <c r="X14" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="X14" s="77"/>
       <c r="Y14" s="77"/>
-      <c r="Z14" s="77">
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="77">
         <v>0.96</v>
       </c>
-      <c r="AA14" s="77">
+      <c r="AB14" s="77">
         <v>1.01</v>
       </c>
-      <c r="AB14" s="77"/>
-      <c r="AC14" s="77"/>
+      <c r="AC14" s="77">
+        <v>0.97</v>
+      </c>
       <c r="AD14" s="77"/>
-      <c r="AE14" s="71">
-        <f>IF(SUM(C14:AD14)=0,"",SUMPRODUCT(C14:AD14,$C$9:$AD$9))</f>
-        <v>631</v>
-      </c>
-      <c r="AF14" s="72">
-        <f>IF(SUM(C14:AD14)=0,"",$AF$9+AE14/(SUMIF(C14:AD14,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C14:AD14,"=E",$C$9:$AD$9)))</f>
-        <v>0.98593750000000002</v>
-      </c>
-      <c r="AG14" s="73" t="str">
-        <f>IF(AF14="","",INDEX(Grades!$B$12:$B$24,MATCH(AF14,Grades!$A$12:$A$24,1)))</f>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="71">
+        <f t="shared" si="0"/>
+        <v>812.5</v>
+      </c>
+      <c r="AG14" s="72">
+        <f t="shared" si="1"/>
+        <v>0.97891566265060237</v>
+      </c>
+      <c r="AH14" s="73" t="str">
+        <f>IF(AG14="","",INDEX(Grades!$B$12:$B$24,MATCH(AG14,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AI14" s="82" t="s">
+      <c r="AJ14" s="82" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="B15" s="76" t="str">
@@ -3004,8 +3048,12 @@
       <c r="L15" s="77">
         <v>1</v>
       </c>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
+      <c r="M15" s="77">
+        <v>1</v>
+      </c>
+      <c r="N15" s="77">
+        <v>0.85</v>
+      </c>
       <c r="O15" s="77"/>
       <c r="P15" s="77"/>
       <c r="Q15" s="77"/>
@@ -3016,47 +3064,52 @@
         <v>0.83</v>
       </c>
       <c r="T15" s="77">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="U15" s="77">
+        <v>1</v>
+      </c>
+      <c r="V15" s="77">
         <v>0</v>
       </c>
-      <c r="V15" s="77">
-        <v>1</v>
-      </c>
-      <c r="W15" s="77" t="s">
+      <c r="W15" s="77">
+        <v>1</v>
+      </c>
+      <c r="X15" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="X15" s="77"/>
       <c r="Y15" s="77"/>
-      <c r="Z15" s="77">
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="77">
         <v>0.995</v>
       </c>
-      <c r="AA15" s="77">
+      <c r="AB15" s="77">
         <v>0.97499999999999998</v>
       </c>
-      <c r="AB15" s="77"/>
-      <c r="AC15" s="77"/>
+      <c r="AC15" s="77">
+        <v>0.89500000000000002</v>
+      </c>
       <c r="AD15" s="77"/>
-      <c r="AE15" s="71">
-        <f>IF(SUM(C15:AD15)=0,"",SUMPRODUCT(C15:AD15,$C$9:$AD$9))</f>
-        <v>583</v>
-      </c>
-      <c r="AF15" s="72">
-        <f>IF(SUM(C15:AD15)=0,"",$AF$9+AE15/(SUMIF(C15:AD15,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C15:AD15,"=E",$C$9:$AD$9)))</f>
-        <v>0.89692307692307693</v>
-      </c>
-      <c r="AG15" s="73" t="str">
-        <f>IF(AF15="","",INDEX(Grades!$B$12:$B$24,MATCH(AF15,Grades!$A$12:$A$24,1)))</f>
+      <c r="AE15" s="77"/>
+      <c r="AF15" s="71">
+        <f t="shared" si="0"/>
+        <v>753.75</v>
+      </c>
+      <c r="AG15" s="72">
+        <f t="shared" si="1"/>
+        <v>0.8973214285714286</v>
+      </c>
+      <c r="AH15" s="73" t="str">
+        <f>IF(AG15="","",INDEX(Grades!$B$12:$B$24,MATCH(AG15,Grades!$A$12:$A$24,1)))</f>
         <v>B+</v>
       </c>
-      <c r="AI15" s="82" t="s">
+      <c r="AJ15" s="82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
       <c r="B16" s="76" t="str">
@@ -3093,8 +3146,12 @@
       <c r="L16" s="77">
         <v>1</v>
       </c>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
+      <c r="M16" s="77">
+        <v>1</v>
+      </c>
+      <c r="N16" s="77">
+        <v>1</v>
+      </c>
       <c r="O16" s="77"/>
       <c r="P16" s="77"/>
       <c r="Q16" s="77"/>
@@ -3105,7 +3162,7 @@
         <v>0.83</v>
       </c>
       <c r="T16" s="77">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="U16" s="77">
         <v>1</v>
@@ -3113,39 +3170,44 @@
       <c r="V16" s="77">
         <v>1</v>
       </c>
-      <c r="W16" s="77" t="s">
+      <c r="W16" s="77">
+        <v>1</v>
+      </c>
+      <c r="X16" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="X16" s="77"/>
       <c r="Y16" s="77"/>
-      <c r="Z16" s="77">
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="77">
         <v>0.99</v>
       </c>
-      <c r="AA16" s="77">
+      <c r="AB16" s="77">
         <v>0.93500000000000005</v>
       </c>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="77"/>
+      <c r="AC16" s="77">
+        <v>0.93</v>
+      </c>
       <c r="AD16" s="77"/>
-      <c r="AE16" s="71">
-        <f>IF(SUM(C16:AD16)=0,"",SUMPRODUCT(C16:AD16,$C$9:$AD$9))</f>
-        <v>630.25</v>
-      </c>
-      <c r="AF16" s="72">
-        <f>IF(SUM(C16:AD16)=0,"",$AF$9+AE16/(SUMIF(C16:AD16,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C16:AD16,"=E",$C$9:$AD$9)))</f>
-        <v>0.96961538461538466</v>
-      </c>
-      <c r="AG16" s="73" t="str">
-        <f>IF(AF16="","",INDEX(Grades!$B$12:$B$24,MATCH(AF16,Grades!$A$12:$A$24,1)))</f>
+      <c r="AE16" s="77"/>
+      <c r="AF16" s="71">
+        <f t="shared" si="0"/>
+        <v>807.75</v>
+      </c>
+      <c r="AG16" s="72">
+        <f t="shared" si="1"/>
+        <v>0.96160714285714288</v>
+      </c>
+      <c r="AH16" s="73" t="str">
+        <f>IF(AG16="","",INDEX(Grades!$B$12:$B$24,MATCH(AG16,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AI16" s="82" t="s">
+      <c r="AJ16" s="82" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
       <c r="B17" s="76" t="str">
@@ -3182,8 +3244,12 @@
       <c r="L17" s="77">
         <v>1</v>
       </c>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
+      <c r="M17" s="77">
+        <v>0.9</v>
+      </c>
+      <c r="N17" s="77">
+        <v>1</v>
+      </c>
       <c r="O17" s="77"/>
       <c r="P17" s="77"/>
       <c r="Q17" s="77"/>
@@ -3194,7 +3260,7 @@
         <v>0.95</v>
       </c>
       <c r="T17" s="77">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U17" s="77">
         <v>1</v>
@@ -3202,39 +3268,44 @@
       <c r="V17" s="77">
         <v>1</v>
       </c>
-      <c r="W17" s="77" t="s">
+      <c r="W17" s="77">
+        <v>1</v>
+      </c>
+      <c r="X17" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="X17" s="77"/>
       <c r="Y17" s="77"/>
-      <c r="Z17" s="77">
-        <v>0.94</v>
-      </c>
+      <c r="Z17" s="77"/>
       <c r="AA17" s="77">
         <v>0.94</v>
       </c>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="77"/>
+      <c r="AB17" s="77">
+        <v>0.94</v>
+      </c>
+      <c r="AC17" s="77">
+        <v>0.82499999999999996</v>
+      </c>
       <c r="AD17" s="77"/>
-      <c r="AE17" s="71">
-        <f>IF(SUM(C17:AD17)=0,"",SUMPRODUCT(C17:AD17,$C$9:$AD$9))</f>
-        <v>627</v>
-      </c>
-      <c r="AF17" s="72">
-        <f>IF(SUM(C17:AD17)=0,"",$AF$9+AE17/(SUMIF(C17:AD17,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C17:AD17,"=E",$C$9:$AD$9)))</f>
-        <v>0.96461538461538465</v>
-      </c>
-      <c r="AG17" s="73" t="str">
-        <f>IF(AF17="","",INDEX(Grades!$B$12:$B$24,MATCH(AF17,Grades!$A$12:$A$24,1)))</f>
-        <v>A+</v>
-      </c>
-      <c r="AI17" s="82" t="s">
+      <c r="AE17" s="77"/>
+      <c r="AF17" s="71">
+        <f t="shared" si="0"/>
+        <v>784.75</v>
+      </c>
+      <c r="AG17" s="72">
+        <f t="shared" si="1"/>
+        <v>0.93422619047619049</v>
+      </c>
+      <c r="AH17" s="73" t="str">
+        <f>IF(AG17="","",INDEX(Grades!$B$12:$B$24,MATCH(AG17,Grades!$A$12:$A$24,1)))</f>
+        <v>A</v>
+      </c>
+      <c r="AJ17" s="82" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>7</v>
       </c>
       <c r="B18" s="76" t="str">
@@ -3271,8 +3342,12 @@
       <c r="L18" s="77">
         <v>1</v>
       </c>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
+      <c r="M18" s="77">
+        <v>1</v>
+      </c>
+      <c r="N18" s="77">
+        <v>0.85</v>
+      </c>
       <c r="O18" s="77"/>
       <c r="P18" s="77"/>
       <c r="Q18" s="77"/>
@@ -3283,47 +3358,52 @@
         <v>0.91</v>
       </c>
       <c r="T18" s="77">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U18" s="77">
+        <v>1</v>
+      </c>
+      <c r="V18" s="77">
         <v>0.85</v>
       </c>
-      <c r="V18" s="77">
-        <v>1</v>
-      </c>
-      <c r="W18" s="77" t="s">
+      <c r="W18" s="77">
+        <v>1</v>
+      </c>
+      <c r="X18" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="X18" s="77"/>
       <c r="Y18" s="77"/>
-      <c r="Z18" s="77">
+      <c r="Z18" s="77"/>
+      <c r="AA18" s="77">
         <v>0.96</v>
       </c>
-      <c r="AA18" s="77">
+      <c r="AB18" s="77">
         <v>0.96499999999999997</v>
       </c>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
+      <c r="AC18" s="77">
+        <v>0.96</v>
+      </c>
       <c r="AD18" s="77"/>
-      <c r="AE18" s="71">
-        <f>IF(SUM(C18:AD18)=0,"",SUMPRODUCT(C18:AD18,$C$9:$AD$9))</f>
-        <v>626.75</v>
-      </c>
-      <c r="AF18" s="72">
-        <f>IF(SUM(C18:AD18)=0,"",$AF$9+AE18/(SUMIF(C18:AD18,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C18:AD18,"=E",$C$9:$AD$9)))</f>
-        <v>0.96423076923076922</v>
-      </c>
-      <c r="AG18" s="73" t="str">
-        <f>IF(AF18="","",INDEX(Grades!$B$12:$B$24,MATCH(AF18,Grades!$A$12:$A$24,1)))</f>
-        <v>A+</v>
-      </c>
-      <c r="AI18" s="82" t="s">
+      <c r="AE18" s="77"/>
+      <c r="AF18" s="71">
+        <f t="shared" si="0"/>
+        <v>800.25</v>
+      </c>
+      <c r="AG18" s="72">
+        <f t="shared" si="1"/>
+        <v>0.95267857142857137</v>
+      </c>
+      <c r="AH18" s="73" t="str">
+        <f>IF(AG18="","",INDEX(Grades!$B$12:$B$24,MATCH(AG18,Grades!$A$12:$A$24,1)))</f>
+        <v>A</v>
+      </c>
+      <c r="AJ18" s="82" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>8</v>
       </c>
       <c r="B19" s="76" t="str">
@@ -3360,8 +3440,12 @@
       <c r="L19" s="77">
         <v>1</v>
       </c>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
+      <c r="M19" s="77">
+        <v>1</v>
+      </c>
+      <c r="N19" s="77">
+        <v>0.95</v>
+      </c>
       <c r="O19" s="77"/>
       <c r="P19" s="77"/>
       <c r="Q19" s="77"/>
@@ -3372,7 +3456,7 @@
         <v>0.95</v>
       </c>
       <c r="T19" s="77">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="U19" s="77">
         <v>1</v>
@@ -3380,39 +3464,44 @@
       <c r="V19" s="77">
         <v>1</v>
       </c>
-      <c r="W19" s="77" t="s">
+      <c r="W19" s="77">
+        <v>1</v>
+      </c>
+      <c r="X19" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="X19" s="77"/>
       <c r="Y19" s="77"/>
-      <c r="Z19" s="77">
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="77">
         <v>0.99</v>
       </c>
-      <c r="AA19" s="77">
+      <c r="AB19" s="77">
         <v>0.94</v>
       </c>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="77"/>
+      <c r="AC19" s="77">
+        <v>0.91500000000000004</v>
+      </c>
       <c r="AD19" s="77"/>
-      <c r="AE19" s="71">
-        <f>IF(SUM(C19:AD19)=0,"",SUMPRODUCT(C19:AD19,$C$9:$AD$9))</f>
-        <v>637</v>
-      </c>
-      <c r="AF19" s="72">
-        <f>IF(SUM(C19:AD19)=0,"",$AF$9+AE19/(SUMIF(C19:AD19,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C19:AD19,"=E",$C$9:$AD$9)))</f>
-        <v>0.98</v>
-      </c>
-      <c r="AG19" s="73" t="str">
-        <f>IF(AF19="","",INDEX(Grades!$B$12:$B$24,MATCH(AF19,Grades!$A$12:$A$24,1)))</f>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="71">
+        <f t="shared" si="0"/>
+        <v>810.75</v>
+      </c>
+      <c r="AG19" s="72">
+        <f t="shared" si="1"/>
+        <v>0.96517857142857144</v>
+      </c>
+      <c r="AH19" s="73" t="str">
+        <f>IF(AG19="","",INDEX(Grades!$B$12:$B$24,MATCH(AG19,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AI19" s="82" t="s">
+      <c r="AJ19" s="82" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
       <c r="B20" s="76" t="str">
@@ -3449,8 +3538,12 @@
       <c r="L20" s="77">
         <v>1</v>
       </c>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
+      <c r="M20" s="77">
+        <v>1</v>
+      </c>
+      <c r="N20" s="77">
+        <v>1</v>
+      </c>
       <c r="O20" s="77"/>
       <c r="P20" s="77"/>
       <c r="Q20" s="77"/>
@@ -3461,47 +3554,52 @@
         <v>0.41</v>
       </c>
       <c r="T20" s="77">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U20" s="77">
+        <v>1</v>
+      </c>
+      <c r="V20" s="77">
         <v>0.85</v>
       </c>
-      <c r="V20" s="77">
-        <v>1</v>
-      </c>
-      <c r="W20" s="77" t="s">
+      <c r="W20" s="77">
+        <v>1</v>
+      </c>
+      <c r="X20" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="X20" s="77"/>
       <c r="Y20" s="77"/>
-      <c r="Z20" s="77">
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77">
         <v>0.97</v>
       </c>
-      <c r="AA20" s="77">
+      <c r="AB20" s="77">
         <v>0.85</v>
       </c>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
+      <c r="AC20" s="77">
+        <v>0.88500000000000001</v>
+      </c>
       <c r="AD20" s="77"/>
-      <c r="AE20" s="71">
-        <f>IF(SUM(C20:AD20)=0,"",SUMPRODUCT(C20:AD20,$C$9:$AD$9))</f>
-        <v>584.5</v>
-      </c>
-      <c r="AF20" s="72">
-        <f>IF(SUM(C20:AD20)=0,"",$AF$9+AE20/(SUMIF(C20:AD20,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C20:AD20,"=E",$C$9:$AD$9)))</f>
-        <v>0.89923076923076928</v>
-      </c>
-      <c r="AG20" s="73" t="str">
-        <f>IF(AF20="","",INDEX(Grades!$B$12:$B$24,MATCH(AF20,Grades!$A$12:$A$24,1)))</f>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="71">
+        <f t="shared" si="0"/>
+        <v>752.25</v>
+      </c>
+      <c r="AG20" s="72">
+        <f t="shared" si="1"/>
+        <v>0.89553571428571432</v>
+      </c>
+      <c r="AH20" s="73" t="str">
+        <f>IF(AG20="","",INDEX(Grades!$B$12:$B$24,MATCH(AG20,Grades!$A$12:$A$24,1)))</f>
         <v>B+</v>
       </c>
-      <c r="AI20" s="82" t="s">
+      <c r="AJ20" s="82" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
       <c r="B21" s="76" t="str">
@@ -3538,8 +3636,12 @@
       <c r="L21" s="77">
         <v>1</v>
       </c>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
+      <c r="M21" s="77">
+        <v>0.9</v>
+      </c>
+      <c r="N21" s="77">
+        <v>1</v>
+      </c>
       <c r="O21" s="77"/>
       <c r="P21" s="77"/>
       <c r="Q21" s="77"/>
@@ -3550,7 +3652,7 @@
         <v>0.83</v>
       </c>
       <c r="T21" s="77">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="U21" s="77">
         <v>1</v>
@@ -3558,37 +3660,42 @@
       <c r="V21" s="77">
         <v>1</v>
       </c>
-      <c r="W21" s="77" t="s">
+      <c r="W21" s="77">
+        <v>1</v>
+      </c>
+      <c r="X21" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="X21" s="77"/>
       <c r="Y21" s="77"/>
-      <c r="Z21" s="77">
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="77">
         <v>1.02</v>
       </c>
-      <c r="AA21" s="77">
+      <c r="AB21" s="77">
         <v>0.97</v>
       </c>
-      <c r="AB21" s="77"/>
-      <c r="AC21" s="77"/>
+      <c r="AC21" s="77">
+        <v>0.93</v>
+      </c>
       <c r="AD21" s="77"/>
-      <c r="AE21" s="71">
-        <f>IF(SUM(C21:AD21)=0,"",SUMPRODUCT(C21:AD21,$C$9:$AD$9))</f>
-        <v>640</v>
-      </c>
-      <c r="AF21" s="72">
-        <f>IF(SUM(C21:AD21)=0,"",$AF$9+AE21/(SUMIF(C21:AD21,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C21:AD21,"=E",$C$9:$AD$9)))</f>
-        <v>0.98461538461538467</v>
-      </c>
-      <c r="AG21" s="73" t="str">
-        <f>IF(AF21="","",INDEX(Grades!$B$12:$B$24,MATCH(AF21,Grades!$A$12:$A$24,1)))</f>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="71">
+        <f t="shared" si="0"/>
+        <v>816.5</v>
+      </c>
+      <c r="AG21" s="72">
+        <f t="shared" si="1"/>
+        <v>0.97202380952380951</v>
+      </c>
+      <c r="AH21" s="73" t="str">
+        <f>IF(AG21="","",INDEX(Grades!$B$12:$B$24,MATCH(AG21,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AI21" s="82"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="AJ21" s="82"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>11</v>
       </c>
       <c r="B22" s="76" t="str">
@@ -3625,8 +3732,12 @@
       <c r="L22" s="77">
         <v>1</v>
       </c>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
+      <c r="M22" s="77">
+        <v>1</v>
+      </c>
+      <c r="N22" s="77">
+        <v>1</v>
+      </c>
       <c r="O22" s="77"/>
       <c r="P22" s="77"/>
       <c r="Q22" s="77"/>
@@ -3637,7 +3748,7 @@
         <v>0.875</v>
       </c>
       <c r="T22" s="77">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="U22" s="77">
         <v>1</v>
@@ -3645,42 +3756,47 @@
       <c r="V22" s="77">
         <v>1</v>
       </c>
-      <c r="W22" s="77" t="s">
+      <c r="W22" s="77">
+        <v>1</v>
+      </c>
+      <c r="X22" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="X22" s="77"/>
       <c r="Y22" s="77"/>
-      <c r="Z22" s="77">
+      <c r="Z22" s="77"/>
+      <c r="AA22" s="77">
         <v>0.69</v>
       </c>
-      <c r="AA22" s="77">
+      <c r="AB22" s="77">
         <v>0.85499999999999998</v>
       </c>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="77"/>
+      <c r="AC22" s="77">
+        <v>0.78500000000000003</v>
+      </c>
       <c r="AD22" s="77"/>
-      <c r="AE22" s="71">
-        <f>IF(SUM(C22:AD22)=0,"",SUMPRODUCT(C22:AD22,$C$9:$AD$9))</f>
-        <v>571.5</v>
-      </c>
-      <c r="AF22" s="72">
-        <f>IF(SUM(C22:AD22)=0,"",$AF$9+AE22/(SUMIF(C22:AD22,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C22:AD22,"=E",$C$9:$AD$9)))</f>
-        <v>0.87923076923076926</v>
-      </c>
-      <c r="AG22" s="73" t="str">
-        <f>IF(AF22="","",INDEX(Grades!$B$12:$B$24,MATCH(AF22,Grades!$A$12:$A$24,1)))</f>
-        <v>B+</v>
-      </c>
-      <c r="AI22" s="84" t="s">
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="71">
+        <f t="shared" si="0"/>
+        <v>722.25</v>
+      </c>
+      <c r="AG22" s="72">
+        <f t="shared" si="1"/>
+        <v>0.85982142857142863</v>
+      </c>
+      <c r="AH22" s="73" t="str">
+        <f>IF(AG22="","",INDEX(Grades!$B$12:$B$24,MATCH(AG22,Grades!$A$12:$A$24,1)))</f>
+        <v>B</v>
+      </c>
+      <c r="AJ22" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="AJ22" s="85" t="s">
+      <c r="AK22" s="85" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>12</v>
       </c>
       <c r="B23" s="76" t="str">
@@ -3717,8 +3833,12 @@
       <c r="L23" s="77">
         <v>1</v>
       </c>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
+      <c r="M23" s="77">
+        <v>1</v>
+      </c>
+      <c r="N23" s="77">
+        <v>0.85</v>
+      </c>
       <c r="O23" s="77"/>
       <c r="P23" s="77"/>
       <c r="Q23" s="77"/>
@@ -3729,7 +3849,7 @@
         <v>0.83</v>
       </c>
       <c r="T23" s="77">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="U23" s="77">
         <v>1</v>
@@ -3737,36 +3857,41 @@
       <c r="V23" s="77">
         <v>1</v>
       </c>
-      <c r="W23" s="77" t="s">
+      <c r="W23" s="77">
+        <v>1</v>
+      </c>
+      <c r="X23" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="X23" s="77"/>
       <c r="Y23" s="77"/>
-      <c r="Z23" s="77">
+      <c r="Z23" s="77"/>
+      <c r="AA23" s="77">
         <v>1.01</v>
       </c>
-      <c r="AA23" s="77">
+      <c r="AB23" s="77">
         <v>0.98499999999999999</v>
       </c>
-      <c r="AB23" s="77"/>
-      <c r="AC23" s="77"/>
+      <c r="AC23" s="77">
+        <v>0.97499999999999998</v>
+      </c>
       <c r="AD23" s="77"/>
-      <c r="AE23" s="71">
-        <f>IF(SUM(C23:AD23)=0,"",SUMPRODUCT(C23:AD23,$C$9:$AD$9))</f>
-        <v>640.75</v>
-      </c>
-      <c r="AF23" s="72">
-        <f>IF(SUM(C23:AD23)=0,"",$AF$9+AE23/(SUMIF(C23:AD23,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C23:AD23,"=E",$C$9:$AD$9)))</f>
-        <v>0.98576923076923073</v>
-      </c>
-      <c r="AG23" s="73" t="str">
-        <f>IF(AF23="","",INDEX(Grades!$B$12:$B$24,MATCH(AF23,Grades!$A$12:$A$24,1)))</f>
+      <c r="AE23" s="77"/>
+      <c r="AF23" s="71">
+        <f t="shared" si="0"/>
+        <v>823.5</v>
+      </c>
+      <c r="AG23" s="72">
+        <f t="shared" si="1"/>
+        <v>0.98035714285714282</v>
+      </c>
+      <c r="AH23" s="73" t="str">
+        <f>IF(AG23="","",INDEX(Grades!$B$12:$B$24,MATCH(AG23,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>13</v>
       </c>
       <c r="B24" s="76" t="str">
@@ -3803,8 +3928,12 @@
       <c r="L24" s="77">
         <v>1</v>
       </c>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
+      <c r="M24" s="77">
+        <v>1</v>
+      </c>
+      <c r="N24" s="77">
+        <v>1</v>
+      </c>
       <c r="O24" s="77"/>
       <c r="P24" s="77"/>
       <c r="Q24" s="77"/>
@@ -3815,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="T24" s="77">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="U24" s="77">
         <v>1</v>
@@ -3823,41 +3952,46 @@
       <c r="V24" s="77">
         <v>1</v>
       </c>
-      <c r="W24" s="77" t="s">
+      <c r="W24" s="77">
+        <v>1</v>
+      </c>
+      <c r="X24" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="X24" s="77"/>
       <c r="Y24" s="77"/>
-      <c r="Z24" s="77">
+      <c r="Z24" s="77"/>
+      <c r="AA24" s="77">
         <v>1.03</v>
       </c>
-      <c r="AA24" s="77">
+      <c r="AB24" s="77">
         <v>1.01</v>
       </c>
-      <c r="AB24" s="77"/>
-      <c r="AC24" s="77"/>
+      <c r="AC24" s="77">
+        <v>1.03</v>
+      </c>
       <c r="AD24" s="77"/>
-      <c r="AE24" s="71">
-        <f>IF(SUM(C24:AD24)=0,"",SUMPRODUCT(C24:AD24,$C$9:$AD$9))</f>
-        <v>656</v>
-      </c>
-      <c r="AF24" s="72">
-        <f>IF(SUM(C24:AD24)=0,"",$AF$9+AE24/(SUMIF(C24:AD24,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C24:AD24,"=E",$C$9:$AD$9)))</f>
-        <v>1.0092307692307692</v>
-      </c>
-      <c r="AG24" s="73" t="str">
-        <f>IF(AF24="","",INDEX(Grades!$B$12:$B$24,MATCH(AF24,Grades!$A$12:$A$24,1)))</f>
+      <c r="AE24" s="77"/>
+      <c r="AF24" s="71">
+        <f t="shared" si="0"/>
+        <v>849.5</v>
+      </c>
+      <c r="AG24" s="72">
+        <f t="shared" si="1"/>
+        <v>1.0113095238095238</v>
+      </c>
+      <c r="AH24" s="73" t="str">
+        <f>IF(AG24="","",INDEX(Grades!$B$12:$B$24,MATCH(AG24,Grades!$A$12:$A$24,1)))</f>
         <v>A+</v>
       </c>
-      <c r="AI24" s="86" t="s">
+      <c r="AJ24" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="AJ24" s="87" t="b">
-        <f>AJ22="Yes"</f>
+      <c r="AK24" s="87" t="b">
+        <f>AK22="Yes"</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A25" s="31" t="s">
         <v>65</v>
       </c>
@@ -3890,65 +4024,75 @@
       <c r="AB25" s="75"/>
       <c r="AC25" s="75"/>
       <c r="AD25" s="75"/>
-      <c r="AE25" s="71" t="str">
-        <f>IF(SUM(C25:AD25)=0,"",SUMPRODUCT(C25:AD25,$C$9:$AD$9))</f>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="71" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AF25" s="72" t="str">
-        <f>IF(SUM(C25:AD25)=0,"",$AF$9+AE25/(SUMIF(C25:AD25,"&lt;&gt;",$C$9:$AD$9)-SUMIF(C25:AD25,"=E",$C$9:$AD$9)))</f>
+      <c r="AG25" s="72" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG25" s="73" t="str">
-        <f>IF(AF25="","",INDEX(Grades!$B$12:$B$24,MATCH(AF25,Grades!$A$12:$A$24,1)))</f>
+      <c r="AH25" s="73" t="str">
+        <f>IF(AG25="","",INDEX(Grades!$B$12:$B$24,MATCH(AG25,Grades!$A$12:$A$24,1)))</f>
         <v/>
       </c>
-      <c r="AI25" s="82" t="s">
+      <c r="AJ25" s="82" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B26" s="69" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="70">
-        <f t="shared" ref="C26:K26" si="1">IF(SUM(C12:C25)=0,"",AVERAGE(C12:C25))</f>
+        <f t="shared" ref="C26:K26" si="3">IF(SUM(C12:C25)=0,"",AVERAGE(C12:C25))</f>
         <v>1</v>
       </c>
       <c r="D26" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99615384615384606</v>
       </c>
       <c r="E26" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F26" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.97692307692307689</v>
       </c>
       <c r="G26" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.97692307692307689</v>
       </c>
       <c r="H26" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98846153846153839</v>
       </c>
       <c r="I26" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98846153846153839</v>
       </c>
       <c r="J26" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K26" s="70">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L26" s="70">
+        <f t="shared" ref="L26:N26" si="4">IF(SUM(L12:L25)=0,"",AVERAGE(L12:L25))</f>
+        <v>0.98846153846153839</v>
+      </c>
+      <c r="M26" s="70">
+        <f t="shared" si="4"/>
+        <v>0.97692307692307701</v>
+      </c>
+      <c r="N26" s="70">
+        <f t="shared" si="4"/>
+        <v>0.96153846153846145</v>
+      </c>
       <c r="O26" s="70"/>
       <c r="P26" s="70"/>
       <c r="Q26" s="70" t="str">
@@ -3963,90 +4107,112 @@
         <f>IF(SUM(S12:S25)=0,"",AVERAGE(S12:S25))</f>
         <v>0.81346153846153857</v>
       </c>
-      <c r="T26" s="70"/>
-      <c r="U26" s="70"/>
-      <c r="V26" s="70"/>
-      <c r="W26" s="70"/>
+      <c r="T26" s="70">
+        <f>IF(SUM(T12:T25)=0,"",AVERAGE(T12:T25))</f>
+        <v>0.79807692307692313</v>
+      </c>
+      <c r="U26" s="70">
+        <f>IF(SUM(U12:U25)=0,"",AVERAGE(U12:U25))</f>
+        <v>1</v>
+      </c>
+      <c r="V26" s="70">
+        <f>IF(SUM(V12:V25)=0,"",AVERAGE(V12:V25))</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="W26" s="70">
+        <f>IF(SUM(W12:W25)=0,"",AVERAGE(W12:W25))</f>
+        <v>0.92307692307692313</v>
+      </c>
       <c r="X26" s="70"/>
-      <c r="Y26" s="70" t="str">
-        <f t="shared" ref="Y26:AD26" si="2">IF(SUM(Y12:Y25)=0,"",AVERAGE(Y12:Y25))</f>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="70" t="str">
+        <f t="shared" ref="Z26:AE26" si="5">IF(SUM(Z12:Z25)=0,"",AVERAGE(Z12:Z25))</f>
         <v/>
       </c>
-      <c r="Z26" s="70">
-        <f t="shared" si="2"/>
+      <c r="AA26" s="70">
+        <f t="shared" si="5"/>
         <v>0.95653846153846145</v>
       </c>
-      <c r="AA26" s="70">
-        <f t="shared" si="2"/>
+      <c r="AB26" s="70">
+        <f t="shared" si="5"/>
         <v>0.91423076923076918</v>
       </c>
-      <c r="AB26" s="70" t="str">
-        <f t="shared" si="2"/>
+      <c r="AC26" s="70">
+        <f t="shared" si="5"/>
+        <v>0.91423076923076918</v>
+      </c>
+      <c r="AD26" s="70" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC26" s="70" t="str">
-        <f t="shared" si="2"/>
+      <c r="AE26" s="70" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AD26" s="70" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE26" s="19" t="s">
+      <c r="AF26" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AF26" s="67">
-        <f>AVERAGE(AF12:AF25)</f>
-        <v>0.93942122781065085</v>
-      </c>
-      <c r="AG26" s="68" t="str">
-        <f>IF(AF26="","",INDEX(Grades!$B$12:$B$24,MATCH(AF26,Grades!$A$12:$A$24,1)))</f>
+      <c r="AG26" s="67">
+        <f>AVERAGE(AG12:AG25)</f>
+        <v>0.93226091177898418</v>
+      </c>
+      <c r="AH26" s="68" t="str">
+        <f>IF(AG26="","",INDEX(Grades!$B$12:$B$24,MATCH(AG26,Grades!$A$12:$A$24,1)))</f>
         <v>A</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B27" s="69" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="70">
-        <f t="shared" ref="C27:K27" si="3">IF(OR(C9=0,C26=""),"",MEDIAN(C12:C25))</f>
+        <f t="shared" ref="C27:K27" si="6">IF(OR(C9=0,C26=""),"",MEDIAN(C12:C25))</f>
         <v>1</v>
       </c>
       <c r="D27" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E27" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F27" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G27" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H27" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I27" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J27" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K27" s="70">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="70">
+        <f t="shared" ref="L27:N27" si="7">IF(OR(L9=0,L26=""),"",MEDIAN(L12:L25))</f>
+        <v>1</v>
+      </c>
+      <c r="M27" s="70">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="70">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="O27" s="70"/>
       <c r="P27" s="70"/>
       <c r="Q27" s="70" t="str">
@@ -4054,93 +4220,115 @@
         <v/>
       </c>
       <c r="R27" s="70">
-        <f t="shared" ref="R27:S27" si="4">IF(OR(R9=0,R26=""),"",MEDIAN(R12:R25))</f>
+        <f t="shared" ref="R27:S27" si="8">IF(OR(R9=0,R26=""),"",MEDIAN(R12:R25))</f>
         <v>1</v>
       </c>
       <c r="S27" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.875</v>
       </c>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="70"/>
+      <c r="T27" s="70">
+        <f t="shared" ref="T27:W27" si="9">IF(OR(T9=0,T26=""),"",MEDIAN(T12:T25))</f>
+        <v>0.85</v>
+      </c>
+      <c r="U27" s="70">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V27" s="70">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W27" s="70">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="X27" s="70"/>
-      <c r="Y27" s="70" t="str">
-        <f t="shared" ref="Y27:AD27" si="5">IF(OR(Y9=0,Y26=""),"",MEDIAN(Y12:Y25))</f>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="70" t="str">
+        <f t="shared" ref="Z27:AE27" si="10">IF(OR(Z9=0,Z26=""),"",MEDIAN(Z12:Z25))</f>
         <v/>
       </c>
-      <c r="Z27" s="70">
-        <f t="shared" si="5"/>
+      <c r="AA27" s="70">
+        <f t="shared" si="10"/>
         <v>0.97499999999999998</v>
       </c>
-      <c r="AA27" s="70">
-        <f t="shared" si="5"/>
+      <c r="AB27" s="70">
+        <f t="shared" si="10"/>
         <v>0.94499999999999995</v>
       </c>
-      <c r="AB27" s="70" t="str">
-        <f t="shared" si="5"/>
+      <c r="AC27" s="70">
+        <f t="shared" si="10"/>
+        <v>0.93</v>
+      </c>
+      <c r="AD27" s="70" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AC27" s="70" t="str">
-        <f t="shared" si="5"/>
+      <c r="AE27" s="70" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AD27" s="70" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AE27" s="19" t="s">
+      <c r="AF27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AF27" s="67">
-        <f>MEDIAN(AF12:AF25)</f>
-        <v>0.96961538461538466</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="AG27" s="67">
+        <f>MEDIAN(AG12:AG25)</f>
+        <v>0.96160714285714288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B28" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="70">
-        <f t="shared" ref="C28:K28" si="6">IF(OR(C9=0,C26=""),"",STDEV(C12:C25))</f>
+        <f t="shared" ref="C28:K28" si="11">IF(OR(C9=0,C26=""),"",STDEV(C12:C25))</f>
         <v>0</v>
       </c>
       <c r="D28" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.3867504905630743E-2</v>
       </c>
       <c r="E28" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F28" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.6330071214910814E-2</v>
       </c>
       <c r="G28" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.3205029433784355E-2</v>
       </c>
       <c r="H28" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.1602514716892199E-2</v>
       </c>
       <c r="I28" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.1602514716892199E-2</v>
       </c>
       <c r="J28" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K28" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
+      <c r="L28" s="70">
+        <f t="shared" ref="L28:N28" si="12">IF(OR(L9=0,L26=""),"",STDEV(L12:L25))</f>
+        <v>4.1602514716892199E-2</v>
+      </c>
+      <c r="M28" s="70">
+        <f t="shared" si="12"/>
+        <v>4.3852900965351452E-2</v>
+      </c>
+      <c r="N28" s="70">
+        <f t="shared" si="12"/>
+        <v>6.5044363558799098E-2</v>
+      </c>
       <c r="O28" s="70"/>
       <c r="P28" s="70"/>
       <c r="Q28" s="70" t="str">
@@ -4148,62 +4336,75 @@
         <v/>
       </c>
       <c r="R28" s="70">
-        <f t="shared" ref="R28:S28" si="7">IF(OR(R9=0,R26=""),"",STDEV(R12:R25))</f>
+        <f t="shared" ref="R28:S28" si="13">IF(OR(R9=0,R26=""),"",STDEV(R12:R25))</f>
         <v>2.5318484177091691E-2</v>
       </c>
       <c r="S28" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.22558613114307899</v>
       </c>
-      <c r="T28" s="70"/>
-      <c r="U28" s="70"/>
-      <c r="V28" s="70"/>
-      <c r="W28" s="70"/>
+      <c r="T28" s="70">
+        <f t="shared" ref="T28:W28" si="14">IF(OR(T9=0,T26=""),"",STDEV(T12:T25))</f>
+        <v>0.14522308215205881</v>
+      </c>
+      <c r="U28" s="70">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="70">
+        <f t="shared" si="14"/>
+        <v>0.27613402542968168</v>
+      </c>
+      <c r="W28" s="70">
+        <f t="shared" si="14"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="X28" s="70"/>
-      <c r="Y28" s="70" t="str">
-        <f t="shared" ref="Y28:AD28" si="8">IF(OR(Y9=0,Y26=""),"",STDEV(Y12:Y25))</f>
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="70" t="str">
+        <f t="shared" ref="Z28:AE28" si="15">IF(OR(Z9=0,Z26=""),"",STDEV(Z12:Z25))</f>
         <v/>
       </c>
-      <c r="Z28" s="70">
-        <f t="shared" si="8"/>
+      <c r="AA28" s="70">
+        <f t="shared" si="15"/>
         <v>8.6851996124264363E-2</v>
       </c>
-      <c r="AA28" s="70">
-        <f t="shared" si="8"/>
+      <c r="AB28" s="70">
+        <f t="shared" si="15"/>
         <v>0.13245826628675214</v>
       </c>
-      <c r="AB28" s="70" t="str">
-        <f t="shared" si="8"/>
+      <c r="AC28" s="70">
+        <f t="shared" si="15"/>
+        <v>8.0230037855898925E-2</v>
+      </c>
+      <c r="AD28" s="70" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AC28" s="70" t="str">
-        <f t="shared" si="8"/>
+      <c r="AE28" s="70" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AD28" s="70" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AE28" s="19" t="s">
+      <c r="AF28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AF28" s="67">
-        <f>STDEV(AF12:AF25)</f>
-        <v>7.7536248331331728E-2</v>
-      </c>
-      <c r="AG28" s="31" t="s">
+      <c r="AG28" s="67">
+        <f>STDEV(AG12:AG25)</f>
+        <v>7.4161714136325566E-2</v>
+      </c>
+      <c r="AH28" s="31" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK22">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AI3" r:id="rId1"/>
+    <hyperlink ref="AJ3" r:id="rId1"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -5241,7 +5442,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A12)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A12,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A12)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A12,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D12" s="16">
@@ -5257,7 +5458,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A13)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A13,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A13)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A13,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D13" s="16">
@@ -5274,7 +5475,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A14)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A14,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A14)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A14,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D14" s="16">
@@ -5291,7 +5492,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A15)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A15,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A15)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A15,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D15" s="16">
@@ -5307,7 +5508,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A16)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A16,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A16)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A16,1,0,1,1))</f>
         <v>1</v>
       </c>
       <c r="D16" s="16">
@@ -5327,7 +5528,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A17)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A17,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A17)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A17,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D17" s="16">
@@ -5344,7 +5545,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A18)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A18,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A18)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A18,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D18" s="16">
@@ -5360,7 +5561,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A19)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A19,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A19)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A19,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D19" s="16">
@@ -5377,12 +5578,12 @@
         <v>10</v>
       </c>
       <c r="C20" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A20)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A20,1,0,1,1))</f>
-        <v>0</v>
+        <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A20)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A20,1,0,1,1))</f>
+        <v>1</v>
       </c>
       <c r="D20" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -5394,12 +5595,12 @@
         <v>9</v>
       </c>
       <c r="C21" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A21)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A21,1,0,1,1))</f>
-        <v>3</v>
+        <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A21)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A21,1,0,1,1))</f>
+        <v>2</v>
       </c>
       <c r="D21" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23076923076923078</v>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -5410,7 +5611,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A22)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A22,1,0,1,1))</f>
+        <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A22)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A22,1,0,1,1))</f>
         <v>0</v>
       </c>
       <c r="D22" s="16">
@@ -5427,12 +5628,12 @@
         <v>7</v>
       </c>
       <c r="C23" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A23)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A23,1,0,1,1))</f>
-        <v>0</v>
+        <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A23)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A23,1,0,1,1))</f>
+        <v>2</v>
       </c>
       <c r="D23" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -5444,12 +5645,12 @@
         <v>6</v>
       </c>
       <c r="C24" s="9">
-        <f ca="1">COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;A24)-COUNTIF(Gradebook!$AF$12:$AF$25,"&gt;="&amp;OFFSET(A24,1,0,1,1))</f>
-        <v>9</v>
+        <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A24)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A24,1,0,1,1))</f>
+        <v>7</v>
       </c>
       <c r="D24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69230769230769229</v>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -5471,8 +5672,8 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54">
-        <f>Gradebook!$AF$26</f>
-        <v>0.93942122781065085</v>
+        <f>Gradebook!$AG$26</f>
+        <v>0.93226091177898418</v>
       </c>
       <c r="B28" s="55" t="str">
         <f>INDEX(B12:B24,MATCH(A28,A12:A24,1))</f>
@@ -5484,8 +5685,8 @@
         <v>49</v>
       </c>
       <c r="B30" s="54">
-        <f>Gradebook!AF27</f>
-        <v>0.96961538461538466</v>
+        <f>Gradebook!AG27</f>
+        <v>0.96160714285714288</v>
       </c>
       <c r="C30" s="63" t="s">
         <v>56</v>
@@ -5496,8 +5697,8 @@
         <v>50</v>
       </c>
       <c r="B31" s="54">
-        <f>Gradebook!AF28</f>
-        <v>7.7536248331331728E-2</v>
+        <f>Gradebook!AG28</f>
+        <v>7.4161714136325566E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5697,8 +5898,8 @@
         <v>0.9</v>
       </c>
       <c r="B53" s="27">
-        <f>PERCENTILE(Gradebook!$AF$12:$AF$25,A53)</f>
-        <v>0.98590384615384619</v>
+        <f>PERCENTILE(Gradebook!$AG$12:$AG$25,A53)</f>
+        <v>0.98083333333333333</v>
       </c>
       <c r="C53" s="63" t="s">
         <v>62</v>
@@ -5711,8 +5912,8 @@
         <v>0.65</v>
       </c>
       <c r="B54" s="27">
-        <f>PERCENTILE(Gradebook!$AF$12:$AF$25,A54)</f>
-        <v>0.9789230769230769</v>
+        <f>PERCENTILE(Gradebook!$AG$12:$AG$25,A54)</f>
+        <v>0.97065476190476185</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
@@ -5722,8 +5923,8 @@
         <v>0.35</v>
       </c>
       <c r="B55" s="27">
-        <f>PERCENTILE(Gradebook!$AF$12:$AF$25,A55)</f>
-        <v>0.96430769230769231</v>
+        <f>PERCENTILE(Gradebook!$AG$12:$AG$25,A55)</f>
+        <v>0.93791666666666662</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -5733,8 +5934,8 @@
         <v>0.1</v>
       </c>
       <c r="B56" s="27">
-        <f>PERCENTILE(Gradebook!$AF$12:$AF$25,A56)</f>
-        <v>0.88276923076923075</v>
+        <f>PERCENTILE(Gradebook!$AG$12:$AG$25,A56)</f>
+        <v>0.86696428571428574</v>
       </c>
     </row>
   </sheetData>

--- a/libraries/assets/grades/gradebook_percentage.xlsx
+++ b/libraries/assets/grades/gradebook_percentage.xlsx
@@ -1506,11 +1506,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2113217232"/>
-        <c:axId val="-2113209392"/>
+        <c:axId val="2143075712"/>
+        <c:axId val="-2125613984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2113217232"/>
+        <c:axId val="2143075712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1545,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2113209392"/>
+        <c:crossAx val="-2125613984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1555,7 +1555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113209392"/>
+        <c:axId val="-2125613984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,7 +1629,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2113217232"/>
+        <c:crossAx val="2143075712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1701,7 +1701,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1112"/>
+                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1114"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2249,8 +2249,8 @@
   </sheetPr>
   <dimension ref="A1:AK28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4096,57 +4096,57 @@
       <c r="O26" s="70"/>
       <c r="P26" s="70"/>
       <c r="Q26" s="70" t="str">
-        <f>IF(SUM(Q12:Q25)=0,"",AVERAGE(Q12:Q25))</f>
+        <f t="shared" ref="Q26:W26" si="5">IF(SUM(Q12:Q25)=0,"",AVERAGE(Q12:Q25))</f>
         <v/>
       </c>
       <c r="R26" s="70">
-        <f>IF(SUM(R12:R25)=0,"",AVERAGE(R12:R25))</f>
+        <f t="shared" si="5"/>
         <v>0.98076923076923073</v>
       </c>
       <c r="S26" s="70">
-        <f>IF(SUM(S12:S25)=0,"",AVERAGE(S12:S25))</f>
+        <f t="shared" si="5"/>
         <v>0.81346153846153857</v>
       </c>
       <c r="T26" s="70">
-        <f>IF(SUM(T12:T25)=0,"",AVERAGE(T12:T25))</f>
+        <f t="shared" si="5"/>
         <v>0.79807692307692313</v>
       </c>
       <c r="U26" s="70">
-        <f>IF(SUM(U12:U25)=0,"",AVERAGE(U12:U25))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="V26" s="70">
-        <f>IF(SUM(V12:V25)=0,"",AVERAGE(V12:V25))</f>
+        <f t="shared" si="5"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="W26" s="70">
-        <f>IF(SUM(W12:W25)=0,"",AVERAGE(W12:W25))</f>
+        <f t="shared" si="5"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="X26" s="70"/>
       <c r="Y26" s="70"/>
       <c r="Z26" s="70" t="str">
-        <f t="shared" ref="Z26:AE26" si="5">IF(SUM(Z12:Z25)=0,"",AVERAGE(Z12:Z25))</f>
+        <f t="shared" ref="Z26:AE26" si="6">IF(SUM(Z12:Z25)=0,"",AVERAGE(Z12:Z25))</f>
         <v/>
       </c>
       <c r="AA26" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.95653846153846145</v>
       </c>
       <c r="AB26" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91423076923076918</v>
       </c>
       <c r="AC26" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91423076923076918</v>
       </c>
       <c r="AD26" s="70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AE26" s="70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AF26" s="19" t="s">
@@ -4166,51 +4166,51 @@
         <v>49</v>
       </c>
       <c r="C27" s="70">
-        <f t="shared" ref="C27:K27" si="6">IF(OR(C9=0,C26=""),"",MEDIAN(C12:C25))</f>
+        <f t="shared" ref="C27:K27" si="7">IF(OR(C9=0,C26=""),"",MEDIAN(C12:C25))</f>
         <v>1</v>
       </c>
       <c r="D27" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E27" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F27" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G27" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H27" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I27" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J27" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K27" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L27" s="70">
-        <f t="shared" ref="L27:N27" si="7">IF(OR(L9=0,L26=""),"",MEDIAN(L12:L25))</f>
+        <f t="shared" ref="L27:N27" si="8">IF(OR(L9=0,L26=""),"",MEDIAN(L12:L25))</f>
         <v>1</v>
       </c>
       <c r="M27" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N27" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O27" s="70"/>
@@ -4220,53 +4220,53 @@
         <v/>
       </c>
       <c r="R27" s="70">
-        <f t="shared" ref="R27:S27" si="8">IF(OR(R9=0,R26=""),"",MEDIAN(R12:R25))</f>
+        <f t="shared" ref="R27:S27" si="9">IF(OR(R9=0,R26=""),"",MEDIAN(R12:R25))</f>
         <v>1</v>
       </c>
       <c r="S27" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.875</v>
       </c>
       <c r="T27" s="70">
-        <f t="shared" ref="T27:W27" si="9">IF(OR(T9=0,T26=""),"",MEDIAN(T12:T25))</f>
+        <f t="shared" ref="T27:W27" si="10">IF(OR(T9=0,T26=""),"",MEDIAN(T12:T25))</f>
         <v>0.85</v>
       </c>
       <c r="U27" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="V27" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="W27" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X27" s="70"/>
       <c r="Y27" s="70"/>
       <c r="Z27" s="70" t="str">
-        <f t="shared" ref="Z27:AE27" si="10">IF(OR(Z9=0,Z26=""),"",MEDIAN(Z12:Z25))</f>
+        <f t="shared" ref="Z27:AE27" si="11">IF(OR(Z9=0,Z26=""),"",MEDIAN(Z12:Z25))</f>
         <v/>
       </c>
       <c r="AA27" s="70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="AB27" s="70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="AC27" s="70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93</v>
       </c>
       <c r="AD27" s="70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AE27" s="70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AF27" s="19" t="s">
@@ -4282,51 +4282,51 @@
         <v>50</v>
       </c>
       <c r="C28" s="70">
-        <f t="shared" ref="C28:K28" si="11">IF(OR(C9=0,C26=""),"",STDEV(C12:C25))</f>
+        <f t="shared" ref="C28:K28" si="12">IF(OR(C9=0,C26=""),"",STDEV(C12:C25))</f>
         <v>0</v>
       </c>
       <c r="D28" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3867504905630743E-2</v>
       </c>
       <c r="E28" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F28" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.6330071214910814E-2</v>
       </c>
       <c r="G28" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.3205029433784355E-2</v>
       </c>
       <c r="H28" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.1602514716892199E-2</v>
       </c>
       <c r="I28" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.1602514716892199E-2</v>
       </c>
       <c r="J28" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K28" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L28" s="70">
-        <f t="shared" ref="L28:N28" si="12">IF(OR(L9=0,L26=""),"",STDEV(L12:L25))</f>
+        <f t="shared" ref="L28:N28" si="13">IF(OR(L9=0,L26=""),"",STDEV(L12:L25))</f>
         <v>4.1602514716892199E-2</v>
       </c>
       <c r="M28" s="70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.3852900965351452E-2</v>
       </c>
       <c r="N28" s="70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.5044363558799098E-2</v>
       </c>
       <c r="O28" s="70"/>
@@ -4336,53 +4336,53 @@
         <v/>
       </c>
       <c r="R28" s="70">
-        <f t="shared" ref="R28:S28" si="13">IF(OR(R9=0,R26=""),"",STDEV(R12:R25))</f>
+        <f t="shared" ref="R28:S28" si="14">IF(OR(R9=0,R26=""),"",STDEV(R12:R25))</f>
         <v>2.5318484177091691E-2</v>
       </c>
       <c r="S28" s="70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.22558613114307899</v>
       </c>
       <c r="T28" s="70">
-        <f t="shared" ref="T28:W28" si="14">IF(OR(T9=0,T26=""),"",STDEV(T12:T25))</f>
+        <f t="shared" ref="T28:W28" si="15">IF(OR(T9=0,T26=""),"",STDEV(T12:T25))</f>
         <v>0.14522308215205881</v>
       </c>
       <c r="U28" s="70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V28" s="70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.27613402542968168</v>
       </c>
       <c r="W28" s="70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.27735009811261457</v>
       </c>
       <c r="X28" s="70"/>
       <c r="Y28" s="70"/>
       <c r="Z28" s="70" t="str">
-        <f t="shared" ref="Z28:AE28" si="15">IF(OR(Z9=0,Z26=""),"",STDEV(Z12:Z25))</f>
+        <f t="shared" ref="Z28:AE28" si="16">IF(OR(Z9=0,Z26=""),"",STDEV(Z12:Z25))</f>
         <v/>
       </c>
       <c r="AA28" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.6851996124264363E-2</v>
       </c>
       <c r="AB28" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.13245826628675214</v>
       </c>
       <c r="AC28" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.0230037855898925E-2</v>
       </c>
       <c r="AD28" s="70" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AE28" s="70" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF28" s="19" t="s">

--- a/libraries/assets/grades/gradebook_percentage.xlsx
+++ b/libraries/assets/grades/gradebook_percentage.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="155">
   <si>
     <t>Gradebook</t>
   </si>
@@ -330,45 +330,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>Claire</t>
-  </si>
-  <si>
-    <t>Audra</t>
-  </si>
-  <si>
-    <t>Erin G.</t>
-  </si>
-  <si>
-    <t>Erin H.</t>
-  </si>
-  <si>
-    <t>Taylor H.</t>
-  </si>
-  <si>
-    <t>Amber</t>
-  </si>
-  <si>
-    <t>Lexa</t>
-  </si>
-  <si>
-    <t>Cory</t>
-  </si>
-  <si>
-    <t>Lindsay</t>
-  </si>
-  <si>
-    <t>Allyson</t>
-  </si>
-  <si>
-    <t>Miranda</t>
-  </si>
-  <si>
-    <t>Taylor S.</t>
-  </si>
-  <si>
     <t>ea</t>
   </si>
   <si>
@@ -517,6 +478,45 @@
   </si>
   <si>
     <t>Pruebita 3</t>
+  </si>
+  <si>
+    <t>Emily Albertz</t>
+  </si>
+  <si>
+    <t>Audra Donaldson</t>
+  </si>
+  <si>
+    <t>Erin Glayzer</t>
+  </si>
+  <si>
+    <t>Erin Hein</t>
+  </si>
+  <si>
+    <t>Taylor Hill</t>
+  </si>
+  <si>
+    <t>Amber Kennedy</t>
+  </si>
+  <si>
+    <t>Lexa Malbaur</t>
+  </si>
+  <si>
+    <t>Cory Odom</t>
+  </si>
+  <si>
+    <t>Lindsay Rich</t>
+  </si>
+  <si>
+    <t>Allyson Rimmer</t>
+  </si>
+  <si>
+    <t>Miranda Roberts</t>
+  </si>
+  <si>
+    <t>Claire Andrues</t>
+  </si>
+  <si>
+    <t>Taylor Schroeder</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1467,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
@@ -1476,22 +1476,22 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,11 +1506,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2143075712"/>
-        <c:axId val="-2125613984"/>
+        <c:axId val="-2138459952"/>
+        <c:axId val="-2138458112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143075712"/>
+        <c:axId val="-2138459952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1545,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125613984"/>
+        <c:crossAx val="-2138458112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1555,7 +1555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125613984"/>
+        <c:axId val="-2138458112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,7 +1629,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143075712"/>
+        <c:crossAx val="-2138459952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1683,14 +1683,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>31</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
+          <xdr:col>30</xdr:col>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>35</xdr:col>
-          <xdr:colOff>937211</xdr:colOff>
+          <xdr:colOff>441911</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1701,7 +1701,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1114"/>
+                  <a14:cameraTool cellRange="Grades!A34:E49" spid="_x0000_s1121"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2249,14 +2249,14 @@
   </sheetPr>
   <dimension ref="A1:AK28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="3" customWidth="1"/>
     <col min="3" max="20" width="7" style="3" customWidth="1"/>
     <col min="21" max="23" width="8.33203125" style="3" customWidth="1"/>
     <col min="24" max="31" width="7" style="3" customWidth="1"/>
@@ -2309,7 +2309,7 @@
     <row r="2" spans="1:36" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="12" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F2" s="4"/>
       <c r="AJ2" s="46" t="s">
@@ -2319,7 +2319,7 @@
     <row r="3" spans="1:36" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="11" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -2359,7 +2359,7 @@
     <row r="4" spans="1:36" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="11" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F4" s="4"/>
       <c r="AD4" s="80" t="s">
@@ -2439,7 +2439,7 @@
     <row r="7" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
       <c r="C7" s="94" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D7" s="95"/>
       <c r="E7" s="95"/>
@@ -2456,7 +2456,7 @@
       <c r="P7" s="95"/>
       <c r="Q7" s="95"/>
       <c r="R7" s="96" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="S7" s="96"/>
       <c r="T7" s="96"/>
@@ -2464,12 +2464,12 @@
       <c r="V7" s="96"/>
       <c r="W7" s="96"/>
       <c r="X7" s="96" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="Y7" s="96"/>
       <c r="Z7" s="95"/>
       <c r="AA7" s="95" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AB7" s="95"/>
       <c r="AC7" s="95"/>
@@ -2481,88 +2481,88 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="91" t="s">
+      <c r="M8" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="P8" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="91" t="s">
+      <c r="Q8" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="I8" s="91" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="91" t="s">
+      <c r="R8" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="K8" s="91" t="s">
+      <c r="S8" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="T8" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="U8" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="V8" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="W8" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="X8" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="L8" s="91" t="s">
+      <c r="Y8" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="M8" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="N8" s="91" t="s">
-        <v>136</v>
-      </c>
-      <c r="O8" s="93" t="s">
-        <v>137</v>
-      </c>
-      <c r="P8" s="93" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q8" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="R8" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="S8" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="T8" s="91" t="s">
-        <v>154</v>
-      </c>
-      <c r="U8" s="91" t="s">
-        <v>150</v>
-      </c>
-      <c r="V8" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="W8" s="91" t="s">
-        <v>153</v>
-      </c>
-      <c r="X8" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y8" s="91" t="s">
-        <v>144</v>
-      </c>
       <c r="Z8" s="91" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="AA8" s="91" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="AB8" s="91" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="AC8" s="91" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="AD8" s="91" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="AE8" s="79" t="s">
         <v>2</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="B12" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A12),INDEX(Names!$B$10:$B$109,Gradebook!A12))</f>
-        <v>Emily</v>
+        <v>Emily Albertz</v>
       </c>
       <c r="C12" s="77">
         <v>1</v>
@@ -2760,9 +2760,15 @@
       <c r="N12" s="77">
         <v>1</v>
       </c>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
+      <c r="O12" s="77">
+        <v>0.85</v>
+      </c>
+      <c r="P12" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="77">
+        <v>1</v>
+      </c>
       <c r="R12" s="77">
         <v>1</v>
       </c>
@@ -2782,10 +2788,14 @@
         <v>1</v>
       </c>
       <c r="X12" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="77"/>
+        <v>134</v>
+      </c>
+      <c r="Y12" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z12" s="77">
+        <v>1</v>
+      </c>
       <c r="AA12" s="77">
         <v>0.97499999999999998</v>
       </c>
@@ -2795,15 +2805,17 @@
       <c r="AC12" s="77">
         <v>1.01</v>
       </c>
-      <c r="AD12" s="77"/>
+      <c r="AD12" s="77">
+        <v>0.89</v>
+      </c>
       <c r="AE12" s="77"/>
       <c r="AF12" s="71">
         <f t="shared" ref="AF12:AF25" si="0">IF(SUM(C12:AE12)=0,"",SUMPRODUCT(C12:AE12,$C$9:$AE$9))</f>
-        <v>824</v>
+        <v>1136</v>
       </c>
       <c r="AG12" s="72">
         <f t="shared" ref="AG12:AG25" si="1">IF(SUM(C12:AE12)=0,"",$AG$9+AF12/(SUMIF(C12:AE12,"&lt;&gt;",$C$9:$AE$9)-SUMIF(C12:AE12,"=E",$C$9:$AE$9)))</f>
-        <v>0.98095238095238091</v>
+        <v>0.97094017094017093</v>
       </c>
       <c r="AH12" s="73" t="str">
         <f>IF(AG12="","",INDEX(Grades!$B$12:$B$24,MATCH(AG12,Grades!$A$12:$A$24,1)))</f>
@@ -2820,7 +2832,7 @@
       </c>
       <c r="B13" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A13),INDEX(Names!$B$10:$B$109,Gradebook!A13))</f>
-        <v>Claire</v>
+        <v>Claire Andrues</v>
       </c>
       <c r="C13" s="77">
         <v>1</v>
@@ -2858,9 +2870,15 @@
       <c r="N13" s="77">
         <v>1</v>
       </c>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
+      <c r="O13" s="77">
+        <v>0.95</v>
+      </c>
+      <c r="P13" s="77">
+        <v>0.95</v>
+      </c>
+      <c r="Q13" s="77">
+        <v>0.95</v>
+      </c>
       <c r="R13" s="77">
         <v>0.95</v>
       </c>
@@ -2880,10 +2898,14 @@
         <v>0</v>
       </c>
       <c r="X13" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="77"/>
+        <v>134</v>
+      </c>
+      <c r="Y13" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z13" s="77">
+        <v>1</v>
+      </c>
       <c r="AA13" s="77">
         <v>0.90500000000000003</v>
       </c>
@@ -2891,21 +2913,23 @@
         <v>0.505</v>
       </c>
       <c r="AC13" s="77">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="AD13" s="77"/>
+        <v>0.83</v>
+      </c>
+      <c r="AD13" s="77">
+        <v>0.91</v>
+      </c>
       <c r="AE13" s="77"/>
       <c r="AF13" s="71">
         <f t="shared" si="0"/>
-        <v>612.75</v>
+        <v>936</v>
       </c>
       <c r="AG13" s="72">
         <f t="shared" si="1"/>
-        <v>0.72946428571428568</v>
+        <v>0.8</v>
       </c>
       <c r="AH13" s="73" t="str">
         <f>IF(AG13="","",INDEX(Grades!$B$12:$B$24,MATCH(AG13,Grades!$A$12:$A$24,1)))</f>
-        <v>C-</v>
+        <v>B-</v>
       </c>
       <c r="AJ13" s="82" t="s">
         <v>86</v>
@@ -2918,7 +2942,7 @@
       </c>
       <c r="B14" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A14),INDEX(Names!$B$10:$B$109,Gradebook!A14))</f>
-        <v>Audra</v>
+        <v>Audra Donaldson</v>
       </c>
       <c r="C14" s="77" t="s">
         <v>91</v>
@@ -2956,9 +2980,15 @@
       <c r="N14" s="77">
         <v>1</v>
       </c>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
+      <c r="O14" s="77">
+        <v>1</v>
+      </c>
+      <c r="P14" s="77">
+        <v>0.95</v>
+      </c>
+      <c r="Q14" s="77">
+        <v>0.95</v>
+      </c>
       <c r="R14" s="77">
         <v>0.95</v>
       </c>
@@ -2978,10 +3008,14 @@
         <v>1</v>
       </c>
       <c r="X14" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
+        <v>134</v>
+      </c>
+      <c r="Y14" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z14" s="77">
+        <v>1</v>
+      </c>
       <c r="AA14" s="77">
         <v>0.96</v>
       </c>
@@ -2991,15 +3025,17 @@
       <c r="AC14" s="77">
         <v>0.97</v>
       </c>
-      <c r="AD14" s="77"/>
+      <c r="AD14" s="77">
+        <v>1</v>
+      </c>
       <c r="AE14" s="77"/>
       <c r="AF14" s="71">
         <f t="shared" si="0"/>
-        <v>812.5</v>
+        <v>1141.5</v>
       </c>
       <c r="AG14" s="72">
         <f t="shared" si="1"/>
-        <v>0.97891566265060237</v>
+        <v>0.98405172413793107</v>
       </c>
       <c r="AH14" s="73" t="str">
         <f>IF(AG14="","",INDEX(Grades!$B$12:$B$24,MATCH(AG14,Grades!$A$12:$A$24,1)))</f>
@@ -3016,7 +3052,7 @@
       </c>
       <c r="B15" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A15),INDEX(Names!$B$10:$B$109,Gradebook!A15))</f>
-        <v>Erin G.</v>
+        <v>Erin Glayzer</v>
       </c>
       <c r="C15" s="92">
         <v>1</v>
@@ -3054,9 +3090,15 @@
       <c r="N15" s="77">
         <v>0.85</v>
       </c>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
+      <c r="O15" s="77">
+        <v>1</v>
+      </c>
+      <c r="P15" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="77">
+        <v>1</v>
+      </c>
       <c r="R15" s="77">
         <v>0.95</v>
       </c>
@@ -3070,16 +3112,20 @@
         <v>1</v>
       </c>
       <c r="V15" s="77">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="W15" s="77">
         <v>1</v>
       </c>
       <c r="X15" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="77"/>
+        <v>134</v>
+      </c>
+      <c r="Y15" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z15" s="77">
+        <v>1</v>
+      </c>
       <c r="AA15" s="77">
         <v>0.995</v>
       </c>
@@ -3089,19 +3135,21 @@
       <c r="AC15" s="77">
         <v>0.89500000000000002</v>
       </c>
-      <c r="AD15" s="77"/>
+      <c r="AD15" s="77" t="s">
+        <v>91</v>
+      </c>
       <c r="AE15" s="77"/>
       <c r="AF15" s="71">
         <f t="shared" si="0"/>
-        <v>753.75</v>
+        <v>978.75</v>
       </c>
       <c r="AG15" s="72">
         <f t="shared" si="1"/>
-        <v>0.8973214285714286</v>
+        <v>0.9595588235294118</v>
       </c>
       <c r="AH15" s="73" t="str">
         <f>IF(AG15="","",INDEX(Grades!$B$12:$B$24,MATCH(AG15,Grades!$A$12:$A$24,1)))</f>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="AJ15" s="82" t="s">
         <v>81</v>
@@ -3114,7 +3162,7 @@
       </c>
       <c r="B16" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A16),INDEX(Names!$B$10:$B$109,Gradebook!A16))</f>
-        <v>Erin H.</v>
+        <v>Erin Hein</v>
       </c>
       <c r="C16" s="92">
         <v>1</v>
@@ -3152,9 +3200,15 @@
       <c r="N16" s="77">
         <v>1</v>
       </c>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
+      <c r="O16" s="77">
+        <v>1</v>
+      </c>
+      <c r="P16" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="77">
+        <v>1</v>
+      </c>
       <c r="R16" s="77">
         <v>1</v>
       </c>
@@ -3174,10 +3228,14 @@
         <v>1</v>
       </c>
       <c r="X16" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
+        <v>134</v>
+      </c>
+      <c r="Y16" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z16" s="77">
+        <v>1</v>
+      </c>
       <c r="AA16" s="77">
         <v>0.99</v>
       </c>
@@ -3187,15 +3245,17 @@
       <c r="AC16" s="77">
         <v>0.93</v>
       </c>
-      <c r="AD16" s="77"/>
+      <c r="AD16" s="77">
+        <v>1.03</v>
+      </c>
       <c r="AE16" s="77"/>
       <c r="AF16" s="71">
         <f t="shared" si="0"/>
-        <v>807.75</v>
+        <v>1142.25</v>
       </c>
       <c r="AG16" s="72">
         <f t="shared" si="1"/>
-        <v>0.96160714285714288</v>
+        <v>0.97628205128205126</v>
       </c>
       <c r="AH16" s="73" t="str">
         <f>IF(AG16="","",INDEX(Grades!$B$12:$B$24,MATCH(AG16,Grades!$A$12:$A$24,1)))</f>
@@ -3212,7 +3272,7 @@
       </c>
       <c r="B17" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A17),INDEX(Names!$B$10:$B$109,Gradebook!A17))</f>
-        <v>Taylor H.</v>
+        <v>Taylor Hill</v>
       </c>
       <c r="C17" s="92">
         <v>1</v>
@@ -3250,9 +3310,15 @@
       <c r="N17" s="77">
         <v>1</v>
       </c>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
+      <c r="O17" s="77">
+        <v>1</v>
+      </c>
+      <c r="P17" s="77">
+        <v>0.95</v>
+      </c>
+      <c r="Q17" s="77">
+        <v>0.95</v>
+      </c>
       <c r="R17" s="77">
         <v>0.95</v>
       </c>
@@ -3272,10 +3338,14 @@
         <v>1</v>
       </c>
       <c r="X17" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="77"/>
+        <v>134</v>
+      </c>
+      <c r="Y17" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z17" s="77">
+        <v>1</v>
+      </c>
       <c r="AA17" s="77">
         <v>0.94</v>
       </c>
@@ -3285,15 +3355,17 @@
       <c r="AC17" s="77">
         <v>0.82499999999999996</v>
       </c>
-      <c r="AD17" s="77"/>
+      <c r="AD17" s="77" t="s">
+        <v>91</v>
+      </c>
       <c r="AE17" s="77"/>
       <c r="AF17" s="71">
         <f t="shared" si="0"/>
-        <v>784.75</v>
+        <v>963.75</v>
       </c>
       <c r="AG17" s="72">
         <f t="shared" si="1"/>
-        <v>0.93422619047619049</v>
+        <v>0.94485294117647056</v>
       </c>
       <c r="AH17" s="73" t="str">
         <f>IF(AG17="","",INDEX(Grades!$B$12:$B$24,MATCH(AG17,Grades!$A$12:$A$24,1)))</f>
@@ -3310,7 +3382,7 @@
       </c>
       <c r="B18" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A18),INDEX(Names!$B$10:$B$109,Gradebook!A18))</f>
-        <v>Amber</v>
+        <v>Amber Kennedy</v>
       </c>
       <c r="C18" s="92">
         <v>1</v>
@@ -3348,9 +3420,15 @@
       <c r="N18" s="77">
         <v>0.85</v>
       </c>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
+      <c r="O18" s="77">
+        <v>1</v>
+      </c>
+      <c r="P18" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="77">
+        <v>1</v>
+      </c>
       <c r="R18" s="77">
         <v>1</v>
       </c>
@@ -3370,10 +3448,14 @@
         <v>1</v>
       </c>
       <c r="X18" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
+        <v>134</v>
+      </c>
+      <c r="Y18" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z18" s="77">
+        <v>1</v>
+      </c>
       <c r="AA18" s="77">
         <v>0.96</v>
       </c>
@@ -3383,19 +3465,21 @@
       <c r="AC18" s="77">
         <v>0.96</v>
       </c>
-      <c r="AD18" s="77"/>
+      <c r="AD18" s="77" t="s">
+        <v>91</v>
+      </c>
       <c r="AE18" s="77"/>
       <c r="AF18" s="71">
         <f t="shared" si="0"/>
-        <v>800.25</v>
+        <v>980.25</v>
       </c>
       <c r="AG18" s="72">
         <f t="shared" si="1"/>
-        <v>0.95267857142857137</v>
+        <v>0.96102941176470591</v>
       </c>
       <c r="AH18" s="73" t="str">
         <f>IF(AG18="","",INDEX(Grades!$B$12:$B$24,MATCH(AG18,Grades!$A$12:$A$24,1)))</f>
-        <v>A</v>
+        <v>A+</v>
       </c>
       <c r="AJ18" s="82" t="s">
         <v>84</v>
@@ -3408,7 +3492,7 @@
       </c>
       <c r="B19" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A19),INDEX(Names!$B$10:$B$109,Gradebook!A19))</f>
-        <v>Lexa</v>
+        <v>Lexa Malbaur</v>
       </c>
       <c r="C19" s="92">
         <v>1</v>
@@ -3446,9 +3530,15 @@
       <c r="N19" s="77">
         <v>0.95</v>
       </c>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
+      <c r="O19" s="77">
+        <v>0.95</v>
+      </c>
+      <c r="P19" s="77">
+        <v>0.9</v>
+      </c>
+      <c r="Q19" s="77">
+        <v>0.9</v>
+      </c>
       <c r="R19" s="77">
         <v>1</v>
       </c>
@@ -3468,10 +3558,14 @@
         <v>1</v>
       </c>
       <c r="X19" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
+        <v>134</v>
+      </c>
+      <c r="Y19" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z19" s="77">
+        <v>1</v>
+      </c>
       <c r="AA19" s="77">
         <v>0.99</v>
       </c>
@@ -3481,15 +3575,17 @@
       <c r="AC19" s="77">
         <v>0.91500000000000004</v>
       </c>
-      <c r="AD19" s="77"/>
+      <c r="AD19" s="77" t="s">
+        <v>91</v>
+      </c>
       <c r="AE19" s="77"/>
       <c r="AF19" s="71">
         <f t="shared" si="0"/>
-        <v>810.75</v>
+        <v>988.25</v>
       </c>
       <c r="AG19" s="72">
         <f t="shared" si="1"/>
-        <v>0.96517857142857144</v>
+        <v>0.96887254901960784</v>
       </c>
       <c r="AH19" s="73" t="str">
         <f>IF(AG19="","",INDEX(Grades!$B$12:$B$24,MATCH(AG19,Grades!$A$12:$A$24,1)))</f>
@@ -3506,7 +3602,7 @@
       </c>
       <c r="B20" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A20),INDEX(Names!$B$10:$B$109,Gradebook!A20))</f>
-        <v>Cory</v>
+        <v>Cory Odom</v>
       </c>
       <c r="C20" s="92">
         <v>1</v>
@@ -3544,9 +3640,15 @@
       <c r="N20" s="77">
         <v>1</v>
       </c>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
+      <c r="O20" s="77">
+        <v>1</v>
+      </c>
+      <c r="P20" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="77">
+        <v>1</v>
+      </c>
       <c r="R20" s="77">
         <v>1</v>
       </c>
@@ -3566,10 +3668,14 @@
         <v>1</v>
       </c>
       <c r="X20" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="77"/>
+        <v>134</v>
+      </c>
+      <c r="Y20" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z20" s="77">
+        <v>1</v>
+      </c>
       <c r="AA20" s="77">
         <v>0.97</v>
       </c>
@@ -3579,19 +3685,21 @@
       <c r="AC20" s="77">
         <v>0.88500000000000001</v>
       </c>
-      <c r="AD20" s="77"/>
+      <c r="AD20" s="77">
+        <v>0.96</v>
+      </c>
       <c r="AE20" s="77"/>
       <c r="AF20" s="71">
         <f t="shared" si="0"/>
-        <v>752.25</v>
+        <v>1076.25</v>
       </c>
       <c r="AG20" s="72">
         <f t="shared" si="1"/>
-        <v>0.89553571428571432</v>
+        <v>0.91987179487179482</v>
       </c>
       <c r="AH20" s="73" t="str">
         <f>IF(AG20="","",INDEX(Grades!$B$12:$B$24,MATCH(AG20,Grades!$A$12:$A$24,1)))</f>
-        <v>B+</v>
+        <v>A-</v>
       </c>
       <c r="AJ20" s="82" t="s">
         <v>88</v>
@@ -3604,7 +3712,7 @@
       </c>
       <c r="B21" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A21),INDEX(Names!$B$10:$B$109,Gradebook!A21))</f>
-        <v>Lindsay</v>
+        <v>Lindsay Rich</v>
       </c>
       <c r="C21" s="92">
         <v>1</v>
@@ -3642,9 +3750,15 @@
       <c r="N21" s="77">
         <v>1</v>
       </c>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
+      <c r="O21" s="77">
+        <v>1</v>
+      </c>
+      <c r="P21" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="77">
+        <v>1</v>
+      </c>
       <c r="R21" s="77">
         <v>1</v>
       </c>
@@ -3664,10 +3778,14 @@
         <v>1</v>
       </c>
       <c r="X21" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="77"/>
+        <v>134</v>
+      </c>
+      <c r="Y21" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z21" s="77">
+        <v>1</v>
+      </c>
       <c r="AA21" s="77">
         <v>1.02</v>
       </c>
@@ -3677,15 +3795,17 @@
       <c r="AC21" s="77">
         <v>0.93</v>
       </c>
-      <c r="AD21" s="77"/>
+      <c r="AD21" s="77">
+        <v>0.99</v>
+      </c>
       <c r="AE21" s="77"/>
       <c r="AF21" s="71">
         <f t="shared" si="0"/>
-        <v>816.5</v>
+        <v>1145</v>
       </c>
       <c r="AG21" s="72">
         <f t="shared" si="1"/>
-        <v>0.97202380952380951</v>
+        <v>0.9786324786324786</v>
       </c>
       <c r="AH21" s="73" t="str">
         <f>IF(AG21="","",INDEX(Grades!$B$12:$B$24,MATCH(AG21,Grades!$A$12:$A$24,1)))</f>
@@ -3700,7 +3820,7 @@
       </c>
       <c r="B22" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A22),INDEX(Names!$B$10:$B$109,Gradebook!A22))</f>
-        <v>Allyson</v>
+        <v>Allyson Rimmer</v>
       </c>
       <c r="C22" s="92">
         <v>1</v>
@@ -3738,9 +3858,15 @@
       <c r="N22" s="77">
         <v>1</v>
       </c>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
+      <c r="O22" s="77">
+        <v>1</v>
+      </c>
+      <c r="P22" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="77">
+        <v>1</v>
+      </c>
       <c r="R22" s="77">
         <v>0.95</v>
       </c>
@@ -3760,12 +3886,16 @@
         <v>1</v>
       </c>
       <c r="X22" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="77"/>
+        <v>134</v>
+      </c>
+      <c r="Y22" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z22" s="77">
+        <v>1</v>
+      </c>
       <c r="AA22" s="77">
-        <v>0.69</v>
+        <v>0.85</v>
       </c>
       <c r="AB22" s="77">
         <v>0.85499999999999998</v>
@@ -3773,25 +3903,27 @@
       <c r="AC22" s="77">
         <v>0.78500000000000003</v>
       </c>
-      <c r="AD22" s="77"/>
+      <c r="AD22" s="77">
+        <v>0.88</v>
+      </c>
       <c r="AE22" s="77"/>
       <c r="AF22" s="71">
         <f t="shared" si="0"/>
-        <v>722.25</v>
+        <v>1058.25</v>
       </c>
       <c r="AG22" s="72">
         <f t="shared" si="1"/>
-        <v>0.85982142857142863</v>
+        <v>0.90448717948717949</v>
       </c>
       <c r="AH22" s="73" t="str">
         <f>IF(AG22="","",INDEX(Grades!$B$12:$B$24,MATCH(AG22,Grades!$A$12:$A$24,1)))</f>
-        <v>B</v>
+        <v>A-</v>
       </c>
       <c r="AJ22" s="84" t="s">
         <v>89</v>
       </c>
       <c r="AK22" s="85" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.15">
@@ -3801,7 +3933,7 @@
       </c>
       <c r="B23" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A23),INDEX(Names!$B$10:$B$109,Gradebook!A23))</f>
-        <v>Miranda</v>
+        <v>Miranda Roberts</v>
       </c>
       <c r="C23" s="92">
         <v>1</v>
@@ -3839,9 +3971,15 @@
       <c r="N23" s="77">
         <v>0.85</v>
       </c>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
+      <c r="O23" s="77">
+        <v>1</v>
+      </c>
+      <c r="P23" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="77">
+        <v>1</v>
+      </c>
       <c r="R23" s="77">
         <v>1</v>
       </c>
@@ -3861,10 +3999,14 @@
         <v>1</v>
       </c>
       <c r="X23" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y23" s="77"/>
-      <c r="Z23" s="77"/>
+        <v>134</v>
+      </c>
+      <c r="Y23" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z23" s="77">
+        <v>1</v>
+      </c>
       <c r="AA23" s="77">
         <v>1.01</v>
       </c>
@@ -3874,15 +4016,17 @@
       <c r="AC23" s="77">
         <v>0.97499999999999998</v>
       </c>
-      <c r="AD23" s="77"/>
+      <c r="AD23" s="77">
+        <v>1.03</v>
+      </c>
       <c r="AE23" s="77"/>
       <c r="AF23" s="71">
         <f t="shared" si="0"/>
-        <v>823.5</v>
+        <v>1158</v>
       </c>
       <c r="AG23" s="72">
         <f t="shared" si="1"/>
-        <v>0.98035714285714282</v>
+        <v>0.98974358974358978</v>
       </c>
       <c r="AH23" s="73" t="str">
         <f>IF(AG23="","",INDEX(Grades!$B$12:$B$24,MATCH(AG23,Grades!$A$12:$A$24,1)))</f>
@@ -3896,7 +4040,7 @@
       </c>
       <c r="B24" s="76" t="str">
         <f ca="1">IF(displayID,INDEX(Names!$C$10:$C$109,Gradebook!A24),INDEX(Names!$B$10:$B$109,Gradebook!A24))</f>
-        <v>Taylor S.</v>
+        <v>Taylor Schroeder</v>
       </c>
       <c r="C24" s="92">
         <v>1</v>
@@ -3934,9 +4078,15 @@
       <c r="N24" s="77">
         <v>1</v>
       </c>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
+      <c r="O24" s="77">
+        <v>1</v>
+      </c>
+      <c r="P24" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="77">
+        <v>1</v>
+      </c>
       <c r="R24" s="77">
         <v>1</v>
       </c>
@@ -3956,10 +4106,14 @@
         <v>1</v>
       </c>
       <c r="X24" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y24" s="77"/>
-      <c r="Z24" s="77"/>
+        <v>134</v>
+      </c>
+      <c r="Y24" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z24" s="77">
+        <v>1</v>
+      </c>
       <c r="AA24" s="77">
         <v>1.03</v>
       </c>
@@ -3969,15 +4123,17 @@
       <c r="AC24" s="77">
         <v>1.03</v>
       </c>
-      <c r="AD24" s="77"/>
+      <c r="AD24" s="77">
+        <v>0.99</v>
+      </c>
       <c r="AE24" s="77"/>
       <c r="AF24" s="71">
         <f t="shared" si="0"/>
-        <v>849.5</v>
+        <v>1178</v>
       </c>
       <c r="AG24" s="72">
         <f t="shared" si="1"/>
-        <v>1.0113095238095238</v>
+        <v>1.0068376068376068</v>
       </c>
       <c r="AH24" s="73" t="str">
         <f>IF(AG24="","",INDEX(Grades!$B$12:$B$24,MATCH(AG24,Grades!$A$12:$A$24,1)))</f>
@@ -4093,60 +4249,65 @@
         <f t="shared" si="4"/>
         <v>0.96153846153846145</v>
       </c>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70" t="str">
-        <f t="shared" ref="Q26:W26" si="5">IF(SUM(Q12:Q25)=0,"",AVERAGE(Q12:Q25))</f>
-        <v/>
-      </c>
-      <c r="R26" s="70">
+      <c r="O26" s="70">
+        <f t="shared" ref="O26:P26" si="5">IF(SUM(O12:O25)=0,"",AVERAGE(O12:O25))</f>
+        <v>0.98076923076923073</v>
+      </c>
+      <c r="P26" s="70">
         <f t="shared" si="5"/>
         <v>0.98076923076923073</v>
       </c>
+      <c r="Q26" s="70">
+        <f t="shared" ref="Q26:W26" si="6">IF(SUM(Q12:Q25)=0,"",AVERAGE(Q12:Q25))</f>
+        <v>0.98076923076923073</v>
+      </c>
+      <c r="R26" s="70">
+        <f t="shared" si="6"/>
+        <v>0.98076923076923073</v>
+      </c>
       <c r="S26" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.81346153846153857</v>
       </c>
       <c r="T26" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.79807692307692313</v>
       </c>
       <c r="U26" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V26" s="70">
-        <f t="shared" si="5"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" si="6"/>
+        <v>0.96923076923076923</v>
       </c>
       <c r="W26" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="X26" s="70"/>
       <c r="Y26" s="70"/>
-      <c r="Z26" s="70" t="str">
-        <f t="shared" ref="Z26:AE26" si="6">IF(SUM(Z12:Z25)=0,"",AVERAGE(Z12:Z25))</f>
-        <v/>
+      <c r="Z26" s="77">
+        <v>1</v>
       </c>
       <c r="AA26" s="70">
-        <f t="shared" si="6"/>
-        <v>0.95653846153846145</v>
+        <f t="shared" ref="Z26:AE26" si="7">IF(SUM(AA12:AA25)=0,"",AVERAGE(AA12:AA25))</f>
+        <v>0.9688461538461538</v>
       </c>
       <c r="AB26" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.91423076923076918</v>
       </c>
       <c r="AC26" s="70">
-        <f t="shared" si="6"/>
-        <v>0.91423076923076918</v>
-      </c>
-      <c r="AD26" s="70" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>0.91846153846153844</v>
+      </c>
+      <c r="AD26" s="70">
+        <f t="shared" si="7"/>
+        <v>0.96444444444444444</v>
       </c>
       <c r="AE26" s="70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF26" s="19" t="s">
@@ -4154,7 +4315,7 @@
       </c>
       <c r="AG26" s="67">
         <f>AVERAGE(AG12:AG25)</f>
-        <v>0.93226091177898418</v>
+        <v>0.95116617857099994</v>
       </c>
       <c r="AH26" s="68" t="str">
         <f>IF(AG26="","",INDEX(Grades!$B$12:$B$24,MATCH(AG26,Grades!$A$12:$A$24,1)))</f>
@@ -4166,107 +4327,113 @@
         <v>49</v>
       </c>
       <c r="C27" s="70">
-        <f t="shared" ref="C27:K27" si="7">IF(OR(C9=0,C26=""),"",MEDIAN(C12:C25))</f>
+        <f t="shared" ref="C27:K27" si="8">IF(OR(C9=0,C26=""),"",MEDIAN(C12:C25))</f>
         <v>1</v>
       </c>
       <c r="D27" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E27" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F27" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G27" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H27" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I27" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J27" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K27" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="L27" s="70">
-        <f t="shared" ref="L27:N27" si="8">IF(OR(L9=0,L26=""),"",MEDIAN(L12:L25))</f>
+        <f t="shared" ref="L27:N27" si="9">IF(OR(L9=0,L26=""),"",MEDIAN(L12:L25))</f>
         <v>1</v>
       </c>
       <c r="M27" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N27" s="70">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O27" s="70">
+        <f t="shared" ref="O27:P27" si="10">IF(OR(O9=0,O26=""),"",MEDIAN(O12:O25))</f>
+        <v>1</v>
+      </c>
+      <c r="P27" s="70">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="70">
         <f>IF(OR(Q9=0,Q26=""),"",MEDIAN(Q12:Q25))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="R27" s="70">
-        <f t="shared" ref="R27:S27" si="9">IF(OR(R9=0,R26=""),"",MEDIAN(R12:R25))</f>
+        <f t="shared" ref="R27:S27" si="11">IF(OR(R9=0,R26=""),"",MEDIAN(R12:R25))</f>
         <v>1</v>
       </c>
       <c r="S27" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.875</v>
       </c>
       <c r="T27" s="70">
-        <f t="shared" ref="T27:W27" si="10">IF(OR(T9=0,T26=""),"",MEDIAN(T12:T25))</f>
+        <f t="shared" ref="T27:W27" si="12">IF(OR(T9=0,T26=""),"",MEDIAN(T12:T25))</f>
         <v>0.85</v>
       </c>
       <c r="U27" s="70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="V27" s="70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W27" s="70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X27" s="70"/>
       <c r="Y27" s="70"/>
-      <c r="Z27" s="70" t="str">
-        <f t="shared" ref="Z27:AE27" si="11">IF(OR(Z9=0,Z26=""),"",MEDIAN(Z12:Z25))</f>
-        <v/>
+      <c r="Z27" s="70">
+        <f t="shared" ref="Z27:AE27" si="13">IF(OR(Z9=0,Z26=""),"",MEDIAN(Z12:Z25))</f>
+        <v>1</v>
       </c>
       <c r="AA27" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="AB27" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="AC27" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.93</v>
       </c>
-      <c r="AD27" s="70" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="AD27" s="70">
+        <f t="shared" si="13"/>
+        <v>0.99</v>
       </c>
       <c r="AE27" s="70" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF27" s="19" t="s">
@@ -4274,7 +4441,7 @@
       </c>
       <c r="AG27" s="67">
         <f>MEDIAN(AG12:AG25)</f>
-        <v>0.96160714285714288</v>
+        <v>0.96887254901960784</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.15">
@@ -4282,107 +4449,113 @@
         <v>50</v>
       </c>
       <c r="C28" s="70">
-        <f t="shared" ref="C28:K28" si="12">IF(OR(C9=0,C26=""),"",STDEV(C12:C25))</f>
+        <f t="shared" ref="C28:K28" si="14">IF(OR(C9=0,C26=""),"",STDEV(C12:C25))</f>
         <v>0</v>
       </c>
       <c r="D28" s="70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3867504905630743E-2</v>
       </c>
       <c r="E28" s="70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F28" s="70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.6330071214910814E-2</v>
       </c>
       <c r="G28" s="70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.3205029433784355E-2</v>
       </c>
       <c r="H28" s="70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.1602514716892199E-2</v>
       </c>
       <c r="I28" s="70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.1602514716892199E-2</v>
       </c>
       <c r="J28" s="70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K28" s="70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L28" s="70">
-        <f t="shared" ref="L28:N28" si="13">IF(OR(L9=0,L26=""),"",STDEV(L12:L25))</f>
+        <f t="shared" ref="L28:N28" si="15">IF(OR(L9=0,L26=""),"",STDEV(L12:L25))</f>
         <v>4.1602514716892199E-2</v>
       </c>
       <c r="M28" s="70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.3852900965351452E-2</v>
       </c>
       <c r="N28" s="70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.5044363558799098E-2</v>
       </c>
-      <c r="O28" s="70"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="70" t="str">
+      <c r="O28" s="70">
+        <f t="shared" ref="O28:P28" si="16">IF(OR(O9=0,O26=""),"",STDEV(O12:O25))</f>
+        <v>4.3485924631145215E-2</v>
+      </c>
+      <c r="P28" s="70">
+        <f t="shared" si="16"/>
+        <v>3.2522181779399556E-2</v>
+      </c>
+      <c r="Q28" s="70">
         <f>IF(OR(Q9=0,Q26=""),"",STDEV(Q12:Q25))</f>
-        <v/>
+        <v>3.2522181779399556E-2</v>
       </c>
       <c r="R28" s="70">
-        <f t="shared" ref="R28:S28" si="14">IF(OR(R9=0,R26=""),"",STDEV(R12:R25))</f>
+        <f t="shared" ref="R28:S28" si="17">IF(OR(R9=0,R26=""),"",STDEV(R12:R25))</f>
         <v>2.5318484177091691E-2</v>
       </c>
       <c r="S28" s="70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.22558613114307899</v>
       </c>
       <c r="T28" s="70">
-        <f t="shared" ref="T28:W28" si="15">IF(OR(T9=0,T26=""),"",STDEV(T12:T25))</f>
+        <f t="shared" ref="T28:W28" si="18">IF(OR(T9=0,T26=""),"",STDEV(T12:T25))</f>
         <v>0.14522308215205881</v>
       </c>
       <c r="U28" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V28" s="70">
-        <f t="shared" si="15"/>
-        <v>0.27613402542968168</v>
+        <f t="shared" si="18"/>
+        <v>5.9646393920272385E-2</v>
       </c>
       <c r="W28" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.27735009811261457</v>
       </c>
       <c r="X28" s="70"/>
       <c r="Y28" s="70"/>
-      <c r="Z28" s="70" t="str">
-        <f t="shared" ref="Z28:AE28" si="16">IF(OR(Z9=0,Z26=""),"",STDEV(Z12:Z25))</f>
-        <v/>
+      <c r="Z28" s="70">
+        <f t="shared" ref="Z28:AE28" si="19">IF(OR(Z9=0,Z26=""),"",STDEV(Z12:Z25))</f>
+        <v>0</v>
       </c>
       <c r="AA28" s="70">
-        <f t="shared" si="16"/>
-        <v>8.6851996124264363E-2</v>
+        <f t="shared" si="19"/>
+        <v>4.9038838610918324E-2</v>
       </c>
       <c r="AB28" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.13245826628675214</v>
       </c>
       <c r="AC28" s="70">
-        <f t="shared" si="16"/>
-        <v>8.0230037855898925E-2</v>
-      </c>
-      <c r="AD28" s="70" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>7.3438880919913477E-2</v>
+      </c>
+      <c r="AD28" s="70">
+        <f t="shared" si="19"/>
+        <v>5.7903175886800697E-2</v>
       </c>
       <c r="AE28" s="70" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AF28" s="19" t="s">
@@ -4390,7 +4563,7 @@
       </c>
       <c r="AG28" s="67">
         <f>STDEV(AG12:AG25)</f>
-        <v>7.4161714136325566E-2</v>
+        <v>5.3210096543648618E-2</v>
       </c>
       <c r="AH28" s="31" t="s">
         <v>65</v>
@@ -4421,7 +4594,7 @@
   <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4491,10 +4664,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="90" t="s">
         <v>92</v>
-      </c>
-      <c r="C10" s="90" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -4503,10 +4676,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="90" t="s">
         <v>93</v>
-      </c>
-      <c r="C11" s="90" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -4515,10 +4688,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="90" t="s">
         <v>94</v>
-      </c>
-      <c r="C12" s="90" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -4527,10 +4700,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="90" t="s">
         <v>95</v>
-      </c>
-      <c r="C13" s="90" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -4539,10 +4712,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="90" t="s">
         <v>96</v>
-      </c>
-      <c r="C14" s="90" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -4551,10 +4724,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="90" t="s">
         <v>97</v>
-      </c>
-      <c r="C15" s="90" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -4563,10 +4736,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="90" t="s">
         <v>98</v>
-      </c>
-      <c r="C16" s="90" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -4575,10 +4748,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="90" t="s">
         <v>99</v>
-      </c>
-      <c r="C17" s="90" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -4587,10 +4760,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="89" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="90" t="s">
         <v>100</v>
-      </c>
-      <c r="C18" s="90" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -4599,10 +4772,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="90" t="s">
         <v>101</v>
-      </c>
-      <c r="C19" s="90" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -4611,10 +4784,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="90" t="s">
         <v>102</v>
-      </c>
-      <c r="C20" s="90" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -4623,10 +4796,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="90" t="s">
         <v>103</v>
-      </c>
-      <c r="C21" s="90" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -4635,10 +4808,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="90" t="s">
         <v>104</v>
-      </c>
-      <c r="C22" s="90" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -5509,11 +5682,11 @@
       </c>
       <c r="C16" s="9">
         <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A16)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A16,1,0,1,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>65</v>
@@ -5562,11 +5735,11 @@
       </c>
       <c r="C19" s="9">
         <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A19)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A19,1,0,1,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -5579,11 +5752,11 @@
       </c>
       <c r="C20" s="9">
         <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A20)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A20,1,0,1,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -5596,11 +5769,11 @@
       </c>
       <c r="C21" s="9">
         <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A21)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A21,1,0,1,1))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15384615384615385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -5612,11 +5785,11 @@
       </c>
       <c r="C22" s="9">
         <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A22)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A22,1,0,1,1))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -5646,11 +5819,11 @@
       </c>
       <c r="C24" s="9">
         <f ca="1">COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;A24)-COUNTIF(Gradebook!$AG$12:$AG$25,"&gt;="&amp;OFFSET(A24,1,0,1,1))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53846153846153844</v>
+        <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -5673,7 +5846,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54">
         <f>Gradebook!$AG$26</f>
-        <v>0.93226091177898418</v>
+        <v>0.95116617857099994</v>
       </c>
       <c r="B28" s="55" t="str">
         <f>INDEX(B12:B24,MATCH(A28,A12:A24,1))</f>
@@ -5686,7 +5859,7 @@
       </c>
       <c r="B30" s="54">
         <f>Gradebook!AG27</f>
-        <v>0.96160714285714288</v>
+        <v>0.96887254901960784</v>
       </c>
       <c r="C30" s="63" t="s">
         <v>56</v>
@@ -5698,7 +5871,7 @@
       </c>
       <c r="B31" s="54">
         <f>Gradebook!AG28</f>
-        <v>7.4161714136325566E-2</v>
+        <v>5.3210096543648618E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5899,7 +6072,7 @@
       </c>
       <c r="B53" s="27">
         <f>PERCENTILE(Gradebook!$AG$12:$AG$25,A53)</f>
-        <v>0.98083333333333333</v>
+        <v>0.98860521662245804</v>
       </c>
       <c r="C53" s="63" t="s">
         <v>62</v>
@@ -5913,7 +6086,7 @@
       </c>
       <c r="B54" s="27">
         <f>PERCENTILE(Gradebook!$AG$12:$AG$25,A54)</f>
-        <v>0.97065476190476185</v>
+        <v>0.97521367521367519</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
@@ -5924,7 +6097,7 @@
       </c>
       <c r="B55" s="27">
         <f>PERCENTILE(Gradebook!$AG$12:$AG$25,A55)</f>
-        <v>0.93791666666666662</v>
+        <v>0.95985294117647058</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -5935,7 +6108,7 @@
       </c>
       <c r="B56" s="27">
         <f>PERCENTILE(Gradebook!$AG$12:$AG$25,A56)</f>
-        <v>0.86696428571428574</v>
+        <v>0.90756410256410258</v>
       </c>
     </row>
   </sheetData>
